--- a/Data/Pokname.xlsx
+++ b/Data/Pokname.xlsx
@@ -1,30 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="665">
-  <si>
-    <t>Id_pokemon</t>
-  </si>
-  <si>
-    <t>Pokemon</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="664">
+  <si>
+    <t>Name</t>
   </si>
   <si>
     <t>Bulbasaur</t>
@@ -2020,7 +2017,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2030,59 +2027,22 @@
     </font>
     <font>
       <b/>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF99"/>
-        <bgColor rgb="FFFFFF99"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCCFFFF"/>
-        <bgColor rgb="FFCCFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF99CC"/>
-        <bgColor rgb="FFFF99CC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCC99FF"/>
-        <bgColor rgb="FFCC99FF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD6D4CB"/>
-        <bgColor rgb="FFD6D4CB"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -2090,37 +2050,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2143,44 +2102,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -2213,9 +2172,9 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -2254,6378 +2213,5487 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B892"/>
+  <dimension ref="A1:B664"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A439" workbookViewId="0">
-      <selection activeCell="R461" sqref="R461"/>
+    <sheetView tabSelected="1" topLeftCell="A641" workbookViewId="0">
+      <selection activeCell="F660" sqref="F660"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B21" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B22" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B23" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B24" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B25" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B26" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B27" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B28" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
         <v>27</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B29" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
         <v>28</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B30" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
         <v>29</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B31" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
         <v>30</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B32" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
         <v>31</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B33" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
         <v>32</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B34" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
         <v>33</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B35" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
         <v>34</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B36" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
         <v>35</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B37" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
         <v>36</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B38" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
         <v>37</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B39" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
         <v>38</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B40" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
         <v>39</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B41" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
         <v>40</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B42" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
         <v>41</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B43" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
         <v>42</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B44" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
         <v>43</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B45" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
         <v>44</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B46" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
         <v>45</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B47" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
         <v>46</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B48" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
         <v>47</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="B49" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
         <v>48</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="B50" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
         <v>49</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B51" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
         <v>50</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="B52" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
         <v>51</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="B53" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
         <v>52</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B54" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
         <v>53</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="B55" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
         <v>54</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="B56" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
         <v>55</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="B57" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
         <v>56</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="B58" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
         <v>57</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="B59" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
         <v>58</v>
       </c>
-      <c r="B59" s="3" t="s">
+      <c r="B60" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
         <v>59</v>
       </c>
-      <c r="B60" s="3" t="s">
+      <c r="B61" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
         <v>60</v>
       </c>
-      <c r="B61" s="3" t="s">
+      <c r="B62" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
         <v>61</v>
       </c>
-      <c r="B62" s="3" t="s">
+      <c r="B63" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
         <v>62</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="B64" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
         <v>63</v>
       </c>
-      <c r="B64" s="3" t="s">
+      <c r="B65" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
         <v>64</v>
       </c>
-      <c r="B65" s="3" t="s">
+      <c r="B66" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
         <v>65</v>
       </c>
-      <c r="B66" s="3" t="s">
+      <c r="B67" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
         <v>66</v>
       </c>
-      <c r="B67" s="3" t="s">
+      <c r="B68" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
         <v>67</v>
       </c>
-      <c r="B68" s="3" t="s">
+      <c r="B69" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
         <v>68</v>
       </c>
-      <c r="B69" s="3" t="s">
+      <c r="B70" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
         <v>69</v>
       </c>
-      <c r="B70" s="3" t="s">
+      <c r="B71" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
         <v>70</v>
       </c>
-      <c r="B71" s="3" t="s">
+      <c r="B72" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
         <v>71</v>
       </c>
-      <c r="B72" s="3" t="s">
+      <c r="B73" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" s="2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
         <v>72</v>
       </c>
-      <c r="B73" s="3" t="s">
+      <c r="B74" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" s="2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
         <v>73</v>
       </c>
-      <c r="B74" s="3" t="s">
+      <c r="B75" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
         <v>74</v>
       </c>
-      <c r="B75" s="3" t="s">
+      <c r="B76" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" s="2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
         <v>75</v>
       </c>
-      <c r="B76" s="3" t="s">
+      <c r="B77" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
         <v>76</v>
       </c>
-      <c r="B77" s="3" t="s">
+      <c r="B78" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" s="2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
         <v>77</v>
       </c>
-      <c r="B78" s="3" t="s">
+      <c r="B79" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" s="2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
         <v>78</v>
       </c>
-      <c r="B79" s="3" t="s">
+      <c r="B80" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" s="2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
         <v>79</v>
       </c>
-      <c r="B80" s="4" t="s">
+      <c r="B81" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" s="2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
         <v>80</v>
       </c>
-      <c r="B81" s="4" t="s">
+      <c r="B82" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A82" s="2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
         <v>81</v>
       </c>
-      <c r="B82" s="4" t="s">
+      <c r="B83" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" s="2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
         <v>82</v>
       </c>
-      <c r="B83" s="4" t="s">
+      <c r="B84" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" s="2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
         <v>83</v>
       </c>
-      <c r="B84" s="4" t="s">
+      <c r="B85" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" s="2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
         <v>84</v>
       </c>
-      <c r="B85" s="4" t="s">
+      <c r="B86" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" s="2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
         <v>85</v>
       </c>
-      <c r="B86" s="4" t="s">
+      <c r="B87" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" s="2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
         <v>86</v>
       </c>
-      <c r="B87" s="4" t="s">
+      <c r="B88" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" s="2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
         <v>87</v>
       </c>
-      <c r="B88" s="4" t="s">
+      <c r="B89" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" s="2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
         <v>88</v>
       </c>
-      <c r="B89" s="4" t="s">
+      <c r="B90" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" s="2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
         <v>89</v>
       </c>
-      <c r="B90" s="4" t="s">
+      <c r="B91" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" s="2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
         <v>90</v>
       </c>
-      <c r="B91" s="4" t="s">
+      <c r="B92" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" s="2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
         <v>91</v>
       </c>
-      <c r="B92" s="4" t="s">
+      <c r="B93" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" s="2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
         <v>92</v>
       </c>
-      <c r="B93" s="4" t="s">
+      <c r="B94" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" s="2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
         <v>93</v>
       </c>
-      <c r="B94" s="4" t="s">
+      <c r="B95" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" s="2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" s="1">
         <v>94</v>
       </c>
-      <c r="B95" s="4" t="s">
+      <c r="B96" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" s="2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" s="1">
         <v>95</v>
       </c>
-      <c r="B96" s="4" t="s">
+      <c r="B97" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" s="2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" s="1">
         <v>96</v>
       </c>
-      <c r="B97" s="4" t="s">
+      <c r="B98" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" s="2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" s="1">
         <v>97</v>
       </c>
-      <c r="B98" s="4" t="s">
+      <c r="B99" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" s="2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" s="1">
         <v>98</v>
       </c>
-      <c r="B99" s="4" t="s">
+      <c r="B100" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100" s="2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" s="1">
         <v>99</v>
       </c>
-      <c r="B100" s="4" t="s">
+      <c r="B101" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" s="2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" s="1">
         <v>100</v>
       </c>
-      <c r="B101" s="4" t="s">
+      <c r="B102" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A102" s="2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" s="1">
         <v>101</v>
       </c>
-      <c r="B102" s="4" t="s">
+      <c r="B103" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A103" s="2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" s="1">
         <v>102</v>
       </c>
-      <c r="B103" s="4" t="s">
+      <c r="B104" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A104" s="2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" s="1">
         <v>103</v>
       </c>
-      <c r="B104" s="4" t="s">
+      <c r="B105" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A105" s="2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" s="1">
         <v>104</v>
       </c>
-      <c r="B105" s="4" t="s">
+      <c r="B106" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A106" s="2">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" s="1">
         <v>105</v>
       </c>
-      <c r="B106" s="4" t="s">
+      <c r="B107" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A107" s="2">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" s="1">
         <v>106</v>
       </c>
-      <c r="B107" s="4" t="s">
+      <c r="B108" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="108" spans="1:2" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A108" s="2">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" s="1">
         <v>107</v>
       </c>
-      <c r="B108" s="4" t="s">
+      <c r="B109" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A109" s="2">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" s="1">
         <v>108</v>
       </c>
-      <c r="B109" s="4" t="s">
+      <c r="B110" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A110" s="2">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" s="1">
         <v>109</v>
       </c>
-      <c r="B110" s="4" t="s">
+      <c r="B111" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A111" s="2">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" s="1">
         <v>110</v>
       </c>
-      <c r="B111" s="4" t="s">
+      <c r="B112" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A112" s="2">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" s="1">
         <v>111</v>
       </c>
-      <c r="B112" s="4" t="s">
+      <c r="B113" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A113" s="2">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" s="1">
         <v>112</v>
       </c>
-      <c r="B113" s="4" t="s">
+      <c r="B114" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A114" s="2">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" s="1">
         <v>113</v>
       </c>
-      <c r="B114" s="4" t="s">
+      <c r="B115" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A115" s="2">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" s="1">
         <v>114</v>
       </c>
-      <c r="B115" s="4" t="s">
+      <c r="B116" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="116" spans="1:2" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A116" s="2">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" s="1">
         <v>115</v>
       </c>
-      <c r="B116" s="4" t="s">
+      <c r="B117" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A117" s="2">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" s="1">
         <v>116</v>
       </c>
-      <c r="B117" s="4" t="s">
+      <c r="B118" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A118" s="2">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" s="1">
         <v>117</v>
       </c>
-      <c r="B118" s="4" t="s">
+      <c r="B119" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A119" s="2">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" s="1">
         <v>118</v>
       </c>
-      <c r="B119" s="4" t="s">
+      <c r="B120" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A120" s="2">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" s="1">
         <v>119</v>
       </c>
-      <c r="B120" s="4" t="s">
+      <c r="B121" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A121" s="2">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" s="1">
         <v>120</v>
       </c>
-      <c r="B121" s="4" t="s">
+      <c r="B122" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A122" s="2">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" s="1">
         <v>121</v>
       </c>
-      <c r="B122" s="4" t="s">
+      <c r="B123" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A123" s="2">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" s="1">
         <v>122</v>
       </c>
-      <c r="B123" s="4" t="s">
+      <c r="B124" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A124" s="2">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" s="1">
         <v>123</v>
       </c>
-      <c r="B124" s="4" t="s">
+      <c r="B125" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A125" s="2">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" s="1">
         <v>124</v>
       </c>
-      <c r="B125" s="4" t="s">
+      <c r="B126" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="126" spans="1:2" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A126" s="2">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" s="1">
         <v>125</v>
       </c>
-      <c r="B126" s="4" t="s">
+      <c r="B127" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A127" s="2">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" s="1">
         <v>126</v>
       </c>
-      <c r="B127" s="4" t="s">
+      <c r="B128" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A128" s="2">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" s="1">
         <v>127</v>
       </c>
-      <c r="B128" s="4" t="s">
+      <c r="B129" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A129" s="2">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" s="1">
         <v>128</v>
       </c>
-      <c r="B129" s="4" t="s">
+      <c r="B130" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A130" s="2">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" s="1">
         <v>129</v>
       </c>
-      <c r="B130" s="4" t="s">
+      <c r="B131" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A131" s="2">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" s="1">
         <v>130</v>
       </c>
-      <c r="B131" s="4" t="s">
+      <c r="B132" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A132" s="2">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" s="1">
         <v>131</v>
       </c>
-      <c r="B132" s="4" t="s">
+      <c r="B133" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A133" s="2">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" s="1">
         <v>132</v>
       </c>
-      <c r="B133" s="4" t="s">
+      <c r="B134" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A134" s="2">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" s="1">
         <v>133</v>
       </c>
-      <c r="B134" s="4" t="s">
+      <c r="B135" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A135" s="2">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" s="1">
         <v>134</v>
       </c>
-      <c r="B135" s="4" t="s">
+      <c r="B136" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A136" s="2">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" s="1">
         <v>135</v>
       </c>
-      <c r="B136" s="4" t="s">
+      <c r="B137" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A137" s="2">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" s="1">
         <v>136</v>
       </c>
-      <c r="B137" s="4" t="s">
+      <c r="B138" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A138" s="2">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" s="1">
         <v>137</v>
       </c>
-      <c r="B138" s="4" t="s">
+      <c r="B139" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A139" s="2">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" s="1">
         <v>138</v>
       </c>
-      <c r="B139" s="4" t="s">
+      <c r="B140" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A140" s="2">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" s="1">
         <v>139</v>
       </c>
-      <c r="B140" s="4" t="s">
+      <c r="B141" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A141" s="2">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" s="1">
         <v>140</v>
       </c>
-      <c r="B141" s="4" t="s">
+      <c r="B142" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A142" s="2">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143" s="1">
         <v>141</v>
       </c>
-      <c r="B142" s="4" t="s">
+      <c r="B143" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A143" s="2">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144" s="1">
         <v>142</v>
       </c>
-      <c r="B143" s="4" t="s">
+      <c r="B144" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A144" s="2">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145" s="1">
         <v>143</v>
       </c>
-      <c r="B144" s="4" t="s">
+      <c r="B145" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A145" s="2">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146" s="1">
         <v>144</v>
       </c>
-      <c r="B145" s="4" t="s">
+      <c r="B146" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A146" s="2">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147" s="1">
         <v>145</v>
       </c>
-      <c r="B146" s="4" t="s">
+      <c r="B147" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A147" s="2">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148" s="1">
         <v>146</v>
       </c>
-      <c r="B147" s="4" t="s">
+      <c r="B148" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A148" s="2">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149" s="1">
         <v>147</v>
       </c>
-      <c r="B148" s="4" t="s">
+      <c r="B149" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A149" s="2">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150" s="1">
         <v>148</v>
       </c>
-      <c r="B149" s="4" t="s">
+      <c r="B150" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A150" s="2">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151" s="1">
         <v>149</v>
       </c>
-      <c r="B150" s="4" t="s">
+      <c r="B151" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A151" s="2">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152" s="1">
         <v>150</v>
       </c>
-      <c r="B151" s="4" t="s">
+      <c r="B152" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A152" s="2">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153" s="1">
         <v>151</v>
       </c>
-      <c r="B152" s="4" t="s">
+      <c r="B153" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A153" s="2">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154" s="1">
         <v>152</v>
       </c>
-      <c r="B153" s="5" t="s">
+      <c r="B154" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A154" s="2">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155" s="1">
         <v>153</v>
       </c>
-      <c r="B154" s="5" t="s">
+      <c r="B155" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A155" s="2">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156" s="1">
         <v>154</v>
       </c>
-      <c r="B155" s="5" t="s">
+      <c r="B156" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A156" s="2">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157" s="1">
         <v>155</v>
       </c>
-      <c r="B156" s="5" t="s">
+      <c r="B157" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A157" s="2">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158" s="1">
         <v>156</v>
       </c>
-      <c r="B157" s="5" t="s">
+      <c r="B158" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A158" s="2">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159" s="1">
         <v>157</v>
       </c>
-      <c r="B158" s="5" t="s">
+      <c r="B159" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A159" s="2">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A160" s="1">
         <v>158</v>
       </c>
-      <c r="B159" s="5" t="s">
+      <c r="B160" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A160" s="2">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161" s="1">
         <v>159</v>
       </c>
-      <c r="B160" s="5" t="s">
+      <c r="B161" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A161" s="2">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162" s="1">
         <v>160</v>
       </c>
-      <c r="B161" s="5" t="s">
+      <c r="B162" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A162" s="2">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163" s="1">
         <v>161</v>
       </c>
-      <c r="B162" s="5" t="s">
+      <c r="B163" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A163" s="2">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A164" s="1">
         <v>162</v>
       </c>
-      <c r="B163" s="5" t="s">
+      <c r="B164" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A164" s="2">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A165" s="1">
         <v>163</v>
       </c>
-      <c r="B164" s="5" t="s">
+      <c r="B165" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A165" s="2">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A166" s="1">
         <v>164</v>
       </c>
-      <c r="B165" s="5" t="s">
+      <c r="B166" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A166" s="2">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A167" s="1">
         <v>165</v>
       </c>
-      <c r="B166" s="5" t="s">
+      <c r="B167" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A167" s="2">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A168" s="1">
         <v>166</v>
       </c>
-      <c r="B167" s="5" t="s">
+      <c r="B168" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A168" s="2">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A169" s="1">
         <v>167</v>
       </c>
-      <c r="B168" s="5" t="s">
+      <c r="B169" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A169" s="2">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A170" s="1">
         <v>168</v>
       </c>
-      <c r="B169" s="5" t="s">
+      <c r="B170" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A170" s="2">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A171" s="1">
         <v>169</v>
       </c>
-      <c r="B170" s="5" t="s">
+      <c r="B171" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A171" s="2">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A172" s="1">
         <v>170</v>
       </c>
-      <c r="B171" s="5" t="s">
+      <c r="B172" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A172" s="2">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A173" s="1">
         <v>171</v>
       </c>
-      <c r="B172" s="5" t="s">
+      <c r="B173" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A173" s="2">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A174" s="1">
         <v>172</v>
       </c>
-      <c r="B173" s="5" t="s">
+      <c r="B174" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A174" s="2">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A175" s="1">
         <v>173</v>
       </c>
-      <c r="B174" s="5" t="s">
+      <c r="B175" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A175" s="2">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A176" s="1">
         <v>174</v>
       </c>
-      <c r="B175" s="5" t="s">
+      <c r="B176" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A176" s="2">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A177" s="1">
         <v>175</v>
       </c>
-      <c r="B176" s="5" t="s">
+      <c r="B177" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A177" s="2">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A178" s="1">
         <v>176</v>
       </c>
-      <c r="B177" s="5" t="s">
+      <c r="B178" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A178" s="2">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A179" s="1">
         <v>177</v>
       </c>
-      <c r="B178" s="5" t="s">
+      <c r="B179" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A179" s="2">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A180" s="1">
         <v>178</v>
       </c>
-      <c r="B179" s="5" t="s">
+      <c r="B180" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A180" s="2">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A181" s="1">
         <v>179</v>
       </c>
-      <c r="B180" s="5" t="s">
+      <c r="B181" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A181" s="2">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A182" s="1">
         <v>180</v>
       </c>
-      <c r="B181" s="5" t="s">
+      <c r="B182" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A182" s="2">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A183" s="1">
         <v>181</v>
       </c>
-      <c r="B182" s="5" t="s">
+      <c r="B183" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A183" s="2">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A184" s="1">
         <v>182</v>
       </c>
-      <c r="B183" s="5" t="s">
+      <c r="B184" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A184" s="2">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A185" s="1">
         <v>183</v>
       </c>
-      <c r="B184" s="5" t="s">
+      <c r="B185" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A185" s="2">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A186" s="1">
         <v>184</v>
       </c>
-      <c r="B185" s="5" t="s">
+      <c r="B186" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A186" s="2">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A187" s="1">
         <v>185</v>
       </c>
-      <c r="B186" s="5" t="s">
+      <c r="B187" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A187" s="2">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A188" s="1">
         <v>186</v>
       </c>
-      <c r="B187" s="5" t="s">
+      <c r="B188" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A188" s="2">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A189" s="1">
         <v>187</v>
       </c>
-      <c r="B188" s="5" t="s">
+      <c r="B189" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A189" s="2">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A190" s="1">
         <v>188</v>
       </c>
-      <c r="B189" s="5" t="s">
+      <c r="B190" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A190" s="2">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A191" s="1">
         <v>189</v>
       </c>
-      <c r="B190" s="5" t="s">
+      <c r="B191" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A191" s="2">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A192" s="1">
         <v>190</v>
       </c>
-      <c r="B191" s="5" t="s">
+      <c r="B192" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A192" s="2">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A193" s="1">
         <v>191</v>
       </c>
-      <c r="B192" s="5" t="s">
+      <c r="B193" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A193" s="2">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A194" s="1">
         <v>192</v>
       </c>
-      <c r="B193" s="5" t="s">
+      <c r="B194" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A194" s="2">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A195" s="1">
         <v>193</v>
       </c>
-      <c r="B194" s="5" t="s">
+      <c r="B195" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A195" s="2">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A196" s="1">
         <v>194</v>
       </c>
-      <c r="B195" s="5" t="s">
+      <c r="B196" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A196" s="2">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A197" s="1">
         <v>195</v>
       </c>
-      <c r="B196" s="5" t="s">
+      <c r="B197" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A197" s="2">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A198" s="1">
         <v>196</v>
       </c>
-      <c r="B197" s="6" t="s">
+      <c r="B198" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A198" s="2">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A199" s="1">
         <v>197</v>
       </c>
-      <c r="B198" s="6" t="s">
+      <c r="B199" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A199" s="2">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A200" s="1">
         <v>198</v>
       </c>
-      <c r="B199" s="5" t="s">
+      <c r="B200" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A200" s="2">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A201" s="1">
         <v>199</v>
       </c>
-      <c r="B200" s="6" t="s">
+      <c r="B201" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A201" s="2">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A202" s="1">
         <v>200</v>
       </c>
-      <c r="B201" s="5" t="s">
+      <c r="B202" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A202" s="2">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A203" s="1">
         <v>201</v>
       </c>
-      <c r="B202" s="5" t="s">
+      <c r="B203" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A203" s="2">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A204" s="1">
         <v>202</v>
       </c>
-      <c r="B203" s="5" t="s">
+      <c r="B204" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A204" s="2">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A205" s="1">
         <v>203</v>
       </c>
-      <c r="B204" s="5" t="s">
+      <c r="B205" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A205" s="2">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A206" s="1">
         <v>204</v>
       </c>
-      <c r="B205" s="5" t="s">
+      <c r="B206" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A206" s="2">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A207" s="1">
         <v>205</v>
       </c>
-      <c r="B206" s="5" t="s">
+      <c r="B207" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A207" s="2">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A208" s="1">
         <v>206</v>
       </c>
-      <c r="B207" s="5" t="s">
+      <c r="B208" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A208" s="2">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A209" s="1">
         <v>207</v>
       </c>
-      <c r="B208" s="5" t="s">
+      <c r="B209" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A209" s="2">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A210" s="1">
         <v>208</v>
       </c>
-      <c r="B209" s="6" t="s">
+      <c r="B210" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A210" s="2">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A211" s="1">
         <v>209</v>
       </c>
-      <c r="B210" s="5" t="s">
+      <c r="B211" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A211" s="2">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A212" s="1">
         <v>210</v>
       </c>
-      <c r="B211" s="5" t="s">
+      <c r="B212" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A212" s="2">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A213" s="1">
         <v>211</v>
       </c>
-      <c r="B212" s="5" t="s">
+      <c r="B213" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A213" s="2">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A214" s="1">
         <v>212</v>
       </c>
-      <c r="B213" s="6" t="s">
+      <c r="B214" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A214" s="2">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A215" s="1">
         <v>213</v>
       </c>
-      <c r="B214" s="5" t="s">
+      <c r="B215" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A215" s="2">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A216" s="1">
         <v>214</v>
       </c>
-      <c r="B215" s="5" t="s">
+      <c r="B216" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A216" s="2">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A217" s="1">
         <v>215</v>
       </c>
-      <c r="B216" s="5" t="s">
+      <c r="B217" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A217" s="2">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A218" s="1">
         <v>216</v>
       </c>
-      <c r="B217" s="5" t="s">
+      <c r="B218" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A218" s="2">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A219" s="1">
         <v>217</v>
       </c>
-      <c r="B218" s="5" t="s">
+      <c r="B219" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A219" s="2">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A220" s="1">
         <v>218</v>
       </c>
-      <c r="B219" s="5" t="s">
+      <c r="B220" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A220" s="2">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A221" s="1">
         <v>219</v>
       </c>
-      <c r="B220" s="5" t="s">
+      <c r="B221" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A221" s="2">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A222" s="1">
         <v>220</v>
       </c>
-      <c r="B221" s="5" t="s">
+      <c r="B222" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A222" s="2">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A223" s="1">
         <v>221</v>
       </c>
-      <c r="B222" s="5" t="s">
+      <c r="B223" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A223" s="2">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A224" s="1">
         <v>222</v>
       </c>
-      <c r="B223" s="5" t="s">
+      <c r="B224" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A224" s="2">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A225" s="1">
         <v>223</v>
       </c>
-      <c r="B224" s="5" t="s">
+      <c r="B225" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A225" s="2">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A226" s="1">
         <v>224</v>
       </c>
-      <c r="B225" s="5" t="s">
+      <c r="B226" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A226" s="2">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A227" s="1">
         <v>225</v>
       </c>
-      <c r="B226" s="5" t="s">
+      <c r="B227" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A227" s="2">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A228" s="1">
         <v>226</v>
       </c>
-      <c r="B227" s="5" t="s">
+      <c r="B228" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A228" s="2">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A229" s="1">
         <v>227</v>
       </c>
-      <c r="B228" s="5" t="s">
+      <c r="B229" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A229" s="2">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A230" s="1">
         <v>228</v>
       </c>
-      <c r="B229" s="5" t="s">
+      <c r="B230" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A230" s="2">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A231" s="1">
         <v>229</v>
       </c>
-      <c r="B230" s="5" t="s">
+      <c r="B231" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A231" s="2">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A232" s="1">
         <v>230</v>
       </c>
-      <c r="B231" s="6" t="s">
+      <c r="B232" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A232" s="2">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A233" s="1">
         <v>231</v>
       </c>
-      <c r="B232" s="5" t="s">
+      <c r="B233" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A233" s="2">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A234" s="1">
         <v>232</v>
       </c>
-      <c r="B233" s="5" t="s">
+      <c r="B234" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A234" s="2">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A235" s="1">
         <v>233</v>
       </c>
-      <c r="B234" s="6" t="s">
+      <c r="B235" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A235" s="2">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A236" s="1">
         <v>234</v>
       </c>
-      <c r="B235" s="5" t="s">
+      <c r="B236" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A236" s="2">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A237" s="1">
         <v>235</v>
       </c>
-      <c r="B236" s="5" t="s">
+      <c r="B237" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A237" s="2">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A238" s="1">
         <v>236</v>
       </c>
-      <c r="B237" s="6" t="s">
+      <c r="B238" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A238" s="2">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A239" s="1">
         <v>237</v>
       </c>
-      <c r="B238" s="6" t="s">
+      <c r="B239" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="239" spans="1:2" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A239" s="2">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A240" s="1">
         <v>238</v>
       </c>
-      <c r="B239" s="6" t="s">
+      <c r="B240" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A240" s="2">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A241" s="1">
         <v>239</v>
       </c>
-      <c r="B240" s="6" t="s">
+      <c r="B241" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A241" s="2">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A242" s="1">
         <v>240</v>
       </c>
-      <c r="B241" s="6" t="s">
+      <c r="B242" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A242" s="2">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A243" s="1">
         <v>241</v>
       </c>
-      <c r="B242" s="5" t="s">
+      <c r="B243" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A243" s="2">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A244" s="1">
         <v>242</v>
       </c>
-      <c r="B243" s="6" t="s">
+      <c r="B244" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A244" s="2">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A245" s="1">
         <v>243</v>
       </c>
-      <c r="B244" s="5" t="s">
+      <c r="B245" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A245" s="2">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A246" s="1">
         <v>244</v>
       </c>
-      <c r="B245" s="5" t="s">
+      <c r="B246" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A246" s="2">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A247" s="1">
         <v>245</v>
       </c>
-      <c r="B246" s="5" t="s">
+      <c r="B247" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A247" s="2">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A248" s="1">
         <v>246</v>
       </c>
-      <c r="B247" s="5" t="s">
+      <c r="B248" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A248" s="2">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A249" s="1">
         <v>247</v>
       </c>
-      <c r="B248" s="5" t="s">
+      <c r="B249" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A249" s="2">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A250" s="1">
         <v>248</v>
       </c>
-      <c r="B249" s="5" t="s">
+      <c r="B250" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A250" s="2">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A251" s="1">
         <v>249</v>
       </c>
-      <c r="B250" s="5" t="s">
+      <c r="B251" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A251" s="2">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A252" s="1">
         <v>250</v>
       </c>
-      <c r="B251" s="5" t="s">
+      <c r="B252" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A252" s="2">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A253" s="1">
         <v>251</v>
       </c>
-      <c r="B252" s="5" t="s">
+      <c r="B253" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A253" s="2">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A254" s="1">
         <v>252</v>
       </c>
-      <c r="B253" s="7" t="s">
+      <c r="B254" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A254" s="2">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A255" s="1">
         <v>253</v>
       </c>
-      <c r="B254" s="7" t="s">
+      <c r="B255" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A255" s="2">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A256" s="1">
         <v>254</v>
       </c>
-      <c r="B255" s="7" t="s">
+      <c r="B256" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A256" s="2">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A257" s="1">
         <v>255</v>
       </c>
-      <c r="B256" s="7" t="s">
+      <c r="B257" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A257" s="2">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A258" s="1">
         <v>256</v>
       </c>
-      <c r="B257" s="7" t="s">
+      <c r="B258" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A258" s="2">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A259" s="1">
         <v>257</v>
       </c>
-      <c r="B258" s="7" t="s">
+      <c r="B259" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A259" s="2">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A260" s="1">
         <v>258</v>
       </c>
-      <c r="B259" s="7" t="s">
+      <c r="B260" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A260" s="2">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A261" s="1">
         <v>259</v>
       </c>
-      <c r="B260" s="7" t="s">
+      <c r="B261" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A261" s="2">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A262" s="1">
         <v>260</v>
       </c>
-      <c r="B261" s="7" t="s">
+      <c r="B262" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A262" s="2">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A263" s="1">
         <v>261</v>
       </c>
-      <c r="B262" s="7" t="s">
+      <c r="B263" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A263" s="2">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A264" s="1">
         <v>262</v>
       </c>
-      <c r="B263" s="7" t="s">
+      <c r="B264" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A264" s="2">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A265" s="1">
         <v>263</v>
       </c>
-      <c r="B264" s="7" t="s">
+      <c r="B265" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A265" s="2">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A266" s="1">
         <v>264</v>
       </c>
-      <c r="B265" s="7" t="s">
+      <c r="B266" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A266" s="2">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A267" s="1">
         <v>265</v>
       </c>
-      <c r="B266" s="7" t="s">
+      <c r="B267" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A267" s="2">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A268" s="1">
         <v>266</v>
       </c>
-      <c r="B267" s="7" t="s">
+      <c r="B268" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A268" s="2">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A269" s="1">
         <v>267</v>
       </c>
-      <c r="B268" s="7" t="s">
+      <c r="B269" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A269" s="2">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A270" s="1">
         <v>268</v>
       </c>
-      <c r="B269" s="7" t="s">
+      <c r="B270" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A270" s="2">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A271" s="1">
         <v>269</v>
       </c>
-      <c r="B270" s="7" t="s">
+      <c r="B271" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A271" s="2">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A272" s="1">
         <v>270</v>
       </c>
-      <c r="B271" s="7" t="s">
+      <c r="B272" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A272" s="2">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A273" s="1">
         <v>271</v>
       </c>
-      <c r="B272" s="7" t="s">
+      <c r="B273" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A273" s="2">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A274" s="1">
         <v>272</v>
       </c>
-      <c r="B273" s="7" t="s">
+      <c r="B274" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A274" s="2">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A275" s="1">
         <v>273</v>
       </c>
-      <c r="B274" s="7" t="s">
+      <c r="B275" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A275" s="2">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A276" s="1">
         <v>274</v>
       </c>
-      <c r="B275" s="7" t="s">
+      <c r="B276" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A276" s="2">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A277" s="1">
         <v>275</v>
       </c>
-      <c r="B276" s="7" t="s">
+      <c r="B277" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A277" s="2">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A278" s="1">
         <v>276</v>
       </c>
-      <c r="B277" s="7" t="s">
+      <c r="B278" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A278" s="2">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A279" s="1">
         <v>277</v>
       </c>
-      <c r="B278" s="7" t="s">
+      <c r="B279" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A279" s="2">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A280" s="1">
         <v>278</v>
       </c>
-      <c r="B279" s="7" t="s">
+      <c r="B280" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A280" s="2">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A281" s="1">
         <v>279</v>
       </c>
-      <c r="B280" s="7" t="s">
+      <c r="B281" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A281" s="2">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A282" s="1">
         <v>280</v>
       </c>
-      <c r="B281" s="7" t="s">
+      <c r="B282" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A282" s="2">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A283" s="1">
         <v>281</v>
       </c>
-      <c r="B282" s="7" t="s">
+      <c r="B283" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A283" s="2">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A284" s="1">
         <v>282</v>
       </c>
-      <c r="B283" s="7" t="s">
+      <c r="B284" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A284" s="2">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A285" s="1">
         <v>283</v>
       </c>
-      <c r="B284" s="7" t="s">
+      <c r="B285" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A285" s="2">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A286" s="1">
         <v>284</v>
       </c>
-      <c r="B285" s="7" t="s">
+      <c r="B286" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A286" s="2">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A287" s="1">
         <v>285</v>
       </c>
-      <c r="B286" s="7" t="s">
+      <c r="B287" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A287" s="2">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A288" s="1">
         <v>286</v>
       </c>
-      <c r="B287" s="7" t="s">
+      <c r="B288" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A288" s="2">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A289" s="1">
         <v>287</v>
       </c>
-      <c r="B288" s="7" t="s">
+      <c r="B289" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A289" s="2">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A290" s="1">
         <v>288</v>
       </c>
-      <c r="B289" s="7" t="s">
+      <c r="B290" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A290" s="2">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A291" s="1">
         <v>289</v>
       </c>
-      <c r="B290" s="7" t="s">
+      <c r="B291" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A291" s="2">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A292" s="1">
         <v>290</v>
       </c>
-      <c r="B291" s="7" t="s">
+      <c r="B292" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A292" s="2">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A293" s="1">
         <v>291</v>
       </c>
-      <c r="B292" s="7" t="s">
+      <c r="B293" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A293" s="2">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A294" s="1">
         <v>292</v>
       </c>
-      <c r="B293" s="7" t="s">
+      <c r="B294" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A294" s="2">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A295" s="1">
         <v>293</v>
       </c>
-      <c r="B294" s="7" t="s">
+      <c r="B295" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A295" s="2">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A296" s="1">
         <v>294</v>
       </c>
-      <c r="B295" s="7" t="s">
+      <c r="B296" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A296" s="2">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A297" s="1">
         <v>295</v>
       </c>
-      <c r="B296" s="7" t="s">
+      <c r="B297" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A297" s="2">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A298" s="1">
         <v>296</v>
       </c>
-      <c r="B297" s="7" t="s">
+      <c r="B298" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A298" s="2">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A299" s="1">
         <v>297</v>
       </c>
-      <c r="B298" s="7" t="s">
+      <c r="B299" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A299" s="2">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A300" s="1">
         <v>298</v>
       </c>
-      <c r="B299" s="7" t="s">
+      <c r="B300" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A300" s="2">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A301" s="1">
         <v>299</v>
       </c>
-      <c r="B300" s="7" t="s">
+      <c r="B301" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A301" s="2">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A302" s="1">
         <v>300</v>
       </c>
-      <c r="B301" s="7" t="s">
+      <c r="B302" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A302" s="2">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A303" s="1">
         <v>301</v>
       </c>
-      <c r="B302" s="7" t="s">
+      <c r="B303" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A303" s="2">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A304" s="1">
         <v>302</v>
       </c>
-      <c r="B303" s="7" t="s">
+      <c r="B304" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A304" s="2">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A305" s="1">
         <v>303</v>
       </c>
-      <c r="B304" s="7" t="s">
+      <c r="B305" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A305" s="2">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A306" s="1">
         <v>304</v>
       </c>
-      <c r="B305" s="7" t="s">
+      <c r="B306" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A306" s="2">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A307" s="1">
         <v>305</v>
       </c>
-      <c r="B306" s="7" t="s">
+      <c r="B307" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A307" s="2">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A308" s="1">
         <v>306</v>
       </c>
-      <c r="B307" s="7" t="s">
+      <c r="B308" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A308" s="2">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A309" s="1">
         <v>307</v>
       </c>
-      <c r="B308" s="7" t="s">
+      <c r="B309" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A309" s="2">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A310" s="1">
         <v>308</v>
       </c>
-      <c r="B309" s="7" t="s">
+      <c r="B310" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A310" s="2">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A311" s="1">
         <v>309</v>
       </c>
-      <c r="B310" s="7" t="s">
+      <c r="B311" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A311" s="2">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A312" s="1">
         <v>310</v>
       </c>
-      <c r="B311" s="7" t="s">
+      <c r="B312" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A312" s="2">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A313" s="1">
         <v>311</v>
       </c>
-      <c r="B312" s="7" t="s">
+      <c r="B313" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A313" s="2">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A314" s="1">
         <v>312</v>
       </c>
-      <c r="B313" s="7" t="s">
+      <c r="B314" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A314" s="2">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A315" s="1">
         <v>313</v>
       </c>
-      <c r="B314" s="7" t="s">
+      <c r="B315" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A315" s="2">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A316" s="1">
         <v>314</v>
       </c>
-      <c r="B315" s="7" t="s">
+      <c r="B316" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A316" s="2">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A317" s="1">
         <v>315</v>
       </c>
-      <c r="B316" s="7" t="s">
+      <c r="B317" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A317" s="2">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A318" s="1">
         <v>316</v>
       </c>
-      <c r="B317" s="7" t="s">
+      <c r="B318" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A318" s="2">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A319" s="1">
         <v>317</v>
       </c>
-      <c r="B318" s="7" t="s">
+      <c r="B319" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A319" s="2">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A320" s="1">
         <v>318</v>
       </c>
-      <c r="B319" s="7" t="s">
+      <c r="B320" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A320" s="2">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A321" s="1">
         <v>319</v>
       </c>
-      <c r="B320" s="7" t="s">
+      <c r="B321" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A321" s="2">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A322" s="1">
         <v>320</v>
       </c>
-      <c r="B321" s="7" t="s">
+      <c r="B322" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A322" s="2">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A323" s="1">
         <v>321</v>
       </c>
-      <c r="B322" s="7" t="s">
+      <c r="B323" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A323" s="2">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A324" s="1">
         <v>322</v>
       </c>
-      <c r="B323" s="7" t="s">
+      <c r="B324" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A324" s="2">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A325" s="1">
         <v>323</v>
       </c>
-      <c r="B324" s="7" t="s">
+      <c r="B325" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A325" s="2">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A326" s="1">
         <v>324</v>
       </c>
-      <c r="B325" s="7" t="s">
+      <c r="B326" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A326" s="2">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A327" s="1">
         <v>325</v>
       </c>
-      <c r="B326" s="7" t="s">
+      <c r="B327" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A327" s="2">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A328" s="1">
         <v>326</v>
       </c>
-      <c r="B327" s="7" t="s">
+      <c r="B328" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A328" s="2">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A329" s="1">
         <v>327</v>
       </c>
-      <c r="B328" s="7" t="s">
+      <c r="B329" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A329" s="2">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A330" s="1">
         <v>328</v>
       </c>
-      <c r="B329" s="7" t="s">
+      <c r="B330" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A330" s="2">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A331" s="1">
         <v>329</v>
       </c>
-      <c r="B330" s="7" t="s">
+      <c r="B331" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A331" s="2">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A332" s="1">
         <v>330</v>
       </c>
-      <c r="B331" s="7" t="s">
+      <c r="B332" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A332" s="2">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A333" s="1">
         <v>331</v>
       </c>
-      <c r="B332" s="7" t="s">
+      <c r="B333" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A333" s="2">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A334" s="1">
         <v>332</v>
       </c>
-      <c r="B333" s="7" t="s">
+      <c r="B334" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A334" s="2">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A335" s="1">
         <v>333</v>
       </c>
-      <c r="B334" s="7" t="s">
+      <c r="B335" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A335" s="2">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A336" s="1">
         <v>334</v>
       </c>
-      <c r="B335" s="7" t="s">
+      <c r="B336" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A336" s="2">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A337" s="1">
         <v>335</v>
       </c>
-      <c r="B336" s="7" t="s">
+      <c r="B337" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A337" s="2">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A338" s="1">
         <v>336</v>
       </c>
-      <c r="B337" s="7" t="s">
+      <c r="B338" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A338" s="2">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A339" s="1">
         <v>337</v>
       </c>
-      <c r="B338" s="7" t="s">
+      <c r="B339" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A339" s="2">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A340" s="1">
         <v>338</v>
       </c>
-      <c r="B339" s="7" t="s">
+      <c r="B340" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A340" s="2">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A341" s="1">
         <v>339</v>
       </c>
-      <c r="B340" s="7" t="s">
+      <c r="B341" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A341" s="2">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A342" s="1">
         <v>340</v>
       </c>
-      <c r="B341" s="7" t="s">
+      <c r="B342" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A342" s="2">
+    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A343" s="1">
         <v>341</v>
       </c>
-      <c r="B342" s="7" t="s">
+      <c r="B343" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A343" s="2">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A344" s="1">
         <v>342</v>
       </c>
-      <c r="B343" s="7" t="s">
+      <c r="B344" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A344" s="2">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A345" s="1">
         <v>343</v>
       </c>
-      <c r="B344" s="7" t="s">
+      <c r="B345" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A345" s="2">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A346" s="1">
         <v>344</v>
       </c>
-      <c r="B345" s="7" t="s">
+      <c r="B346" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A346" s="2">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A347" s="1">
         <v>345</v>
       </c>
-      <c r="B346" s="7" t="s">
+      <c r="B347" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A347" s="2">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A348" s="1">
         <v>346</v>
       </c>
-      <c r="B347" s="7" t="s">
+      <c r="B348" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A348" s="2">
+    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A349" s="1">
         <v>347</v>
       </c>
-      <c r="B348" s="7" t="s">
+      <c r="B349" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A349" s="2">
+    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A350" s="1">
         <v>348</v>
       </c>
-      <c r="B349" s="7" t="s">
+      <c r="B350" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A350" s="2">
+    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A351" s="1">
         <v>349</v>
       </c>
-      <c r="B350" s="7" t="s">
+      <c r="B351" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A351" s="2">
+    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A352" s="1">
         <v>350</v>
       </c>
-      <c r="B351" s="7" t="s">
+      <c r="B352" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A352" s="2">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A353" s="1">
         <v>351</v>
       </c>
-      <c r="B352" s="7" t="s">
+      <c r="B353" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A353" s="2">
+    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A354" s="1">
         <v>352</v>
       </c>
-      <c r="B353" s="7" t="s">
+      <c r="B354" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A354" s="2">
+    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A355" s="1">
         <v>353</v>
       </c>
-      <c r="B354" s="7" t="s">
+      <c r="B355" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A355" s="2">
+    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A356" s="1">
         <v>354</v>
       </c>
-      <c r="B355" s="7" t="s">
+      <c r="B356" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A356" s="2">
+    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A357" s="1">
         <v>355</v>
       </c>
-      <c r="B356" s="7" t="s">
+      <c r="B357" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A357" s="2">
+    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A358" s="1">
         <v>356</v>
       </c>
-      <c r="B357" s="7" t="s">
+      <c r="B358" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A358" s="2">
+    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A359" s="1">
         <v>357</v>
       </c>
-      <c r="B358" s="7" t="s">
+      <c r="B359" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A359" s="2">
+    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A360" s="1">
         <v>358</v>
       </c>
-      <c r="B359" s="7" t="s">
+      <c r="B360" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A360" s="2">
+    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A361" s="1">
         <v>359</v>
       </c>
-      <c r="B360" s="7" t="s">
+      <c r="B361" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A361" s="2">
+    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A362" s="1">
         <v>360</v>
       </c>
-      <c r="B361" s="7" t="s">
+      <c r="B362" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A362" s="2">
+    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A363" s="1">
         <v>361</v>
       </c>
-      <c r="B362" s="7" t="s">
+      <c r="B363" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A363" s="2">
+    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A364" s="1">
         <v>362</v>
       </c>
-      <c r="B363" s="7" t="s">
+      <c r="B364" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A364" s="2">
+    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A365" s="1">
         <v>363</v>
       </c>
-      <c r="B364" s="7" t="s">
+      <c r="B365" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A365" s="2">
+    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A366" s="1">
         <v>364</v>
       </c>
-      <c r="B365" s="7" t="s">
+      <c r="B366" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A366" s="2">
+    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A367" s="1">
         <v>365</v>
       </c>
-      <c r="B366" s="7" t="s">
+      <c r="B367" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A367" s="2">
+    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A368" s="1">
         <v>366</v>
       </c>
-      <c r="B367" s="7" t="s">
+      <c r="B368" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A368" s="2">
+    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A369" s="1">
         <v>367</v>
       </c>
-      <c r="B368" s="7" t="s">
+      <c r="B369" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A369" s="2">
+    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A370" s="1">
         <v>368</v>
       </c>
-      <c r="B369" s="7" t="s">
+      <c r="B370" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A370" s="2">
+    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A371" s="1">
         <v>369</v>
       </c>
-      <c r="B370" s="7" t="s">
+      <c r="B371" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A371" s="2">
+    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A372" s="1">
         <v>370</v>
       </c>
-      <c r="B371" s="7" t="s">
+      <c r="B372" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A372" s="2">
+    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A373" s="1">
         <v>371</v>
       </c>
-      <c r="B372" s="7" t="s">
+      <c r="B373" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A373" s="2">
+    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A374" s="1">
         <v>372</v>
       </c>
-      <c r="B373" s="7" t="s">
+      <c r="B374" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A374" s="2">
+    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A375" s="1">
         <v>373</v>
       </c>
-      <c r="B374" s="7" t="s">
+      <c r="B375" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A375" s="2">
+    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A376" s="1">
         <v>374</v>
       </c>
-      <c r="B375" s="7" t="s">
+      <c r="B376" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A376" s="2">
+    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A377" s="1">
         <v>375</v>
       </c>
-      <c r="B376" s="7" t="s">
+      <c r="B377" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A377" s="2">
+    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A378" s="1">
         <v>376</v>
       </c>
-      <c r="B377" s="7" t="s">
+      <c r="B378" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A378" s="2">
+    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A379" s="1">
         <v>377</v>
       </c>
-      <c r="B378" s="7" t="s">
+      <c r="B379" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A379" s="2">
+    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A380" s="1">
         <v>378</v>
       </c>
-      <c r="B379" s="7" t="s">
+      <c r="B380" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A380" s="2">
+    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A381" s="1">
         <v>379</v>
       </c>
-      <c r="B380" s="7" t="s">
+      <c r="B381" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A381" s="2">
+    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A382" s="1">
         <v>380</v>
       </c>
-      <c r="B381" s="7" t="s">
+      <c r="B382" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A382" s="2">
+    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A383" s="1">
         <v>381</v>
       </c>
-      <c r="B382" s="7" t="s">
+      <c r="B383" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A383" s="2">
+    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A384" s="1">
         <v>382</v>
       </c>
-      <c r="B383" s="7" t="s">
+      <c r="B384" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A384" s="2">
+    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A385" s="1">
         <v>383</v>
       </c>
-      <c r="B384" s="7" t="s">
+      <c r="B385" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A385" s="2">
+    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A386" s="1">
         <v>384</v>
       </c>
-      <c r="B385" s="7" t="s">
+      <c r="B386" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A386" s="2">
+    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A387" s="1">
         <v>385</v>
       </c>
-      <c r="B386" s="7" t="s">
+      <c r="B387" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A387" s="2">
+    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A388" s="1">
         <v>386</v>
       </c>
-      <c r="B387" s="7" t="s">
+      <c r="B388" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A388" s="2">
+    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A389" s="1">
         <v>387</v>
       </c>
-      <c r="B388" s="7" t="s">
+      <c r="B389" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A389" s="2">
+    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A390" s="1">
         <v>388</v>
       </c>
-      <c r="B389" s="7" t="s">
+      <c r="B390" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A390" s="2">
+    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A391" s="1">
         <v>389</v>
       </c>
-      <c r="B390" s="7" t="s">
+      <c r="B391" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A391" s="2">
+    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A392" s="1">
         <v>390</v>
       </c>
-      <c r="B391" s="8" t="s">
+      <c r="B392" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A392" s="2">
+    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A393" s="1">
         <v>391</v>
       </c>
-      <c r="B392" s="8" t="s">
+      <c r="B393" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A393" s="2">
+    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A394" s="1">
         <v>392</v>
       </c>
-      <c r="B393" s="8" t="s">
+      <c r="B394" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A394" s="2">
+    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A395" s="1">
         <v>393</v>
       </c>
-      <c r="B394" s="8" t="s">
+      <c r="B395" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A395" s="2">
+    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A396" s="1">
         <v>394</v>
       </c>
-      <c r="B395" s="8" t="s">
+      <c r="B396" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A396" s="2">
+    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A397" s="1">
         <v>395</v>
       </c>
-      <c r="B396" s="8" t="s">
+      <c r="B397" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A397" s="2">
+    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A398" s="1">
         <v>396</v>
       </c>
-      <c r="B397" s="8" t="s">
+      <c r="B398" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A398" s="2">
+    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A399" s="1">
         <v>397</v>
       </c>
-      <c r="B398" s="8" t="s">
+      <c r="B399" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A399" s="2">
+    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A400" s="1">
         <v>398</v>
       </c>
-      <c r="B399" s="8" t="s">
+      <c r="B400" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A400" s="2">
+    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A401" s="1">
         <v>399</v>
       </c>
-      <c r="B400" s="8" t="s">
+      <c r="B401" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A401" s="2">
+    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A402" s="1">
         <v>400</v>
       </c>
-      <c r="B401" s="8" t="s">
+      <c r="B402" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A402" s="2">
+    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A403" s="1">
         <v>401</v>
       </c>
-      <c r="B402" s="8" t="s">
+      <c r="B403" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A403" s="2">
+    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A404" s="1">
         <v>402</v>
       </c>
-      <c r="B403" s="8" t="s">
+      <c r="B404" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A404" s="2">
+    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A405" s="1">
         <v>403</v>
       </c>
-      <c r="B404" s="8" t="s">
+      <c r="B405" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A405" s="2">
+    <row r="406" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A406" s="1">
         <v>404</v>
       </c>
-      <c r="B405" s="8" t="s">
+      <c r="B406" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A406" s="2">
+    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A407" s="1">
         <v>405</v>
       </c>
-      <c r="B406" s="8" t="s">
+      <c r="B407" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A407" s="2">
+    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A408" s="1">
         <v>406</v>
       </c>
-      <c r="B407" s="8" t="s">
+      <c r="B408" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A408" s="2">
+    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A409" s="1">
         <v>407</v>
       </c>
-      <c r="B408" s="8" t="s">
+      <c r="B409" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A409" s="2">
+    <row r="410" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A410" s="1">
         <v>408</v>
       </c>
-      <c r="B409" s="8" t="s">
+      <c r="B410" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A410" s="2">
+    <row r="411" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A411" s="1">
         <v>409</v>
       </c>
-      <c r="B410" s="8" t="s">
+      <c r="B411" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A411" s="2">
+    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A412" s="1">
         <v>410</v>
       </c>
-      <c r="B411" s="8" t="s">
+      <c r="B412" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A412" s="2">
+    <row r="413" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A413" s="1">
         <v>411</v>
       </c>
-      <c r="B412" s="8" t="s">
+      <c r="B413" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A413" s="2">
+    <row r="414" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A414" s="1">
         <v>412</v>
       </c>
-      <c r="B413" s="8" t="s">
+      <c r="B414" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A414" s="2">
+    <row r="415" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A415" s="1">
         <v>413</v>
       </c>
-      <c r="B414" s="8" t="s">
+      <c r="B415" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A415" s="2">
+    <row r="416" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A416" s="1">
         <v>414</v>
       </c>
-      <c r="B415" s="8" t="s">
+      <c r="B416" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A416" s="2">
+    <row r="417" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A417" s="1">
         <v>415</v>
       </c>
-      <c r="B416" s="8" t="s">
+      <c r="B417" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A417" s="2">
+    <row r="418" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A418" s="1">
         <v>416</v>
       </c>
-      <c r="B417" s="8" t="s">
+      <c r="B418" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A418" s="2">
+    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A419" s="1">
         <v>417</v>
       </c>
-      <c r="B418" s="8" t="s">
+      <c r="B419" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A419" s="2">
+    <row r="420" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A420" s="1">
         <v>418</v>
       </c>
-      <c r="B419" s="8" t="s">
+      <c r="B420" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A420" s="2">
+    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A421" s="1">
         <v>419</v>
       </c>
-      <c r="B420" s="8" t="s">
+      <c r="B421" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A421" s="2">
+    <row r="422" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A422" s="1">
         <v>420</v>
       </c>
-      <c r="B421" s="8" t="s">
+      <c r="B422" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A422" s="2">
+    <row r="423" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A423" s="1">
         <v>421</v>
       </c>
-      <c r="B422" s="8" t="s">
+      <c r="B423" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A423" s="2">
+    <row r="424" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A424" s="1">
         <v>422</v>
       </c>
-      <c r="B423" s="8" t="s">
+      <c r="B424" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A424" s="2">
+    <row r="425" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A425" s="1">
         <v>423</v>
       </c>
-      <c r="B424" s="8" t="s">
+      <c r="B425" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A425" s="2">
+    <row r="426" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A426" s="1">
         <v>424</v>
       </c>
-      <c r="B425" s="8" t="s">
+      <c r="B426" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="426" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A426" s="2">
+    <row r="427" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A427" s="1">
         <v>425</v>
       </c>
-      <c r="B426" s="8" t="s">
+      <c r="B427" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A427" s="2">
+    <row r="428" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A428" s="1">
         <v>426</v>
       </c>
-      <c r="B427" s="8" t="s">
+      <c r="B428" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="428" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A428" s="2">
+    <row r="429" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A429" s="1">
         <v>427</v>
       </c>
-      <c r="B428" s="8" t="s">
+      <c r="B429" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="429" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A429" s="2">
+    <row r="430" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A430" s="1">
         <v>428</v>
       </c>
-      <c r="B429" s="8" t="s">
+      <c r="B430" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="430" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A430" s="2">
+    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A431" s="1">
         <v>429</v>
       </c>
-      <c r="B430" s="8" t="s">
+      <c r="B431" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A431" s="2">
+    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A432" s="1">
         <v>430</v>
       </c>
-      <c r="B431" s="8" t="s">
+      <c r="B432" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A432" s="2">
+    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A433" s="1">
         <v>431</v>
       </c>
-      <c r="B432" s="8" t="s">
+      <c r="B433" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A433" s="2">
+    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A434" s="1">
         <v>432</v>
       </c>
-      <c r="B433" s="8" t="s">
+      <c r="B434" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A434" s="2">
+    <row r="435" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A435" s="1">
         <v>433</v>
       </c>
-      <c r="B434" s="8" t="s">
+      <c r="B435" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="435" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A435" s="2">
+    <row r="436" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A436" s="1">
         <v>434</v>
       </c>
-      <c r="B435" s="8" t="s">
+      <c r="B436" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="436" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A436" s="2">
+    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A437" s="1">
         <v>435</v>
       </c>
-      <c r="B436" s="8" t="s">
+      <c r="B437" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A437" s="2">
+    <row r="438" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A438" s="1">
         <v>436</v>
       </c>
-      <c r="B437" s="8" t="s">
+      <c r="B438" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A438" s="2">
+    <row r="439" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A439" s="1">
         <v>437</v>
       </c>
-      <c r="B438" s="8" t="s">
+      <c r="B439" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A439" s="2">
+    <row r="440" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A440" s="1">
         <v>438</v>
       </c>
-      <c r="B439" s="8" t="s">
+      <c r="B440" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="440" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A440" s="2">
+    <row r="441" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A441" s="1">
         <v>439</v>
       </c>
-      <c r="B440" s="8" t="s">
+      <c r="B441" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="441" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A441" s="2">
+    <row r="442" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A442" s="1">
         <v>440</v>
       </c>
-      <c r="B441" s="8" t="s">
+      <c r="B442" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="442" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A442" s="2">
+    <row r="443" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A443" s="1">
         <v>441</v>
       </c>
-      <c r="B442" s="8" t="s">
+      <c r="B443" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="443" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A443" s="2">
+    <row r="444" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A444" s="1">
         <v>442</v>
       </c>
-      <c r="B443" s="8" t="s">
+      <c r="B444" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="444" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A444" s="2">
+    <row r="445" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A445" s="1">
         <v>443</v>
       </c>
-      <c r="B444" s="8" t="s">
+      <c r="B445" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="445" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A445" s="2">
+    <row r="446" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A446" s="1">
         <v>444</v>
       </c>
-      <c r="B445" s="9" t="s">
+      <c r="B446" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="446" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A446" s="2">
+    <row r="447" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A447" s="1">
         <v>445</v>
       </c>
-      <c r="B446" s="9" t="s">
+      <c r="B447" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="447" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A447" s="2">
+    <row r="448" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A448" s="1">
         <v>446</v>
       </c>
-      <c r="B447" s="8" t="s">
+      <c r="B448" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="448" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A448" s="2">
+    <row r="449" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A449" s="1">
         <v>447</v>
       </c>
-      <c r="B448" s="8" t="s">
+      <c r="B449" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="449" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A449" s="2">
+    <row r="450" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A450" s="1">
         <v>448</v>
       </c>
-      <c r="B449" s="8" t="s">
+      <c r="B450" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="450" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A450" s="2">
+    <row r="451" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A451" s="1">
         <v>449</v>
       </c>
-      <c r="B450" s="8" t="s">
+      <c r="B451" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="451" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A451" s="2">
+    <row r="452" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A452" s="1">
         <v>450</v>
       </c>
-      <c r="B451" s="8" t="s">
+      <c r="B452" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="452" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A452" s="2">
+    <row r="453" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A453" s="1">
         <v>451</v>
       </c>
-      <c r="B452" s="9" t="s">
+      <c r="B453" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="453" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A453" s="2">
+    <row r="454" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A454" s="1">
         <v>452</v>
       </c>
-      <c r="B453" s="8" t="s">
+      <c r="B454" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="454" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A454" s="2">
+    <row r="455" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A455" s="1">
         <v>453</v>
       </c>
-      <c r="B454" s="8" t="s">
+      <c r="B455" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="455" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A455" s="2">
+    <row r="456" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A456" s="1">
         <v>454</v>
       </c>
-      <c r="B455" s="8" t="s">
+      <c r="B456" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="456" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A456" s="2">
+    <row r="457" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A457" s="1">
         <v>455</v>
       </c>
-      <c r="B456" s="8" t="s">
+      <c r="B457" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="457" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A457" s="2">
+    <row r="458" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A458" s="1">
         <v>456</v>
       </c>
-      <c r="B457" s="8" t="s">
+      <c r="B458" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="458" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A458" s="2">
+    <row r="459" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A459" s="1">
         <v>457</v>
       </c>
-      <c r="B458" s="8" t="s">
+      <c r="B459" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="459" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A459" s="2">
+    <row r="460" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A460" s="1">
         <v>458</v>
       </c>
-      <c r="B459" s="8" t="s">
+      <c r="B460" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="460" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A460" s="2">
+    <row r="461" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A461" s="1">
         <v>459</v>
       </c>
-      <c r="B460" s="8" t="s">
+      <c r="B461" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="461" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A461" s="2">
+    <row r="462" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A462" s="1">
         <v>460</v>
       </c>
-      <c r="B461" s="8" t="s">
+      <c r="B462" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="462" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A462" s="2">
+    <row r="463" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A463" s="1">
         <v>461</v>
       </c>
-      <c r="B462" s="8" t="s">
+      <c r="B463" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="463" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A463" s="2">
+    <row r="464" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A464" s="1">
         <v>462</v>
       </c>
-      <c r="B463" s="8" t="s">
+      <c r="B464" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="464" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A464" s="2">
+    <row r="465" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A465" s="1">
         <v>463</v>
       </c>
-      <c r="B464" s="8" t="s">
+      <c r="B465" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="465" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A465" s="2">
+    <row r="466" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A466" s="1">
         <v>464</v>
       </c>
-      <c r="B465" s="8" t="s">
+      <c r="B466" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="466" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A466" s="2">
+    <row r="467" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A467" s="1">
         <v>465</v>
       </c>
-      <c r="B466" s="8" t="s">
+      <c r="B467" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="467" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A467" s="2">
+    <row r="468" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A468" s="1">
         <v>466</v>
       </c>
-      <c r="B467" s="8" t="s">
+      <c r="B468" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="468" spans="1:2" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A468" s="2">
+    <row r="469" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A469" s="1">
         <v>467</v>
       </c>
-      <c r="B468" s="9" t="s">
+      <c r="B469" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="469" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A469" s="2">
+    <row r="470" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A470" s="1">
         <v>468</v>
       </c>
-      <c r="B469" s="9" t="s">
+      <c r="B470" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="470" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A470" s="2">
+    <row r="471" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A471" s="1">
         <v>469</v>
       </c>
-      <c r="B470" s="9" t="s">
+      <c r="B471" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="471" spans="1:2" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A471" s="2">
+    <row r="472" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A472" s="1">
         <v>470</v>
       </c>
-      <c r="B471" s="9" t="s">
+      <c r="B472" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="472" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A472" s="2">
+    <row r="473" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A473" s="1">
         <v>471</v>
       </c>
-      <c r="B472" s="9" t="s">
+      <c r="B473" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="473" spans="1:2" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A473" s="2">
+    <row r="474" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A474" s="1">
         <v>472</v>
       </c>
-      <c r="B473" s="9" t="s">
+      <c r="B474" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="474" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A474" s="2">
+    <row r="475" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A475" s="1">
         <v>473</v>
       </c>
-      <c r="B474" s="8" t="s">
+      <c r="B475" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="475" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A475" s="2">
+    <row r="476" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A476" s="1">
         <v>474</v>
       </c>
-      <c r="B475" s="8" t="s">
+      <c r="B476" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="476" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A476" s="2">
+    <row r="477" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A477" s="1">
         <v>475</v>
       </c>
-      <c r="B476" s="9" t="s">
+      <c r="B477" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="477" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A477" s="2">
+    <row r="478" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A478" s="1">
         <v>476</v>
       </c>
-      <c r="B477" s="9" t="s">
+      <c r="B478" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="478" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A478" s="2">
+    <row r="479" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A479" s="1">
         <v>477</v>
       </c>
-      <c r="B478" s="8" t="s">
+      <c r="B479" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="479" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A479" s="2">
+    <row r="480" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A480" s="1">
         <v>478</v>
       </c>
-      <c r="B479" s="8" t="s">
+      <c r="B480" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="480" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A480" s="2">
+    <row r="481" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A481" s="1">
         <v>479</v>
       </c>
-      <c r="B480" s="9" t="s">
+      <c r="B481" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="481" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A481" s="2">
+    <row r="482" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A482" s="1">
         <v>480</v>
       </c>
-      <c r="B481" s="8" t="s">
+      <c r="B482" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="482" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A482" s="2">
+    <row r="483" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A483" s="1">
         <v>481</v>
       </c>
-      <c r="B482" s="8" t="s">
+      <c r="B483" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="483" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A483" s="2">
+    <row r="484" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A484" s="1">
         <v>482</v>
       </c>
-      <c r="B483" s="8" t="s">
+      <c r="B484" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="484" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A484" s="2">
+    <row r="485" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A485" s="1">
         <v>483</v>
       </c>
-      <c r="B484" s="8" t="s">
+      <c r="B485" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="485" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A485" s="2">
+    <row r="486" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A486" s="1">
         <v>484</v>
       </c>
-      <c r="B485" s="8" t="s">
+      <c r="B486" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="486" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A486" s="2">
+    <row r="487" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A487" s="1">
         <v>485</v>
       </c>
-      <c r="B486" s="8" t="s">
+      <c r="B487" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="487" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A487" s="2">
+    <row r="488" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A488" s="1">
         <v>486</v>
       </c>
-      <c r="B487" s="8" t="s">
+      <c r="B488" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="488" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A488" s="2">
+    <row r="489" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A489" s="1">
         <v>487</v>
       </c>
-      <c r="B488" s="8" t="s">
+      <c r="B489" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="489" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A489" s="2">
+    <row r="490" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A490" s="1">
         <v>488</v>
       </c>
-      <c r="B489" s="8" t="s">
+      <c r="B490" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="490" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A490" s="2">
+    <row r="491" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A491" s="1">
         <v>489</v>
       </c>
-      <c r="B490" s="8" t="s">
+      <c r="B491" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="491" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A491" s="2">
+    <row r="492" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A492" s="1">
         <v>490</v>
       </c>
-      <c r="B491" s="8" t="s">
+      <c r="B492" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="492" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A492" s="2">
+    <row r="493" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A493" s="1">
         <v>491</v>
       </c>
-      <c r="B492" s="8" t="s">
+      <c r="B493" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="493" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A493" s="2">
+    <row r="494" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A494" s="1">
         <v>492</v>
       </c>
-      <c r="B493" s="8" t="s">
+      <c r="B494" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="494" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A494" s="2">
+    <row r="495" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A495" s="1">
         <v>493</v>
       </c>
-      <c r="B494" s="8" t="s">
+      <c r="B495" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="495" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A495" s="2">
+    <row r="496" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A496" s="1">
         <v>494</v>
       </c>
-      <c r="B495" s="8" t="s">
+      <c r="B496" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="496" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A496" s="2">
+    <row r="497" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A497" s="1">
         <v>495</v>
       </c>
-      <c r="B496" s="8" t="s">
+      <c r="B497" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="497" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A497" s="2">
+    <row r="498" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A498" s="1">
         <v>496</v>
       </c>
-      <c r="B497" s="8" t="s">
+      <c r="B498" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="498" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A498" s="2">
+    <row r="499" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A499" s="1">
         <v>497</v>
       </c>
-      <c r="B498" s="8" t="s">
+      <c r="B499" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="499" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A499" s="2">
+    <row r="500" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A500" s="1">
         <v>498</v>
       </c>
-      <c r="B499" s="8" t="s">
+      <c r="B500" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="500" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A500" s="2">
+    <row r="501" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A501" s="1">
         <v>499</v>
       </c>
-      <c r="B500" s="8" t="s">
+      <c r="B501" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="501" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A501" s="2">
+    <row r="502" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A502" s="1">
         <v>500</v>
       </c>
-      <c r="B501" s="8" t="s">
+      <c r="B502" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="502" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A502" s="2">
+    <row r="503" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A503" s="1">
         <v>501</v>
       </c>
-      <c r="B502" s="8" t="s">
+      <c r="B503" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="503" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A503" s="2">
+    <row r="504" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A504" s="1">
         <v>502</v>
       </c>
-      <c r="B503" s="8" t="s">
+      <c r="B504" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="504" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A504" s="2">
+    <row r="505" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A505" s="1">
         <v>503</v>
       </c>
-      <c r="B504" s="8" t="s">
+      <c r="B505" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="505" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A505" s="2">
+    <row r="506" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A506" s="1">
         <v>504</v>
       </c>
-      <c r="B505" s="8" t="s">
+      <c r="B506" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="506" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A506" s="2">
+    <row r="507" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A507" s="1">
         <v>505</v>
       </c>
-      <c r="B506" s="8" t="s">
+      <c r="B507" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="507" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A507" s="2">
+    <row r="508" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A508" s="1">
         <v>506</v>
       </c>
-      <c r="B507" s="10" t="s">
+      <c r="B508" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="508" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A508" s="2">
+    <row r="509" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A509" s="1">
         <v>507</v>
       </c>
-      <c r="B508" s="10" t="s">
+      <c r="B509" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="509" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A509" s="2">
+    <row r="510" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A510" s="1">
         <v>508</v>
       </c>
-      <c r="B509" s="10" t="s">
+      <c r="B510" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="510" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A510" s="2">
+    <row r="511" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A511" s="1">
         <v>509</v>
       </c>
-      <c r="B510" s="10" t="s">
+      <c r="B511" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="511" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A511" s="2">
+    <row r="512" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A512" s="1">
         <v>510</v>
       </c>
-      <c r="B511" s="10" t="s">
+      <c r="B512" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="512" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A512" s="2">
+    <row r="513" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A513" s="1">
         <v>511</v>
       </c>
-      <c r="B512" s="10" t="s">
+      <c r="B513" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="513" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A513" s="2">
+    <row r="514" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A514" s="1">
         <v>512</v>
       </c>
-      <c r="B513" s="10" t="s">
+      <c r="B514" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="514" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A514" s="2">
+    <row r="515" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A515" s="1">
         <v>513</v>
       </c>
-      <c r="B514" s="10" t="s">
+      <c r="B515" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="515" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A515" s="2">
+    <row r="516" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A516" s="1">
         <v>514</v>
       </c>
-      <c r="B515" s="10" t="s">
+      <c r="B516" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="516" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A516" s="2">
+    <row r="517" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A517" s="1">
         <v>515</v>
       </c>
-      <c r="B516" s="10" t="s">
+      <c r="B517" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="517" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A517" s="2">
+    <row r="518" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A518" s="1">
         <v>516</v>
       </c>
-      <c r="B517" s="10" t="s">
+      <c r="B518" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="518" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A518" s="2">
+    <row r="519" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A519" s="1">
         <v>517</v>
       </c>
-      <c r="B518" s="10" t="s">
+      <c r="B519" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="519" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A519" s="2">
+    <row r="520" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A520" s="1">
         <v>518</v>
       </c>
-      <c r="B519" s="10" t="s">
+      <c r="B520" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="520" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A520" s="2">
+    <row r="521" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A521" s="1">
         <v>519</v>
       </c>
-      <c r="B520" s="10" t="s">
+      <c r="B521" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="521" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A521" s="2">
+    <row r="522" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A522" s="1">
         <v>520</v>
       </c>
-      <c r="B521" s="10" t="s">
+      <c r="B522" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="522" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A522" s="2">
+    <row r="523" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A523" s="1">
         <v>521</v>
       </c>
-      <c r="B522" s="10" t="s">
+      <c r="B523" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="523" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A523" s="2">
+    <row r="524" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A524" s="1">
         <v>522</v>
       </c>
-      <c r="B523" s="10" t="s">
+      <c r="B524" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="524" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A524" s="2">
+    <row r="525" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A525" s="1">
         <v>523</v>
       </c>
-      <c r="B524" s="10" t="s">
+      <c r="B525" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="525" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A525" s="2">
+    <row r="526" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A526" s="1">
         <v>524</v>
       </c>
-      <c r="B525" s="10" t="s">
+      <c r="B526" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="526" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A526" s="2">
+    <row r="527" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A527" s="1">
         <v>525</v>
       </c>
-      <c r="B526" s="10" t="s">
+      <c r="B527" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="527" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A527" s="2">
+    <row r="528" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A528" s="1">
         <v>526</v>
       </c>
-      <c r="B527" s="10" t="s">
+      <c r="B528" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="528" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A528" s="2">
+    <row r="529" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A529" s="1">
         <v>527</v>
       </c>
-      <c r="B528" s="10" t="s">
+      <c r="B529" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="529" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A529" s="2">
+    <row r="530" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A530" s="1">
         <v>528</v>
       </c>
-      <c r="B529" s="10" t="s">
+      <c r="B530" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="530" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A530" s="2">
+    <row r="531" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A531" s="1">
         <v>529</v>
       </c>
-      <c r="B530" s="10" t="s">
+      <c r="B531" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="531" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A531" s="2">
+    <row r="532" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A532" s="1">
         <v>530</v>
       </c>
-      <c r="B531" s="10" t="s">
+      <c r="B532" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="532" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A532" s="2">
+    <row r="533" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A533" s="1">
         <v>531</v>
       </c>
-      <c r="B532" s="10" t="s">
+      <c r="B533" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="533" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A533" s="2">
+    <row r="534" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A534" s="1">
         <v>532</v>
       </c>
-      <c r="B533" s="10" t="s">
+      <c r="B534" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="534" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A534" s="2">
+    <row r="535" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A535" s="1">
         <v>533</v>
       </c>
-      <c r="B534" s="10" t="s">
+      <c r="B535" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="535" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A535" s="2">
+    <row r="536" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A536" s="1">
         <v>534</v>
       </c>
-      <c r="B535" s="10" t="s">
+      <c r="B536" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="536" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A536" s="2">
+    <row r="537" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A537" s="1">
         <v>535</v>
       </c>
-      <c r="B536" s="10" t="s">
+      <c r="B537" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="537" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A537" s="2">
+    <row r="538" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A538" s="1">
         <v>536</v>
       </c>
-      <c r="B537" s="10" t="s">
+      <c r="B538" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="538" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A538" s="2">
+    <row r="539" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A539" s="1">
         <v>537</v>
       </c>
-      <c r="B538" s="10" t="s">
+      <c r="B539" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="539" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A539" s="2">
+    <row r="540" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A540" s="1">
         <v>538</v>
       </c>
-      <c r="B539" s="10" t="s">
+      <c r="B540" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="540" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A540" s="2">
+    <row r="541" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A541" s="1">
         <v>539</v>
       </c>
-      <c r="B540" s="10" t="s">
+      <c r="B541" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="541" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A541" s="2">
+    <row r="542" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A542" s="1">
         <v>540</v>
       </c>
-      <c r="B541" s="10" t="s">
+      <c r="B542" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="542" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A542" s="2">
+    <row r="543" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A543" s="1">
         <v>541</v>
       </c>
-      <c r="B542" s="10" t="s">
+      <c r="B543" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="543" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A543" s="2">
+    <row r="544" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A544" s="1">
         <v>542</v>
       </c>
-      <c r="B543" s="10" t="s">
+      <c r="B544" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="544" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A544" s="2">
+    <row r="545" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A545" s="1">
         <v>543</v>
       </c>
-      <c r="B544" s="10" t="s">
+      <c r="B545" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="545" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A545" s="2">
+    <row r="546" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A546" s="1">
         <v>544</v>
       </c>
-      <c r="B545" s="10" t="s">
+      <c r="B546" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="546" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A546" s="2">
+    <row r="547" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A547" s="1">
         <v>545</v>
       </c>
-      <c r="B546" s="10" t="s">
+      <c r="B547" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="547" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A547" s="2">
+    <row r="548" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A548" s="1">
         <v>546</v>
       </c>
-      <c r="B547" s="10" t="s">
+      <c r="B548" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="548" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A548" s="2">
+    <row r="549" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A549" s="1">
         <v>547</v>
       </c>
-      <c r="B548" s="10" t="s">
+      <c r="B549" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="549" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A549" s="2">
+    <row r="550" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A550" s="1">
         <v>548</v>
       </c>
-      <c r="B549" s="10" t="s">
+      <c r="B550" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="550" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A550" s="2">
+    <row r="551" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A551" s="1">
         <v>549</v>
       </c>
-      <c r="B550" s="10" t="s">
+      <c r="B551" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="551" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A551" s="2">
+    <row r="552" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A552" s="1">
         <v>550</v>
       </c>
-      <c r="B551" s="10" t="s">
+      <c r="B552" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="552" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A552" s="2">
+    <row r="553" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A553" s="1">
         <v>551</v>
       </c>
-      <c r="B552" s="10" t="s">
+      <c r="B553" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="553" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A553" s="2">
+    <row r="554" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A554" s="1">
         <v>552</v>
       </c>
-      <c r="B553" s="10" t="s">
+      <c r="B554" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="554" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A554" s="2">
+    <row r="555" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A555" s="1">
         <v>553</v>
       </c>
-      <c r="B554" s="10" t="s">
+      <c r="B555" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="555" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A555" s="2">
+    <row r="556" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A556" s="1">
         <v>554</v>
       </c>
-      <c r="B555" s="10" t="s">
+      <c r="B556" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="556" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A556" s="2">
+    <row r="557" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A557" s="1">
         <v>555</v>
       </c>
-      <c r="B556" s="10" t="s">
+      <c r="B557" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="557" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A557" s="2">
+    <row r="558" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A558" s="1">
         <v>556</v>
       </c>
-      <c r="B557" s="10" t="s">
+      <c r="B558" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="558" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A558" s="2">
+    <row r="559" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A559" s="1">
         <v>557</v>
       </c>
-      <c r="B558" s="10" t="s">
+      <c r="B559" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="559" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A559" s="2">
+    <row r="560" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A560" s="1">
         <v>558</v>
       </c>
-      <c r="B559" s="10" t="s">
+      <c r="B560" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="560" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A560" s="2">
+    <row r="561" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A561" s="1">
         <v>559</v>
       </c>
-      <c r="B560" s="10" t="s">
+      <c r="B561" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="561" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A561" s="2">
+    <row r="562" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A562" s="1">
         <v>560</v>
       </c>
-      <c r="B561" s="10" t="s">
+      <c r="B562" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="562" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A562" s="2">
+    <row r="563" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A563" s="1">
         <v>561</v>
       </c>
-      <c r="B562" s="10" t="s">
+      <c r="B563" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="563" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A563" s="2">
+    <row r="564" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A564" s="1">
         <v>562</v>
       </c>
-      <c r="B563" s="10" t="s">
+      <c r="B564" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="564" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A564" s="2">
+    <row r="565" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A565" s="1">
         <v>563</v>
       </c>
-      <c r="B564" s="10" t="s">
+      <c r="B565" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="565" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A565" s="2">
+    <row r="566" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A566" s="1">
         <v>564</v>
       </c>
-      <c r="B565" s="10" t="s">
+      <c r="B566" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="566" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A566" s="2">
+    <row r="567" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A567" s="1">
         <v>565</v>
       </c>
-      <c r="B566" s="10" t="s">
+      <c r="B567" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="567" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A567" s="2">
+    <row r="568" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A568" s="1">
         <v>566</v>
       </c>
-      <c r="B567" s="10" t="s">
+      <c r="B568" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="568" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A568" s="2">
+    <row r="569" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A569" s="1">
         <v>567</v>
       </c>
-      <c r="B568" s="10" t="s">
+      <c r="B569" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="569" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A569" s="2">
+    <row r="570" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A570" s="1">
         <v>568</v>
       </c>
-      <c r="B569" s="10" t="s">
+      <c r="B570" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="570" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A570" s="2">
+    <row r="571" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A571" s="1">
         <v>569</v>
       </c>
-      <c r="B570" s="10" t="s">
+      <c r="B571" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="571" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A571" s="2">
+    <row r="572" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A572" s="1">
         <v>570</v>
       </c>
-      <c r="B571" s="10" t="s">
+      <c r="B572" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="572" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A572" s="2">
+    <row r="573" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A573" s="1">
         <v>571</v>
       </c>
-      <c r="B572" s="10" t="s">
+      <c r="B573" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="573" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A573" s="2">
+    <row r="574" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A574" s="1">
         <v>572</v>
       </c>
-      <c r="B573" s="10" t="s">
+      <c r="B574" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="574" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A574" s="2">
+    <row r="575" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A575" s="1">
         <v>573</v>
       </c>
-      <c r="B574" s="10" t="s">
+      <c r="B575" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="575" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A575" s="2">
+    <row r="576" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A576" s="1">
         <v>574</v>
       </c>
-      <c r="B575" s="10" t="s">
+      <c r="B576" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="576" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A576" s="2">
+    <row r="577" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A577" s="1">
         <v>575</v>
       </c>
-      <c r="B576" s="10" t="s">
+      <c r="B577" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="577" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A577" s="2">
+    <row r="578" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A578" s="1">
         <v>576</v>
       </c>
-      <c r="B577" s="10" t="s">
+      <c r="B578" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="578" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A578" s="2">
+    <row r="579" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A579" s="1">
         <v>577</v>
       </c>
-      <c r="B578" s="10" t="s">
+      <c r="B579" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="579" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A579" s="2">
+    <row r="580" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A580" s="1">
         <v>578</v>
       </c>
-      <c r="B579" s="10" t="s">
+      <c r="B580" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="580" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A580" s="2">
+    <row r="581" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A581" s="1">
         <v>579</v>
       </c>
-      <c r="B580" s="10" t="s">
+      <c r="B581" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="581" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A581" s="2">
+    <row r="582" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A582" s="1">
         <v>580</v>
       </c>
-      <c r="B581" s="10" t="s">
+      <c r="B582" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="582" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A582" s="2">
+    <row r="583" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A583" s="1">
         <v>581</v>
       </c>
-      <c r="B582" s="10" t="s">
+      <c r="B583" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="583" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A583" s="2">
+    <row r="584" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A584" s="1">
         <v>582</v>
       </c>
-      <c r="B583" s="10" t="s">
+      <c r="B584" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="584" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A584" s="2">
+    <row r="585" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A585" s="1">
         <v>583</v>
       </c>
-      <c r="B584" s="10" t="s">
+      <c r="B585" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="585" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A585" s="2">
+    <row r="586" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A586" s="1">
         <v>584</v>
       </c>
-      <c r="B585" s="10" t="s">
+      <c r="B586" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="586" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A586" s="2">
+    <row r="587" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A587" s="1">
         <v>585</v>
       </c>
-      <c r="B586" s="10" t="s">
+      <c r="B587" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="587" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A587" s="2">
+    <row r="588" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A588" s="1">
         <v>586</v>
       </c>
-      <c r="B587" s="10" t="s">
+      <c r="B588" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="588" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A588" s="2">
+    <row r="589" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A589" s="1">
         <v>587</v>
       </c>
-      <c r="B588" s="10" t="s">
+      <c r="B589" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="589" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A589" s="2">
+    <row r="590" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A590" s="1">
         <v>588</v>
       </c>
-      <c r="B589" s="10" t="s">
+      <c r="B590" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="590" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A590" s="2">
+    <row r="591" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A591" s="1">
         <v>589</v>
       </c>
-      <c r="B590" s="10" t="s">
+      <c r="B591" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="591" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A591" s="2">
+    <row r="592" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A592" s="1">
         <v>590</v>
       </c>
-      <c r="B591" s="10" t="s">
+      <c r="B592" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="592" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A592" s="2">
+    <row r="593" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A593" s="1">
         <v>591</v>
       </c>
-      <c r="B592" s="10" t="s">
+      <c r="B593" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="593" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A593" s="2">
+    <row r="594" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A594" s="1">
         <v>592</v>
       </c>
-      <c r="B593" s="10" t="s">
+      <c r="B594" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="594" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A594" s="2">
+    <row r="595" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A595" s="1">
         <v>593</v>
       </c>
-      <c r="B594" s="10" t="s">
+      <c r="B595" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="595" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A595" s="2">
+    <row r="596" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A596" s="1">
         <v>594</v>
       </c>
-      <c r="B595" s="10" t="s">
+      <c r="B596" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="596" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A596" s="2">
+    <row r="597" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A597" s="1">
         <v>595</v>
       </c>
-      <c r="B596" s="10" t="s">
+      <c r="B597" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="597" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A597" s="2">
+    <row r="598" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A598" s="1">
         <v>596</v>
       </c>
-      <c r="B597" s="10" t="s">
+      <c r="B598" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="598" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A598" s="2">
+    <row r="599" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A599" s="1">
         <v>597</v>
       </c>
-      <c r="B598" s="10" t="s">
+      <c r="B599" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="599" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A599" s="2">
+    <row r="600" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A600" s="1">
         <v>598</v>
       </c>
-      <c r="B599" s="10" t="s">
+      <c r="B600" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="600" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A600" s="2">
+    <row r="601" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A601" s="1">
         <v>599</v>
       </c>
-      <c r="B600" s="10" t="s">
+      <c r="B601" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="601" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A601" s="2">
+    <row r="602" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A602" s="1">
         <v>600</v>
       </c>
-      <c r="B601" s="10" t="s">
+      <c r="B602" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="602" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A602" s="2">
+    <row r="603" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A603" s="1">
         <v>601</v>
       </c>
-      <c r="B602" s="10" t="s">
+      <c r="B603" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="603" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A603" s="2">
+    <row r="604" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A604" s="1">
         <v>602</v>
       </c>
-      <c r="B603" s="10" t="s">
+      <c r="B604" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="604" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A604" s="2">
+    <row r="605" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A605" s="1">
         <v>603</v>
       </c>
-      <c r="B604" s="10" t="s">
+      <c r="B605" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="605" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A605" s="2">
+    <row r="606" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A606" s="1">
         <v>604</v>
       </c>
-      <c r="B605" s="10" t="s">
+      <c r="B606" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="606" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A606" s="2">
+    <row r="607" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A607" s="1">
         <v>605</v>
       </c>
-      <c r="B606" s="10" t="s">
+      <c r="B607" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="607" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A607" s="2">
+    <row r="608" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A608" s="1">
         <v>606</v>
       </c>
-      <c r="B607" s="10" t="s">
+      <c r="B608" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="608" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A608" s="2">
+    <row r="609" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A609" s="1">
         <v>607</v>
       </c>
-      <c r="B608" s="10" t="s">
+      <c r="B609" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="609" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A609" s="2">
+    <row r="610" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A610" s="1">
         <v>608</v>
       </c>
-      <c r="B609" s="10" t="s">
+      <c r="B610" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="610" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A610" s="2">
+    <row r="611" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A611" s="1">
         <v>609</v>
       </c>
-      <c r="B610" s="10" t="s">
+      <c r="B611" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="611" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A611" s="2">
+    <row r="612" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A612" s="1">
         <v>610</v>
       </c>
-      <c r="B611" s="10" t="s">
+      <c r="B612" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="612" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A612" s="2">
+    <row r="613" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A613" s="1">
         <v>611</v>
       </c>
-      <c r="B612" s="10" t="s">
+      <c r="B613" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="613" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A613" s="2">
+    <row r="614" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A614" s="1">
         <v>612</v>
       </c>
-      <c r="B613" s="10" t="s">
+      <c r="B614" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="614" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A614" s="2">
+    <row r="615" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A615" s="1">
         <v>613</v>
       </c>
-      <c r="B614" s="10" t="s">
+      <c r="B615" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="615" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A615" s="2">
+    <row r="616" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A616" s="1">
         <v>614</v>
       </c>
-      <c r="B615" s="10" t="s">
+      <c r="B616" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="616" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A616" s="2">
+    <row r="617" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A617" s="1">
         <v>615</v>
       </c>
-      <c r="B616" s="10" t="s">
+      <c r="B617" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="617" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A617" s="2">
+    <row r="618" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A618" s="1">
         <v>616</v>
       </c>
-      <c r="B617" s="10" t="s">
+      <c r="B618" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="618" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A618" s="2">
+    <row r="619" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A619" s="1">
         <v>617</v>
       </c>
-      <c r="B618" s="10" t="s">
+      <c r="B619" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="619" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A619" s="2">
+    <row r="620" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A620" s="1">
         <v>618</v>
       </c>
-      <c r="B619" s="10" t="s">
+      <c r="B620" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="620" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A620" s="2">
+    <row r="621" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A621" s="1">
         <v>619</v>
       </c>
-      <c r="B620" s="10" t="s">
+      <c r="B621" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="621" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A621" s="2">
+    <row r="622" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A622" s="1">
         <v>620</v>
       </c>
-      <c r="B621" s="10" t="s">
+      <c r="B622" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="622" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A622" s="2">
+    <row r="623" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A623" s="1">
         <v>621</v>
       </c>
-      <c r="B622" s="10" t="s">
+      <c r="B623" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="623" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A623" s="2">
+    <row r="624" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A624" s="1">
         <v>622</v>
       </c>
-      <c r="B623" s="10" t="s">
+      <c r="B624" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="624" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A624" s="2">
+    <row r="625" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A625" s="1">
         <v>623</v>
       </c>
-      <c r="B624" s="10" t="s">
+      <c r="B625" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="625" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A625" s="2">
+    <row r="626" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A626" s="1">
         <v>624</v>
       </c>
-      <c r="B625" s="10" t="s">
+      <c r="B626" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="626" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A626" s="2">
+    <row r="627" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A627" s="1">
         <v>625</v>
       </c>
-      <c r="B626" s="10" t="s">
+      <c r="B627" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="627" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A627" s="2">
+    <row r="628" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A628" s="1">
         <v>626</v>
       </c>
-      <c r="B627" s="10" t="s">
+      <c r="B628" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="628" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A628" s="2">
+    <row r="629" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A629" s="1">
         <v>627</v>
       </c>
-      <c r="B628" s="10" t="s">
+      <c r="B629" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="629" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A629" s="2">
+    <row r="630" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A630" s="1">
         <v>628</v>
       </c>
-      <c r="B629" s="10" t="s">
+      <c r="B630" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="630" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A630" s="2">
+    <row r="631" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A631" s="1">
         <v>629</v>
       </c>
-      <c r="B630" s="10" t="s">
+      <c r="B631" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="631" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A631" s="2">
+    <row r="632" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A632" s="1">
         <v>630</v>
       </c>
-      <c r="B631" s="10" t="s">
+      <c r="B632" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="632" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A632" s="2">
+    <row r="633" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A633" s="1">
         <v>631</v>
       </c>
-      <c r="B632" s="10" t="s">
+      <c r="B633" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="633" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A633" s="2">
+    <row r="634" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A634" s="1">
         <v>632</v>
       </c>
-      <c r="B633" s="10" t="s">
+      <c r="B634" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="634" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A634" s="2">
+    <row r="635" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A635" s="1">
         <v>633</v>
       </c>
-      <c r="B634" s="10" t="s">
+      <c r="B635" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="635" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A635" s="2">
+    <row r="636" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A636" s="1">
         <v>634</v>
       </c>
-      <c r="B635" s="10" t="s">
+      <c r="B636" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="636" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A636" s="2">
+    <row r="637" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A637" s="1">
         <v>635</v>
       </c>
-      <c r="B636" s="10" t="s">
+      <c r="B637" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="637" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A637" s="2">
+    <row r="638" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A638" s="1">
         <v>636</v>
       </c>
-      <c r="B637" s="10" t="s">
+      <c r="B638" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="638" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A638" s="2">
+    <row r="639" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A639" s="1">
         <v>637</v>
       </c>
-      <c r="B638" s="10" t="s">
+      <c r="B639" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="639" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A639" s="2">
+    <row r="640" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A640" s="1">
         <v>638</v>
       </c>
-      <c r="B639" s="10" t="s">
+      <c r="B640" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="640" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A640" s="2">
+    <row r="641" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A641" s="1">
         <v>639</v>
       </c>
-      <c r="B640" s="10" t="s">
+      <c r="B641" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="641" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A641" s="2">
+    <row r="642" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A642" s="1">
         <v>640</v>
       </c>
-      <c r="B641" s="10" t="s">
+      <c r="B642" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="642" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A642" s="2">
+    <row r="643" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A643" s="1">
         <v>641</v>
       </c>
-      <c r="B642" s="10" t="s">
+      <c r="B643" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="643" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A643" s="2">
+    <row r="644" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A644" s="1">
         <v>642</v>
       </c>
-      <c r="B643" s="10" t="s">
+      <c r="B644" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="644" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A644" s="2">
+    <row r="645" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A645" s="1">
         <v>643</v>
       </c>
-      <c r="B644" s="10" t="s">
+      <c r="B645" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="645" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A645" s="2">
+    <row r="646" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A646" s="1">
         <v>644</v>
       </c>
-      <c r="B645" s="10" t="s">
+      <c r="B646" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="646" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A646" s="2">
+    <row r="647" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A647" s="1">
         <v>645</v>
       </c>
-      <c r="B646" s="10" t="s">
+      <c r="B647" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="647" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A647" s="2">
+    <row r="648" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A648" s="1">
         <v>646</v>
       </c>
-      <c r="B647" s="10" t="s">
+      <c r="B648" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="648" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A648" s="2">
+    <row r="649" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A649" s="1">
         <v>647</v>
       </c>
-      <c r="B648" s="10" t="s">
+      <c r="B649" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="649" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A649" s="2">
+    <row r="650" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A650" s="1">
         <v>648</v>
       </c>
-      <c r="B649" s="10" t="s">
+      <c r="B650" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="650" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A650" s="2">
+    <row r="651" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A651" s="1">
         <v>649</v>
       </c>
-      <c r="B650" s="10" t="s">
+      <c r="B651" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="651" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A651" s="2">
+    <row r="652" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A652" s="1">
         <v>650</v>
       </c>
-      <c r="B651" s="10" t="s">
+      <c r="B652" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="652" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A652" s="2">
+    <row r="653" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A653" s="1">
         <v>651</v>
       </c>
-      <c r="B652" s="10" t="s">
+      <c r="B653" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="653" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A653" s="2">
+    <row r="654" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A654" s="1">
         <v>652</v>
       </c>
-      <c r="B653" s="10" t="s">
+      <c r="B654" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="654" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A654" s="2">
+    <row r="655" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A655" s="1">
         <v>653</v>
       </c>
-      <c r="B654" s="10" t="s">
+      <c r="B655" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="655" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A655" s="2">
+    <row r="656" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A656" s="1">
         <v>654</v>
       </c>
-      <c r="B655" s="10" t="s">
+      <c r="B656" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="656" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A656" s="2">
+    <row r="657" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A657" s="1">
         <v>655</v>
       </c>
-      <c r="B656" s="10" t="s">
+      <c r="B657" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="657" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A657" s="2">
+    <row r="658" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A658" s="1">
         <v>656</v>
       </c>
-      <c r="B657" s="10" t="s">
+      <c r="B658" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="658" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A658" s="2">
+    <row r="659" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A659" s="1">
         <v>657</v>
       </c>
-      <c r="B658" s="10" t="s">
+      <c r="B659" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="659" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A659" s="2">
+    <row r="660" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A660" s="1">
         <v>658</v>
       </c>
-      <c r="B659" s="10" t="s">
+      <c r="B660" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="660" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A660" s="2">
+    <row r="661" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A661" s="1">
         <v>659</v>
       </c>
-      <c r="B660" s="10" t="s">
+      <c r="B661" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="661" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A661" s="2">
+    <row r="662" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A662" s="1">
         <v>660</v>
       </c>
-      <c r="B661" s="10" t="s">
+      <c r="B662" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="662" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A662" s="2">
+    <row r="663" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A663" s="1">
         <v>661</v>
       </c>
-      <c r="B662" s="10" t="s">
+      <c r="B663" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="663" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A663" s="2">
+    <row r="664" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A664" s="1">
         <v>662</v>
       </c>
-      <c r="B663" s="10" t="s">
+      <c r="B664" t="s">
         <v>663</v>
       </c>
-    </row>
-    <row r="664" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A664" s="2">
-        <v>663</v>
-      </c>
-      <c r="B664" s="10" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="665" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A665" s="11"/>
-      <c r="B665" s="11"/>
-    </row>
-    <row r="666" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A666" s="11"/>
-      <c r="B666" s="11"/>
-    </row>
-    <row r="667" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A667" s="11"/>
-      <c r="B667" s="11"/>
-    </row>
-    <row r="668" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A668" s="11"/>
-      <c r="B668" s="11"/>
-    </row>
-    <row r="669" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A669" s="11"/>
-      <c r="B669" s="11"/>
-    </row>
-    <row r="670" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A670" s="11"/>
-      <c r="B670" s="11"/>
-    </row>
-    <row r="671" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A671" s="11"/>
-      <c r="B671" s="11"/>
-    </row>
-    <row r="672" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A672" s="11"/>
-      <c r="B672" s="11"/>
-    </row>
-    <row r="673" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A673" s="11"/>
-      <c r="B673" s="11"/>
-    </row>
-    <row r="674" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A674" s="11"/>
-      <c r="B674" s="11"/>
-    </row>
-    <row r="675" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A675" s="11"/>
-      <c r="B675" s="11"/>
-    </row>
-    <row r="676" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A676" s="11"/>
-      <c r="B676" s="11"/>
-    </row>
-    <row r="677" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A677" s="11"/>
-      <c r="B677" s="11"/>
-    </row>
-    <row r="678" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A678" s="11"/>
-      <c r="B678" s="11"/>
-    </row>
-    <row r="679" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A679" s="11"/>
-      <c r="B679" s="11"/>
-    </row>
-    <row r="680" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A680" s="11"/>
-      <c r="B680" s="11"/>
-    </row>
-    <row r="681" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A681" s="11"/>
-      <c r="B681" s="11"/>
-    </row>
-    <row r="682" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A682" s="11"/>
-      <c r="B682" s="11"/>
-    </row>
-    <row r="683" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A683" s="11"/>
-      <c r="B683" s="11"/>
-    </row>
-    <row r="684" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A684" s="11"/>
-      <c r="B684" s="11"/>
-    </row>
-    <row r="685" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A685" s="11"/>
-      <c r="B685" s="11"/>
-    </row>
-    <row r="686" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A686" s="11"/>
-      <c r="B686" s="11"/>
-    </row>
-    <row r="687" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A687" s="11"/>
-      <c r="B687" s="11"/>
-    </row>
-    <row r="688" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A688" s="11"/>
-      <c r="B688" s="11"/>
-    </row>
-    <row r="689" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A689" s="11"/>
-      <c r="B689" s="11"/>
-    </row>
-    <row r="690" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A690" s="11"/>
-      <c r="B690" s="11"/>
-    </row>
-    <row r="691" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A691" s="11"/>
-      <c r="B691" s="11"/>
-    </row>
-    <row r="692" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A692" s="11"/>
-      <c r="B692" s="11"/>
-    </row>
-    <row r="693" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A693" s="11"/>
-      <c r="B693" s="11"/>
-    </row>
-    <row r="694" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A694" s="11"/>
-      <c r="B694" s="11"/>
-    </row>
-    <row r="695" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A695" s="11"/>
-      <c r="B695" s="11"/>
-    </row>
-    <row r="696" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A696" s="11"/>
-      <c r="B696" s="11"/>
-    </row>
-    <row r="697" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A697" s="11"/>
-      <c r="B697" s="11"/>
-    </row>
-    <row r="698" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A698" s="11"/>
-      <c r="B698" s="11"/>
-    </row>
-    <row r="699" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A699" s="11"/>
-      <c r="B699" s="11"/>
-    </row>
-    <row r="700" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A700" s="11"/>
-      <c r="B700" s="11"/>
-    </row>
-    <row r="701" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A701" s="11"/>
-      <c r="B701" s="11"/>
-    </row>
-    <row r="702" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A702" s="11"/>
-      <c r="B702" s="11"/>
-    </row>
-    <row r="703" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A703" s="11"/>
-      <c r="B703" s="11"/>
-    </row>
-    <row r="704" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A704" s="11"/>
-      <c r="B704" s="11"/>
-    </row>
-    <row r="705" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A705" s="11"/>
-      <c r="B705" s="11"/>
-    </row>
-    <row r="706" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A706" s="11"/>
-      <c r="B706" s="11"/>
-    </row>
-    <row r="707" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A707" s="11"/>
-      <c r="B707" s="11"/>
-    </row>
-    <row r="708" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A708" s="11"/>
-      <c r="B708" s="11"/>
-    </row>
-    <row r="709" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A709" s="11"/>
-      <c r="B709" s="11"/>
-    </row>
-    <row r="710" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A710" s="11"/>
-      <c r="B710" s="11"/>
-    </row>
-    <row r="711" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A711" s="11"/>
-      <c r="B711" s="11"/>
-    </row>
-    <row r="712" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A712" s="11"/>
-      <c r="B712" s="11"/>
-    </row>
-    <row r="713" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A713" s="11"/>
-      <c r="B713" s="11"/>
-    </row>
-    <row r="714" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A714" s="11"/>
-      <c r="B714" s="11"/>
-    </row>
-    <row r="715" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A715" s="11"/>
-      <c r="B715" s="11"/>
-    </row>
-    <row r="716" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A716" s="11"/>
-      <c r="B716" s="11"/>
-    </row>
-    <row r="717" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A717" s="11"/>
-      <c r="B717" s="11"/>
-    </row>
-    <row r="718" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A718" s="11"/>
-      <c r="B718" s="11"/>
-    </row>
-    <row r="719" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A719" s="11"/>
-      <c r="B719" s="11"/>
-    </row>
-    <row r="720" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A720" s="11"/>
-      <c r="B720" s="11"/>
-    </row>
-    <row r="721" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A721" s="11"/>
-      <c r="B721" s="11"/>
-    </row>
-    <row r="722" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A722" s="11"/>
-      <c r="B722" s="11"/>
-    </row>
-    <row r="723" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A723" s="11"/>
-      <c r="B723" s="11"/>
-    </row>
-    <row r="724" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A724" s="11"/>
-      <c r="B724" s="11"/>
-    </row>
-    <row r="725" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A725" s="11"/>
-      <c r="B725" s="11"/>
-    </row>
-    <row r="726" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A726" s="11"/>
-      <c r="B726" s="11"/>
-    </row>
-    <row r="727" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A727" s="11"/>
-      <c r="B727" s="11"/>
-    </row>
-    <row r="728" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A728" s="11"/>
-      <c r="B728" s="11"/>
-    </row>
-    <row r="729" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A729" s="11"/>
-      <c r="B729" s="11"/>
-    </row>
-    <row r="730" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A730" s="11"/>
-      <c r="B730" s="11"/>
-    </row>
-    <row r="731" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A731" s="11"/>
-      <c r="B731" s="11"/>
-    </row>
-    <row r="732" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A732" s="11"/>
-      <c r="B732" s="11"/>
-    </row>
-    <row r="733" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A733" s="11"/>
-      <c r="B733" s="11"/>
-    </row>
-    <row r="734" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A734" s="11"/>
-      <c r="B734" s="11"/>
-    </row>
-    <row r="735" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A735" s="11"/>
-      <c r="B735" s="11"/>
-    </row>
-    <row r="736" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A736" s="11"/>
-      <c r="B736" s="11"/>
-    </row>
-    <row r="737" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A737" s="11"/>
-      <c r="B737" s="11"/>
-    </row>
-    <row r="738" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A738" s="11"/>
-      <c r="B738" s="11"/>
-    </row>
-    <row r="739" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A739" s="11"/>
-      <c r="B739" s="11"/>
-    </row>
-    <row r="740" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A740" s="11"/>
-      <c r="B740" s="11"/>
-    </row>
-    <row r="741" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A741" s="11"/>
-      <c r="B741" s="11"/>
-    </row>
-    <row r="742" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A742" s="11"/>
-      <c r="B742" s="11"/>
-    </row>
-    <row r="743" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A743" s="11"/>
-      <c r="B743" s="11"/>
-    </row>
-    <row r="744" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A744" s="11"/>
-      <c r="B744" s="11"/>
-    </row>
-    <row r="745" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A745" s="11"/>
-      <c r="B745" s="11"/>
-    </row>
-    <row r="746" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A746" s="11"/>
-      <c r="B746" s="11"/>
-    </row>
-    <row r="747" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A747" s="11"/>
-      <c r="B747" s="11"/>
-    </row>
-    <row r="748" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A748" s="11"/>
-      <c r="B748" s="11"/>
-    </row>
-    <row r="749" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A749" s="11"/>
-      <c r="B749" s="11"/>
-    </row>
-    <row r="750" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A750" s="11"/>
-      <c r="B750" s="11"/>
-    </row>
-    <row r="751" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A751" s="11"/>
-      <c r="B751" s="11"/>
-    </row>
-    <row r="752" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A752" s="11"/>
-      <c r="B752" s="11"/>
-    </row>
-    <row r="753" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A753" s="11"/>
-      <c r="B753" s="11"/>
-    </row>
-    <row r="754" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A754" s="11"/>
-      <c r="B754" s="11"/>
-    </row>
-    <row r="755" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A755" s="11"/>
-      <c r="B755" s="11"/>
-    </row>
-    <row r="756" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A756" s="11"/>
-      <c r="B756" s="11"/>
-    </row>
-    <row r="757" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A757" s="11"/>
-      <c r="B757" s="11"/>
-    </row>
-    <row r="758" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A758" s="11"/>
-      <c r="B758" s="11"/>
-    </row>
-    <row r="759" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A759" s="11"/>
-      <c r="B759" s="11"/>
-    </row>
-    <row r="760" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A760" s="11"/>
-      <c r="B760" s="11"/>
-    </row>
-    <row r="761" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A761" s="11"/>
-      <c r="B761" s="11"/>
-    </row>
-    <row r="762" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A762" s="11"/>
-      <c r="B762" s="11"/>
-    </row>
-    <row r="763" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A763" s="11"/>
-      <c r="B763" s="11"/>
-    </row>
-    <row r="764" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A764" s="11"/>
-      <c r="B764" s="11"/>
-    </row>
-    <row r="765" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A765" s="11"/>
-      <c r="B765" s="11"/>
-    </row>
-    <row r="766" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A766" s="11"/>
-      <c r="B766" s="11"/>
-    </row>
-    <row r="767" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A767" s="11"/>
-      <c r="B767" s="11"/>
-    </row>
-    <row r="768" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A768" s="11"/>
-      <c r="B768" s="11"/>
-    </row>
-    <row r="769" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A769" s="11"/>
-      <c r="B769" s="11"/>
-    </row>
-    <row r="770" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A770" s="11"/>
-      <c r="B770" s="11"/>
-    </row>
-    <row r="771" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A771" s="11"/>
-      <c r="B771" s="11"/>
-    </row>
-    <row r="772" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A772" s="11"/>
-      <c r="B772" s="11"/>
-    </row>
-    <row r="773" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A773" s="11"/>
-      <c r="B773" s="11"/>
-    </row>
-    <row r="774" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A774" s="11"/>
-      <c r="B774" s="11"/>
-    </row>
-    <row r="775" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A775" s="11"/>
-      <c r="B775" s="11"/>
-    </row>
-    <row r="776" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A776" s="11"/>
-      <c r="B776" s="11"/>
-    </row>
-    <row r="777" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A777" s="11"/>
-      <c r="B777" s="11"/>
-    </row>
-    <row r="778" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A778" s="11"/>
-      <c r="B778" s="11"/>
-    </row>
-    <row r="779" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A779" s="11"/>
-      <c r="B779" s="11"/>
-    </row>
-    <row r="780" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A780" s="11"/>
-      <c r="B780" s="11"/>
-    </row>
-    <row r="781" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A781" s="11"/>
-      <c r="B781" s="11"/>
-    </row>
-    <row r="782" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A782" s="11"/>
-      <c r="B782" s="11"/>
-    </row>
-    <row r="783" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A783" s="11"/>
-      <c r="B783" s="11"/>
-    </row>
-    <row r="784" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A784" s="11"/>
-      <c r="B784" s="11"/>
-    </row>
-    <row r="785" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A785" s="11"/>
-      <c r="B785" s="11"/>
-    </row>
-    <row r="786" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A786" s="11"/>
-      <c r="B786" s="11"/>
-    </row>
-    <row r="787" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A787" s="11"/>
-      <c r="B787" s="11"/>
-    </row>
-    <row r="788" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A788" s="11"/>
-      <c r="B788" s="11"/>
-    </row>
-    <row r="789" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A789" s="11"/>
-      <c r="B789" s="11"/>
-    </row>
-    <row r="790" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A790" s="11"/>
-      <c r="B790" s="11"/>
-    </row>
-    <row r="791" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A791" s="11"/>
-      <c r="B791" s="11"/>
-    </row>
-    <row r="792" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A792" s="11"/>
-      <c r="B792" s="11"/>
-    </row>
-    <row r="793" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A793" s="11"/>
-      <c r="B793" s="11"/>
-    </row>
-    <row r="794" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A794" s="11"/>
-      <c r="B794" s="11"/>
-    </row>
-    <row r="795" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A795" s="11"/>
-      <c r="B795" s="11"/>
-    </row>
-    <row r="796" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A796" s="11"/>
-      <c r="B796" s="11"/>
-    </row>
-    <row r="797" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A797" s="11"/>
-      <c r="B797" s="11"/>
-    </row>
-    <row r="798" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A798" s="11"/>
-      <c r="B798" s="11"/>
-    </row>
-    <row r="799" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A799" s="11"/>
-      <c r="B799" s="11"/>
-    </row>
-    <row r="800" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A800" s="11"/>
-      <c r="B800" s="11"/>
-    </row>
-    <row r="801" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A801" s="11"/>
-      <c r="B801" s="11"/>
-    </row>
-    <row r="802" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A802" s="11"/>
-      <c r="B802" s="11"/>
-    </row>
-    <row r="803" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A803" s="11"/>
-      <c r="B803" s="11"/>
-    </row>
-    <row r="804" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A804" s="11"/>
-      <c r="B804" s="11"/>
-    </row>
-    <row r="805" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A805" s="11"/>
-      <c r="B805" s="11"/>
-    </row>
-    <row r="806" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A806" s="11"/>
-      <c r="B806" s="11"/>
-    </row>
-    <row r="807" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A807" s="11"/>
-      <c r="B807" s="11"/>
-    </row>
-    <row r="808" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A808" s="11"/>
-      <c r="B808" s="11"/>
-    </row>
-    <row r="809" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A809" s="11"/>
-      <c r="B809" s="11"/>
-    </row>
-    <row r="810" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A810" s="11"/>
-      <c r="B810" s="11"/>
-    </row>
-    <row r="811" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A811" s="11"/>
-      <c r="B811" s="11"/>
-    </row>
-    <row r="812" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A812" s="11"/>
-      <c r="B812" s="11"/>
-    </row>
-    <row r="813" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A813" s="11"/>
-      <c r="B813" s="11"/>
-    </row>
-    <row r="814" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A814" s="11"/>
-      <c r="B814" s="11"/>
-    </row>
-    <row r="815" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A815" s="11"/>
-      <c r="B815" s="11"/>
-    </row>
-    <row r="816" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A816" s="11"/>
-      <c r="B816" s="11"/>
-    </row>
-    <row r="817" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A817" s="11"/>
-      <c r="B817" s="11"/>
-    </row>
-    <row r="818" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A818" s="11"/>
-      <c r="B818" s="11"/>
-    </row>
-    <row r="819" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A819" s="11"/>
-      <c r="B819" s="11"/>
-    </row>
-    <row r="820" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A820" s="11"/>
-      <c r="B820" s="11"/>
-    </row>
-    <row r="821" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A821" s="11"/>
-      <c r="B821" s="11"/>
-    </row>
-    <row r="822" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A822" s="11"/>
-      <c r="B822" s="11"/>
-    </row>
-    <row r="823" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A823" s="11"/>
-      <c r="B823" s="11"/>
-    </row>
-    <row r="824" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A824" s="11"/>
-      <c r="B824" s="11"/>
-    </row>
-    <row r="825" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A825" s="11"/>
-      <c r="B825" s="11"/>
-    </row>
-    <row r="826" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A826" s="11"/>
-      <c r="B826" s="11"/>
-    </row>
-    <row r="827" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A827" s="11"/>
-      <c r="B827" s="11"/>
-    </row>
-    <row r="828" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A828" s="11"/>
-      <c r="B828" s="11"/>
-    </row>
-    <row r="829" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A829" s="11"/>
-      <c r="B829" s="11"/>
-    </row>
-    <row r="830" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A830" s="11"/>
-      <c r="B830" s="11"/>
-    </row>
-    <row r="831" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A831" s="11"/>
-      <c r="B831" s="11"/>
-    </row>
-    <row r="832" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A832" s="11"/>
-      <c r="B832" s="11"/>
-    </row>
-    <row r="833" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A833" s="11"/>
-      <c r="B833" s="11"/>
-    </row>
-    <row r="834" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A834" s="11"/>
-      <c r="B834" s="11"/>
-    </row>
-    <row r="835" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A835" s="11"/>
-      <c r="B835" s="11"/>
-    </row>
-    <row r="836" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A836" s="11"/>
-      <c r="B836" s="11"/>
-    </row>
-    <row r="837" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A837" s="11"/>
-      <c r="B837" s="11"/>
-    </row>
-    <row r="838" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A838" s="11"/>
-      <c r="B838" s="11"/>
-    </row>
-    <row r="839" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A839" s="11"/>
-      <c r="B839" s="11"/>
-    </row>
-    <row r="840" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A840" s="11"/>
-      <c r="B840" s="11"/>
-    </row>
-    <row r="841" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A841" s="11"/>
-      <c r="B841" s="11"/>
-    </row>
-    <row r="842" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A842" s="11"/>
-      <c r="B842" s="11"/>
-    </row>
-    <row r="843" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A843" s="11"/>
-      <c r="B843" s="11"/>
-    </row>
-    <row r="844" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A844" s="11"/>
-      <c r="B844" s="11"/>
-    </row>
-    <row r="845" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A845" s="11"/>
-      <c r="B845" s="11"/>
-    </row>
-    <row r="846" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A846" s="11"/>
-      <c r="B846" s="11"/>
-    </row>
-    <row r="847" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A847" s="11"/>
-      <c r="B847" s="11"/>
-    </row>
-    <row r="848" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A848" s="11"/>
-      <c r="B848" s="11"/>
-    </row>
-    <row r="849" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A849" s="11"/>
-      <c r="B849" s="11"/>
-    </row>
-    <row r="850" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A850" s="11"/>
-      <c r="B850" s="11"/>
-    </row>
-    <row r="851" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A851" s="11"/>
-      <c r="B851" s="11"/>
-    </row>
-    <row r="852" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A852" s="11"/>
-      <c r="B852" s="11"/>
-    </row>
-    <row r="853" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A853" s="11"/>
-      <c r="B853" s="11"/>
-    </row>
-    <row r="854" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A854" s="11"/>
-      <c r="B854" s="11"/>
-    </row>
-    <row r="855" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A855" s="11"/>
-      <c r="B855" s="11"/>
-    </row>
-    <row r="856" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A856" s="11"/>
-      <c r="B856" s="11"/>
-    </row>
-    <row r="857" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A857" s="11"/>
-      <c r="B857" s="11"/>
-    </row>
-    <row r="858" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A858" s="11"/>
-      <c r="B858" s="11"/>
-    </row>
-    <row r="859" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A859" s="11"/>
-      <c r="B859" s="11"/>
-    </row>
-    <row r="860" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A860" s="11"/>
-      <c r="B860" s="11"/>
-    </row>
-    <row r="861" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A861" s="11"/>
-      <c r="B861" s="11"/>
-    </row>
-    <row r="862" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A862" s="11"/>
-      <c r="B862" s="11"/>
-    </row>
-    <row r="863" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A863" s="11"/>
-      <c r="B863" s="11"/>
-    </row>
-    <row r="864" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A864" s="11"/>
-      <c r="B864" s="11"/>
-    </row>
-    <row r="865" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A865" s="11"/>
-      <c r="B865" s="11"/>
-    </row>
-    <row r="866" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A866" s="11"/>
-      <c r="B866" s="11"/>
-    </row>
-    <row r="867" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A867" s="11"/>
-      <c r="B867" s="11"/>
-    </row>
-    <row r="868" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A868" s="11"/>
-      <c r="B868" s="11"/>
-    </row>
-    <row r="869" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A869" s="11"/>
-      <c r="B869" s="11"/>
-    </row>
-    <row r="870" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A870" s="11"/>
-      <c r="B870" s="11"/>
-    </row>
-    <row r="871" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A871" s="11"/>
-      <c r="B871" s="11"/>
-    </row>
-    <row r="872" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A872" s="11"/>
-      <c r="B872" s="11"/>
-    </row>
-    <row r="873" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A873" s="11"/>
-      <c r="B873" s="11"/>
-    </row>
-    <row r="874" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A874" s="11"/>
-      <c r="B874" s="11"/>
-    </row>
-    <row r="875" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A875" s="11"/>
-      <c r="B875" s="11"/>
-    </row>
-    <row r="876" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A876" s="11"/>
-      <c r="B876" s="11"/>
-    </row>
-    <row r="877" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A877" s="11"/>
-      <c r="B877" s="11"/>
-    </row>
-    <row r="878" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A878" s="11"/>
-      <c r="B878" s="11"/>
-    </row>
-    <row r="879" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A879" s="11"/>
-      <c r="B879" s="11"/>
-    </row>
-    <row r="880" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A880" s="11"/>
-      <c r="B880" s="11"/>
-    </row>
-    <row r="881" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A881" s="11"/>
-      <c r="B881" s="11"/>
-    </row>
-    <row r="882" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A882" s="11"/>
-      <c r="B882" s="11"/>
-    </row>
-    <row r="883" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A883" s="11"/>
-      <c r="B883" s="11"/>
-    </row>
-    <row r="884" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A884" s="11"/>
-      <c r="B884" s="11"/>
-    </row>
-    <row r="885" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A885" s="11"/>
-      <c r="B885" s="11"/>
-    </row>
-    <row r="886" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A886" s="11"/>
-      <c r="B886" s="11"/>
-    </row>
-    <row r="887" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A887" s="11"/>
-      <c r="B887" s="11"/>
-    </row>
-    <row r="888" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A888" s="11"/>
-      <c r="B888" s="11"/>
-    </row>
-    <row r="889" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A889" s="11"/>
-      <c r="B889" s="11"/>
-    </row>
-    <row r="890" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A890" s="11"/>
-      <c r="B890" s="11"/>
-    </row>
-    <row r="891" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A891" s="11"/>
-      <c r="B891" s="11"/>
-    </row>
-    <row r="892" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A892" s="11"/>
-      <c r="B892" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/Pokname.xlsx
+++ b/Data/Pokname.xlsx
@@ -19,9 +19,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="664">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="665">
   <si>
     <t>Name</t>
+  </si>
+  <si>
+    <t>Pokemon</t>
   </si>
   <si>
     <t>Bulbasaur</t>
@@ -2378,137 +2381,140 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B664"/>
+  <dimension ref="A1:C664"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A641" workbookViewId="0">
-      <selection activeCell="F660" sqref="F660"/>
+    <sheetView tabSelected="1" topLeftCell="A642" workbookViewId="0">
+      <selection activeCell="N656" sqref="N656"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -2516,7 +2522,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -2524,7 +2530,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -2532,7 +2538,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -2540,7 +2546,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -2548,7 +2554,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -2556,7 +2562,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -2564,7 +2570,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -2572,7 +2578,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -2580,7 +2586,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -2588,7 +2594,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -2596,7 +2602,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -2604,7 +2610,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -2612,7 +2618,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -2620,7 +2626,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -2628,7 +2634,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -2636,7 +2642,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -2644,7 +2650,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -2652,7 +2658,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -2660,7 +2666,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -2668,7 +2674,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -2676,7 +2682,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -2684,7 +2690,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -2692,7 +2698,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -2700,7 +2706,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -2708,7 +2714,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -2716,7 +2722,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -2724,7 +2730,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -2732,7 +2738,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -2740,7 +2746,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -2748,7 +2754,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -2756,7 +2762,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -2764,7 +2770,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -2772,7 +2778,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -2780,7 +2786,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -2788,7 +2794,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -2796,7 +2802,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -2804,7 +2810,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -2812,7 +2818,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -2820,7 +2826,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -2828,7 +2834,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -2836,7 +2842,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -2844,7 +2850,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -2852,7 +2858,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
@@ -2860,7 +2866,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -2868,7 +2874,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -2876,7 +2882,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -2884,7 +2890,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -2892,7 +2898,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -2900,7 +2906,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
@@ -2908,7 +2914,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
@@ -2916,7 +2922,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
@@ -2924,7 +2930,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
@@ -2932,7 +2938,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -2940,7 +2946,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
@@ -2948,7 +2954,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
@@ -2956,7 +2962,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
@@ -2964,7 +2970,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
@@ -2972,7 +2978,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
@@ -2980,7 +2986,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
@@ -2988,7 +2994,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
@@ -2996,7 +3002,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
@@ -3004,7 +3010,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
@@ -3012,7 +3018,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
@@ -3020,7 +3026,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
@@ -3028,7 +3034,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
@@ -3036,7 +3042,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
@@ -3044,7 +3050,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
@@ -3052,7 +3058,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
@@ -3060,7 +3066,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
@@ -3068,7 +3074,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
@@ -3076,7 +3082,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
@@ -3084,7 +3090,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
@@ -3092,7 +3098,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
@@ -3100,7 +3106,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
@@ -3108,7 +3114,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
@@ -3116,7 +3122,7 @@
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
@@ -3124,7 +3130,7 @@
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
@@ -3132,7 +3138,7 @@
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
@@ -3140,7 +3146,7 @@
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
@@ -3148,7 +3154,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
@@ -3156,7 +3162,7 @@
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
@@ -3164,7 +3170,7 @@
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
@@ -3172,7 +3178,7 @@
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
@@ -3180,7 +3186,7 @@
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
@@ -3188,7 +3194,7 @@
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
@@ -3196,7 +3202,7 @@
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
@@ -3204,7 +3210,7 @@
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
@@ -3212,7 +3218,7 @@
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
@@ -3220,7 +3226,7 @@
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
@@ -3228,7 +3234,7 @@
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
@@ -3236,7 +3242,7 @@
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
@@ -3244,7 +3250,7 @@
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
@@ -3252,7 +3258,7 @@
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
@@ -3260,7 +3266,7 @@
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
@@ -3268,7 +3274,7 @@
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
@@ -3276,7 +3282,7 @@
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
@@ -3284,7 +3290,7 @@
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
@@ -3292,7 +3298,7 @@
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
@@ -3300,7 +3306,7 @@
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
@@ -3308,7 +3314,7 @@
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
@@ -3316,7 +3322,7 @@
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
@@ -3324,7 +3330,7 @@
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
@@ -3332,7 +3338,7 @@
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
@@ -3340,7 +3346,7 @@
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
@@ -3348,7 +3354,7 @@
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
@@ -3356,7 +3362,7 @@
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
@@ -3364,7 +3370,7 @@
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
@@ -3372,7 +3378,7 @@
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
@@ -3380,7 +3386,7 @@
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
@@ -3388,7 +3394,7 @@
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
@@ -3396,7 +3402,7 @@
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
@@ -3404,7 +3410,7 @@
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
@@ -3412,7 +3418,7 @@
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
@@ -3420,7 +3426,7 @@
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
@@ -3428,7 +3434,7 @@
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
@@ -3436,7 +3442,7 @@
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
@@ -3444,7 +3450,7 @@
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
@@ -3452,7 +3458,7 @@
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
@@ -3460,7 +3466,7 @@
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
@@ -3468,7 +3474,7 @@
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
@@ -3476,7 +3482,7 @@
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
@@ -3484,7 +3490,7 @@
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
@@ -3492,7 +3498,7 @@
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
@@ -3500,7 +3506,7 @@
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
@@ -3508,7 +3514,7 @@
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
@@ -3516,7 +3522,7 @@
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
@@ -3524,7 +3530,7 @@
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
@@ -3532,7 +3538,7 @@
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
@@ -3540,7 +3546,7 @@
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
@@ -3548,7 +3554,7 @@
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
@@ -3556,7 +3562,7 @@
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
@@ -3564,7 +3570,7 @@
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
@@ -3572,7 +3578,7 @@
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
@@ -3580,7 +3586,7 @@
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
@@ -3588,7 +3594,7 @@
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
@@ -3596,7 +3602,7 @@
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
@@ -3604,7 +3610,7 @@
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
@@ -3612,7 +3618,7 @@
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
@@ -3620,7 +3626,7 @@
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
@@ -3628,7 +3634,7 @@
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
@@ -3636,7 +3642,7 @@
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
@@ -3644,7 +3650,7 @@
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
@@ -3652,7 +3658,7 @@
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
@@ -3660,7 +3666,7 @@
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
@@ -3668,7 +3674,7 @@
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
@@ -3676,7 +3682,7 @@
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
@@ -3684,7 +3690,7 @@
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
@@ -3692,7 +3698,7 @@
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
@@ -3700,7 +3706,7 @@
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
@@ -3708,7 +3714,7 @@
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
@@ -3716,7 +3722,7 @@
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
@@ -3724,7 +3730,7 @@
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
@@ -3732,7 +3738,7 @@
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
@@ -3740,7 +3746,7 @@
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
@@ -3748,7 +3754,7 @@
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
@@ -3756,7 +3762,7 @@
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
@@ -3764,7 +3770,7 @@
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
@@ -3772,7 +3778,7 @@
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
@@ -3780,7 +3786,7 @@
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
@@ -3788,7 +3794,7 @@
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
@@ -3796,7 +3802,7 @@
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
@@ -3804,7 +3810,7 @@
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
@@ -3812,7 +3818,7 @@
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
@@ -3820,7 +3826,7 @@
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
@@ -3828,7 +3834,7 @@
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
@@ -3836,7 +3842,7 @@
         <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
@@ -3844,7 +3850,7 @@
         <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
@@ -3852,7 +3858,7 @@
         <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
@@ -3860,7 +3866,7 @@
         <v>183</v>
       </c>
       <c r="B185" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
@@ -3868,7 +3874,7 @@
         <v>184</v>
       </c>
       <c r="B186" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
@@ -3876,7 +3882,7 @@
         <v>185</v>
       </c>
       <c r="B187" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
@@ -3884,7 +3890,7 @@
         <v>186</v>
       </c>
       <c r="B188" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
@@ -3892,7 +3898,7 @@
         <v>187</v>
       </c>
       <c r="B189" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
@@ -3900,7 +3906,7 @@
         <v>188</v>
       </c>
       <c r="B190" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
@@ -3908,7 +3914,7 @@
         <v>189</v>
       </c>
       <c r="B191" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
@@ -3916,7 +3922,7 @@
         <v>190</v>
       </c>
       <c r="B192" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
@@ -3924,7 +3930,7 @@
         <v>191</v>
       </c>
       <c r="B193" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
@@ -3932,7 +3938,7 @@
         <v>192</v>
       </c>
       <c r="B194" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
@@ -3940,7 +3946,7 @@
         <v>193</v>
       </c>
       <c r="B195" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
@@ -3948,7 +3954,7 @@
         <v>194</v>
       </c>
       <c r="B196" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
@@ -3956,7 +3962,7 @@
         <v>195</v>
       </c>
       <c r="B197" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
@@ -3964,7 +3970,7 @@
         <v>196</v>
       </c>
       <c r="B198" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
@@ -3972,7 +3978,7 @@
         <v>197</v>
       </c>
       <c r="B199" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
@@ -3980,7 +3986,7 @@
         <v>198</v>
       </c>
       <c r="B200" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
@@ -3988,7 +3994,7 @@
         <v>199</v>
       </c>
       <c r="B201" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
@@ -3996,7 +4002,7 @@
         <v>200</v>
       </c>
       <c r="B202" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
@@ -4004,7 +4010,7 @@
         <v>201</v>
       </c>
       <c r="B203" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
@@ -4012,7 +4018,7 @@
         <v>202</v>
       </c>
       <c r="B204" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
@@ -4020,7 +4026,7 @@
         <v>203</v>
       </c>
       <c r="B205" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
@@ -4028,7 +4034,7 @@
         <v>204</v>
       </c>
       <c r="B206" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
@@ -4036,7 +4042,7 @@
         <v>205</v>
       </c>
       <c r="B207" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
@@ -4044,7 +4050,7 @@
         <v>206</v>
       </c>
       <c r="B208" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
@@ -4052,7 +4058,7 @@
         <v>207</v>
       </c>
       <c r="B209" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
@@ -4060,7 +4066,7 @@
         <v>208</v>
       </c>
       <c r="B210" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
@@ -4068,7 +4074,7 @@
         <v>209</v>
       </c>
       <c r="B211" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
@@ -4076,7 +4082,7 @@
         <v>210</v>
       </c>
       <c r="B212" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
@@ -4084,7 +4090,7 @@
         <v>211</v>
       </c>
       <c r="B213" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
@@ -4092,7 +4098,7 @@
         <v>212</v>
       </c>
       <c r="B214" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
@@ -4100,7 +4106,7 @@
         <v>213</v>
       </c>
       <c r="B215" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
@@ -4108,7 +4114,7 @@
         <v>214</v>
       </c>
       <c r="B216" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
@@ -4116,7 +4122,7 @@
         <v>215</v>
       </c>
       <c r="B217" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
@@ -4124,7 +4130,7 @@
         <v>216</v>
       </c>
       <c r="B218" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
@@ -4132,7 +4138,7 @@
         <v>217</v>
       </c>
       <c r="B219" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
@@ -4140,7 +4146,7 @@
         <v>218</v>
       </c>
       <c r="B220" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
@@ -4148,7 +4154,7 @@
         <v>219</v>
       </c>
       <c r="B221" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
@@ -4156,7 +4162,7 @@
         <v>220</v>
       </c>
       <c r="B222" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
@@ -4164,7 +4170,7 @@
         <v>221</v>
       </c>
       <c r="B223" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
@@ -4172,7 +4178,7 @@
         <v>222</v>
       </c>
       <c r="B224" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
@@ -4180,7 +4186,7 @@
         <v>223</v>
       </c>
       <c r="B225" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
@@ -4188,7 +4194,7 @@
         <v>224</v>
       </c>
       <c r="B226" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
@@ -4196,7 +4202,7 @@
         <v>225</v>
       </c>
       <c r="B227" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
@@ -4204,7 +4210,7 @@
         <v>226</v>
       </c>
       <c r="B228" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
@@ -4212,7 +4218,7 @@
         <v>227</v>
       </c>
       <c r="B229" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
@@ -4220,7 +4226,7 @@
         <v>228</v>
       </c>
       <c r="B230" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
@@ -4228,7 +4234,7 @@
         <v>229</v>
       </c>
       <c r="B231" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
@@ -4236,7 +4242,7 @@
         <v>230</v>
       </c>
       <c r="B232" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
@@ -4244,7 +4250,7 @@
         <v>231</v>
       </c>
       <c r="B233" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
@@ -4252,7 +4258,7 @@
         <v>232</v>
       </c>
       <c r="B234" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
@@ -4260,7 +4266,7 @@
         <v>233</v>
       </c>
       <c r="B235" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
@@ -4268,7 +4274,7 @@
         <v>234</v>
       </c>
       <c r="B236" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
@@ -4276,7 +4282,7 @@
         <v>235</v>
       </c>
       <c r="B237" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
@@ -4284,7 +4290,7 @@
         <v>236</v>
       </c>
       <c r="B238" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
@@ -4292,7 +4298,7 @@
         <v>237</v>
       </c>
       <c r="B239" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
@@ -4300,7 +4306,7 @@
         <v>238</v>
       </c>
       <c r="B240" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
@@ -4308,7 +4314,7 @@
         <v>239</v>
       </c>
       <c r="B241" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
@@ -4316,7 +4322,7 @@
         <v>240</v>
       </c>
       <c r="B242" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
@@ -4324,7 +4330,7 @@
         <v>241</v>
       </c>
       <c r="B243" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
@@ -4332,7 +4338,7 @@
         <v>242</v>
       </c>
       <c r="B244" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
@@ -4340,7 +4346,7 @@
         <v>243</v>
       </c>
       <c r="B245" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
@@ -4348,7 +4354,7 @@
         <v>244</v>
       </c>
       <c r="B246" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
@@ -4356,7 +4362,7 @@
         <v>245</v>
       </c>
       <c r="B247" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
@@ -4364,7 +4370,7 @@
         <v>246</v>
       </c>
       <c r="B248" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
@@ -4372,7 +4378,7 @@
         <v>247</v>
       </c>
       <c r="B249" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
@@ -4380,7 +4386,7 @@
         <v>248</v>
       </c>
       <c r="B250" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
@@ -4388,7 +4394,7 @@
         <v>249</v>
       </c>
       <c r="B251" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
@@ -4396,7 +4402,7 @@
         <v>250</v>
       </c>
       <c r="B252" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
@@ -4404,7 +4410,7 @@
         <v>251</v>
       </c>
       <c r="B253" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
@@ -4412,7 +4418,7 @@
         <v>252</v>
       </c>
       <c r="B254" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
@@ -4420,7 +4426,7 @@
         <v>253</v>
       </c>
       <c r="B255" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
@@ -4428,7 +4434,7 @@
         <v>254</v>
       </c>
       <c r="B256" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
@@ -4436,7 +4442,7 @@
         <v>255</v>
       </c>
       <c r="B257" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
@@ -4444,7 +4450,7 @@
         <v>256</v>
       </c>
       <c r="B258" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
@@ -4452,7 +4458,7 @@
         <v>257</v>
       </c>
       <c r="B259" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.25">
@@ -4460,7 +4466,7 @@
         <v>258</v>
       </c>
       <c r="B260" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
@@ -4468,7 +4474,7 @@
         <v>259</v>
       </c>
       <c r="B261" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
@@ -4476,7 +4482,7 @@
         <v>260</v>
       </c>
       <c r="B262" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
@@ -4484,7 +4490,7 @@
         <v>261</v>
       </c>
       <c r="B263" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
@@ -4492,7 +4498,7 @@
         <v>262</v>
       </c>
       <c r="B264" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
@@ -4500,7 +4506,7 @@
         <v>263</v>
       </c>
       <c r="B265" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
@@ -4508,7 +4514,7 @@
         <v>264</v>
       </c>
       <c r="B266" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.25">
@@ -4516,7 +4522,7 @@
         <v>265</v>
       </c>
       <c r="B267" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
@@ -4524,7 +4530,7 @@
         <v>266</v>
       </c>
       <c r="B268" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.25">
@@ -4532,7 +4538,7 @@
         <v>267</v>
       </c>
       <c r="B269" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
@@ -4540,7 +4546,7 @@
         <v>268</v>
       </c>
       <c r="B270" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
@@ -4548,7 +4554,7 @@
         <v>269</v>
       </c>
       <c r="B271" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
@@ -4556,7 +4562,7 @@
         <v>270</v>
       </c>
       <c r="B272" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.25">
@@ -4564,7 +4570,7 @@
         <v>271</v>
       </c>
       <c r="B273" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
@@ -4572,7 +4578,7 @@
         <v>272</v>
       </c>
       <c r="B274" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.25">
@@ -4580,7 +4586,7 @@
         <v>273</v>
       </c>
       <c r="B275" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
@@ -4588,7 +4594,7 @@
         <v>274</v>
       </c>
       <c r="B276" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
@@ -4596,7 +4602,7 @@
         <v>275</v>
       </c>
       <c r="B277" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.25">
@@ -4604,7 +4610,7 @@
         <v>276</v>
       </c>
       <c r="B278" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.25">
@@ -4612,7 +4618,7 @@
         <v>277</v>
       </c>
       <c r="B279" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.25">
@@ -4620,7 +4626,7 @@
         <v>278</v>
       </c>
       <c r="B280" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.25">
@@ -4628,7 +4634,7 @@
         <v>279</v>
       </c>
       <c r="B281" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.25">
@@ -4636,7 +4642,7 @@
         <v>280</v>
       </c>
       <c r="B282" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.25">
@@ -4644,7 +4650,7 @@
         <v>281</v>
       </c>
       <c r="B283" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.25">
@@ -4652,7 +4658,7 @@
         <v>282</v>
       </c>
       <c r="B284" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.25">
@@ -4660,7 +4666,7 @@
         <v>283</v>
       </c>
       <c r="B285" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.25">
@@ -4668,7 +4674,7 @@
         <v>284</v>
       </c>
       <c r="B286" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.25">
@@ -4676,7 +4682,7 @@
         <v>285</v>
       </c>
       <c r="B287" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.25">
@@ -4684,7 +4690,7 @@
         <v>286</v>
       </c>
       <c r="B288" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.25">
@@ -4692,7 +4698,7 @@
         <v>287</v>
       </c>
       <c r="B289" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.25">
@@ -4700,7 +4706,7 @@
         <v>288</v>
       </c>
       <c r="B290" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.25">
@@ -4708,7 +4714,7 @@
         <v>289</v>
       </c>
       <c r="B291" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.25">
@@ -4716,7 +4722,7 @@
         <v>290</v>
       </c>
       <c r="B292" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.25">
@@ -4724,7 +4730,7 @@
         <v>291</v>
       </c>
       <c r="B293" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.25">
@@ -4732,7 +4738,7 @@
         <v>292</v>
       </c>
       <c r="B294" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.25">
@@ -4740,7 +4746,7 @@
         <v>293</v>
       </c>
       <c r="B295" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.25">
@@ -4748,7 +4754,7 @@
         <v>294</v>
       </c>
       <c r="B296" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.25">
@@ -4756,7 +4762,7 @@
         <v>295</v>
       </c>
       <c r="B297" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.25">
@@ -4764,7 +4770,7 @@
         <v>296</v>
       </c>
       <c r="B298" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.25">
@@ -4772,7 +4778,7 @@
         <v>297</v>
       </c>
       <c r="B299" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.25">
@@ -4780,7 +4786,7 @@
         <v>298</v>
       </c>
       <c r="B300" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.25">
@@ -4788,7 +4794,7 @@
         <v>299</v>
       </c>
       <c r="B301" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.25">
@@ -4796,7 +4802,7 @@
         <v>300</v>
       </c>
       <c r="B302" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.25">
@@ -4804,7 +4810,7 @@
         <v>301</v>
       </c>
       <c r="B303" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.25">
@@ -4812,7 +4818,7 @@
         <v>302</v>
       </c>
       <c r="B304" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.25">
@@ -4820,7 +4826,7 @@
         <v>303</v>
       </c>
       <c r="B305" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.25">
@@ -4828,7 +4834,7 @@
         <v>304</v>
       </c>
       <c r="B306" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.25">
@@ -4836,7 +4842,7 @@
         <v>305</v>
       </c>
       <c r="B307" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.25">
@@ -4844,7 +4850,7 @@
         <v>306</v>
       </c>
       <c r="B308" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.25">
@@ -4852,7 +4858,7 @@
         <v>307</v>
       </c>
       <c r="B309" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.25">
@@ -4860,7 +4866,7 @@
         <v>308</v>
       </c>
       <c r="B310" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.25">
@@ -4868,7 +4874,7 @@
         <v>309</v>
       </c>
       <c r="B311" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.25">
@@ -4876,7 +4882,7 @@
         <v>310</v>
       </c>
       <c r="B312" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.25">
@@ -4884,7 +4890,7 @@
         <v>311</v>
       </c>
       <c r="B313" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.25">
@@ -4892,7 +4898,7 @@
         <v>312</v>
       </c>
       <c r="B314" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.25">
@@ -4900,7 +4906,7 @@
         <v>313</v>
       </c>
       <c r="B315" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.25">
@@ -4908,7 +4914,7 @@
         <v>314</v>
       </c>
       <c r="B316" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.25">
@@ -4916,7 +4922,7 @@
         <v>315</v>
       </c>
       <c r="B317" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.25">
@@ -4924,7 +4930,7 @@
         <v>316</v>
       </c>
       <c r="B318" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.25">
@@ -4932,7 +4938,7 @@
         <v>317</v>
       </c>
       <c r="B319" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.25">
@@ -4940,7 +4946,7 @@
         <v>318</v>
       </c>
       <c r="B320" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.25">
@@ -4948,7 +4954,7 @@
         <v>319</v>
       </c>
       <c r="B321" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.25">
@@ -4956,7 +4962,7 @@
         <v>320</v>
       </c>
       <c r="B322" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.25">
@@ -4964,7 +4970,7 @@
         <v>321</v>
       </c>
       <c r="B323" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.25">
@@ -4972,7 +4978,7 @@
         <v>322</v>
       </c>
       <c r="B324" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.25">
@@ -4980,7 +4986,7 @@
         <v>323</v>
       </c>
       <c r="B325" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.25">
@@ -4988,7 +4994,7 @@
         <v>324</v>
       </c>
       <c r="B326" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.25">
@@ -4996,7 +5002,7 @@
         <v>325</v>
       </c>
       <c r="B327" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.25">
@@ -5004,7 +5010,7 @@
         <v>326</v>
       </c>
       <c r="B328" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.25">
@@ -5012,7 +5018,7 @@
         <v>327</v>
       </c>
       <c r="B329" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.25">
@@ -5020,7 +5026,7 @@
         <v>328</v>
       </c>
       <c r="B330" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.25">
@@ -5028,7 +5034,7 @@
         <v>329</v>
       </c>
       <c r="B331" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.25">
@@ -5036,7 +5042,7 @@
         <v>330</v>
       </c>
       <c r="B332" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.25">
@@ -5044,7 +5050,7 @@
         <v>331</v>
       </c>
       <c r="B333" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.25">
@@ -5052,7 +5058,7 @@
         <v>332</v>
       </c>
       <c r="B334" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.25">
@@ -5060,7 +5066,7 @@
         <v>333</v>
       </c>
       <c r="B335" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.25">
@@ -5068,7 +5074,7 @@
         <v>334</v>
       </c>
       <c r="B336" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.25">
@@ -5076,7 +5082,7 @@
         <v>335</v>
       </c>
       <c r="B337" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.25">
@@ -5084,7 +5090,7 @@
         <v>336</v>
       </c>
       <c r="B338" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.25">
@@ -5092,7 +5098,7 @@
         <v>337</v>
       </c>
       <c r="B339" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.25">
@@ -5100,7 +5106,7 @@
         <v>338</v>
       </c>
       <c r="B340" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.25">
@@ -5108,7 +5114,7 @@
         <v>339</v>
       </c>
       <c r="B341" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.25">
@@ -5116,7 +5122,7 @@
         <v>340</v>
       </c>
       <c r="B342" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.25">
@@ -5124,7 +5130,7 @@
         <v>341</v>
       </c>
       <c r="B343" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.25">
@@ -5132,7 +5138,7 @@
         <v>342</v>
       </c>
       <c r="B344" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.25">
@@ -5140,7 +5146,7 @@
         <v>343</v>
       </c>
       <c r="B345" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.25">
@@ -5148,7 +5154,7 @@
         <v>344</v>
       </c>
       <c r="B346" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.25">
@@ -5156,7 +5162,7 @@
         <v>345</v>
       </c>
       <c r="B347" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.25">
@@ -5164,7 +5170,7 @@
         <v>346</v>
       </c>
       <c r="B348" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.25">
@@ -5172,7 +5178,7 @@
         <v>347</v>
       </c>
       <c r="B349" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.25">
@@ -5180,7 +5186,7 @@
         <v>348</v>
       </c>
       <c r="B350" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.25">
@@ -5188,7 +5194,7 @@
         <v>349</v>
       </c>
       <c r="B351" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.25">
@@ -5196,7 +5202,7 @@
         <v>350</v>
       </c>
       <c r="B352" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.25">
@@ -5204,7 +5210,7 @@
         <v>351</v>
       </c>
       <c r="B353" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.25">
@@ -5212,7 +5218,7 @@
         <v>352</v>
       </c>
       <c r="B354" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.25">
@@ -5220,7 +5226,7 @@
         <v>353</v>
       </c>
       <c r="B355" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.25">
@@ -5228,7 +5234,7 @@
         <v>354</v>
       </c>
       <c r="B356" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.25">
@@ -5236,7 +5242,7 @@
         <v>355</v>
       </c>
       <c r="B357" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.25">
@@ -5244,7 +5250,7 @@
         <v>356</v>
       </c>
       <c r="B358" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.25">
@@ -5252,7 +5258,7 @@
         <v>357</v>
       </c>
       <c r="B359" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.25">
@@ -5260,7 +5266,7 @@
         <v>358</v>
       </c>
       <c r="B360" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.25">
@@ -5268,7 +5274,7 @@
         <v>359</v>
       </c>
       <c r="B361" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.25">
@@ -5276,7 +5282,7 @@
         <v>360</v>
       </c>
       <c r="B362" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.25">
@@ -5284,7 +5290,7 @@
         <v>361</v>
       </c>
       <c r="B363" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.25">
@@ -5292,7 +5298,7 @@
         <v>362</v>
       </c>
       <c r="B364" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.25">
@@ -5300,7 +5306,7 @@
         <v>363</v>
       </c>
       <c r="B365" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.25">
@@ -5308,7 +5314,7 @@
         <v>364</v>
       </c>
       <c r="B366" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.25">
@@ -5316,7 +5322,7 @@
         <v>365</v>
       </c>
       <c r="B367" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.25">
@@ -5324,7 +5330,7 @@
         <v>366</v>
       </c>
       <c r="B368" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.25">
@@ -5332,7 +5338,7 @@
         <v>367</v>
       </c>
       <c r="B369" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.25">
@@ -5340,7 +5346,7 @@
         <v>368</v>
       </c>
       <c r="B370" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.25">
@@ -5348,7 +5354,7 @@
         <v>369</v>
       </c>
       <c r="B371" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.25">
@@ -5356,7 +5362,7 @@
         <v>370</v>
       </c>
       <c r="B372" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.25">
@@ -5364,7 +5370,7 @@
         <v>371</v>
       </c>
       <c r="B373" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.25">
@@ -5372,7 +5378,7 @@
         <v>372</v>
       </c>
       <c r="B374" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.25">
@@ -5380,7 +5386,7 @@
         <v>373</v>
       </c>
       <c r="B375" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.25">
@@ -5388,7 +5394,7 @@
         <v>374</v>
       </c>
       <c r="B376" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.25">
@@ -5396,7 +5402,7 @@
         <v>375</v>
       </c>
       <c r="B377" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.25">
@@ -5404,7 +5410,7 @@
         <v>376</v>
       </c>
       <c r="B378" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.25">
@@ -5412,7 +5418,7 @@
         <v>377</v>
       </c>
       <c r="B379" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.25">
@@ -5420,7 +5426,7 @@
         <v>378</v>
       </c>
       <c r="B380" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.25">
@@ -5428,7 +5434,7 @@
         <v>379</v>
       </c>
       <c r="B381" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.25">
@@ -5436,7 +5442,7 @@
         <v>380</v>
       </c>
       <c r="B382" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.25">
@@ -5444,7 +5450,7 @@
         <v>381</v>
       </c>
       <c r="B383" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.25">
@@ -5452,7 +5458,7 @@
         <v>382</v>
       </c>
       <c r="B384" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.25">
@@ -5460,7 +5466,7 @@
         <v>383</v>
       </c>
       <c r="B385" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.25">
@@ -5468,7 +5474,7 @@
         <v>384</v>
       </c>
       <c r="B386" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.25">
@@ -5476,7 +5482,7 @@
         <v>385</v>
       </c>
       <c r="B387" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.25">
@@ -5484,7 +5490,7 @@
         <v>386</v>
       </c>
       <c r="B388" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.25">
@@ -5492,7 +5498,7 @@
         <v>387</v>
       </c>
       <c r="B389" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.25">
@@ -5500,7 +5506,7 @@
         <v>388</v>
       </c>
       <c r="B390" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.25">
@@ -5508,7 +5514,7 @@
         <v>389</v>
       </c>
       <c r="B391" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.25">
@@ -5516,7 +5522,7 @@
         <v>390</v>
       </c>
       <c r="B392" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.25">
@@ -5524,7 +5530,7 @@
         <v>391</v>
       </c>
       <c r="B393" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.25">
@@ -5532,7 +5538,7 @@
         <v>392</v>
       </c>
       <c r="B394" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.25">
@@ -5540,7 +5546,7 @@
         <v>393</v>
       </c>
       <c r="B395" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.25">
@@ -5548,7 +5554,7 @@
         <v>394</v>
       </c>
       <c r="B396" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.25">
@@ -5556,7 +5562,7 @@
         <v>395</v>
       </c>
       <c r="B397" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.25">
@@ -5564,7 +5570,7 @@
         <v>396</v>
       </c>
       <c r="B398" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.25">
@@ -5572,7 +5578,7 @@
         <v>397</v>
       </c>
       <c r="B399" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.25">
@@ -5580,7 +5586,7 @@
         <v>398</v>
       </c>
       <c r="B400" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.25">
@@ -5588,7 +5594,7 @@
         <v>399</v>
       </c>
       <c r="B401" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.25">
@@ -5596,7 +5602,7 @@
         <v>400</v>
       </c>
       <c r="B402" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.25">
@@ -5604,7 +5610,7 @@
         <v>401</v>
       </c>
       <c r="B403" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.25">
@@ -5612,7 +5618,7 @@
         <v>402</v>
       </c>
       <c r="B404" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.25">
@@ -5620,7 +5626,7 @@
         <v>403</v>
       </c>
       <c r="B405" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.25">
@@ -5628,7 +5634,7 @@
         <v>404</v>
       </c>
       <c r="B406" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.25">
@@ -5636,7 +5642,7 @@
         <v>405</v>
       </c>
       <c r="B407" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.25">
@@ -5644,7 +5650,7 @@
         <v>406</v>
       </c>
       <c r="B408" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.25">
@@ -5652,7 +5658,7 @@
         <v>407</v>
       </c>
       <c r="B409" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.25">
@@ -5660,7 +5666,7 @@
         <v>408</v>
       </c>
       <c r="B410" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.25">
@@ -5668,7 +5674,7 @@
         <v>409</v>
       </c>
       <c r="B411" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.25">
@@ -5676,7 +5682,7 @@
         <v>410</v>
       </c>
       <c r="B412" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.25">
@@ -5684,7 +5690,7 @@
         <v>411</v>
       </c>
       <c r="B413" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.25">
@@ -5692,7 +5698,7 @@
         <v>412</v>
       </c>
       <c r="B414" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.25">
@@ -5700,7 +5706,7 @@
         <v>413</v>
       </c>
       <c r="B415" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.25">
@@ -5708,7 +5714,7 @@
         <v>414</v>
       </c>
       <c r="B416" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.25">
@@ -5716,7 +5722,7 @@
         <v>415</v>
       </c>
       <c r="B417" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.25">
@@ -5724,7 +5730,7 @@
         <v>416</v>
       </c>
       <c r="B418" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.25">
@@ -5732,7 +5738,7 @@
         <v>417</v>
       </c>
       <c r="B419" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.25">
@@ -5740,7 +5746,7 @@
         <v>418</v>
       </c>
       <c r="B420" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.25">
@@ -5748,7 +5754,7 @@
         <v>419</v>
       </c>
       <c r="B421" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.25">
@@ -5756,7 +5762,7 @@
         <v>420</v>
       </c>
       <c r="B422" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.25">
@@ -5764,7 +5770,7 @@
         <v>421</v>
       </c>
       <c r="B423" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.25">
@@ -5772,7 +5778,7 @@
         <v>422</v>
       </c>
       <c r="B424" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.25">
@@ -5780,7 +5786,7 @@
         <v>423</v>
       </c>
       <c r="B425" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.25">
@@ -5788,7 +5794,7 @@
         <v>424</v>
       </c>
       <c r="B426" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.25">
@@ -5796,7 +5802,7 @@
         <v>425</v>
       </c>
       <c r="B427" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.25">
@@ -5804,7 +5810,7 @@
         <v>426</v>
       </c>
       <c r="B428" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.25">
@@ -5812,7 +5818,7 @@
         <v>427</v>
       </c>
       <c r="B429" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.25">
@@ -5820,7 +5826,7 @@
         <v>428</v>
       </c>
       <c r="B430" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.25">
@@ -5828,7 +5834,7 @@
         <v>429</v>
       </c>
       <c r="B431" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.25">
@@ -5836,7 +5842,7 @@
         <v>430</v>
       </c>
       <c r="B432" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.25">
@@ -5844,7 +5850,7 @@
         <v>431</v>
       </c>
       <c r="B433" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.25">
@@ -5852,7 +5858,7 @@
         <v>432</v>
       </c>
       <c r="B434" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.25">
@@ -5860,7 +5866,7 @@
         <v>433</v>
       </c>
       <c r="B435" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.25">
@@ -5868,7 +5874,7 @@
         <v>434</v>
       </c>
       <c r="B436" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.25">
@@ -5876,7 +5882,7 @@
         <v>435</v>
       </c>
       <c r="B437" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.25">
@@ -5884,7 +5890,7 @@
         <v>436</v>
       </c>
       <c r="B438" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.25">
@@ -5892,7 +5898,7 @@
         <v>437</v>
       </c>
       <c r="B439" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.25">
@@ -5900,7 +5906,7 @@
         <v>438</v>
       </c>
       <c r="B440" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.25">
@@ -5908,7 +5914,7 @@
         <v>439</v>
       </c>
       <c r="B441" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.25">
@@ -5916,7 +5922,7 @@
         <v>440</v>
       </c>
       <c r="B442" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.25">
@@ -5924,7 +5930,7 @@
         <v>441</v>
       </c>
       <c r="B443" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.25">
@@ -5932,7 +5938,7 @@
         <v>442</v>
       </c>
       <c r="B444" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.25">
@@ -5940,7 +5946,7 @@
         <v>443</v>
       </c>
       <c r="B445" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.25">
@@ -5948,7 +5954,7 @@
         <v>444</v>
       </c>
       <c r="B446" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.25">
@@ -5956,7 +5962,7 @@
         <v>445</v>
       </c>
       <c r="B447" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.25">
@@ -5964,7 +5970,7 @@
         <v>446</v>
       </c>
       <c r="B448" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.25">
@@ -5972,7 +5978,7 @@
         <v>447</v>
       </c>
       <c r="B449" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.25">
@@ -5980,7 +5986,7 @@
         <v>448</v>
       </c>
       <c r="B450" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.25">
@@ -5988,7 +5994,7 @@
         <v>449</v>
       </c>
       <c r="B451" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.25">
@@ -5996,7 +6002,7 @@
         <v>450</v>
       </c>
       <c r="B452" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.25">
@@ -6004,7 +6010,7 @@
         <v>451</v>
       </c>
       <c r="B453" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.25">
@@ -6012,7 +6018,7 @@
         <v>452</v>
       </c>
       <c r="B454" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.25">
@@ -6020,7 +6026,7 @@
         <v>453</v>
       </c>
       <c r="B455" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.25">
@@ -6028,7 +6034,7 @@
         <v>454</v>
       </c>
       <c r="B456" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.25">
@@ -6036,7 +6042,7 @@
         <v>455</v>
       </c>
       <c r="B457" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.25">
@@ -6044,7 +6050,7 @@
         <v>456</v>
       </c>
       <c r="B458" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.25">
@@ -6052,7 +6058,7 @@
         <v>457</v>
       </c>
       <c r="B459" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.25">
@@ -6060,7 +6066,7 @@
         <v>458</v>
       </c>
       <c r="B460" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.25">
@@ -6068,7 +6074,7 @@
         <v>459</v>
       </c>
       <c r="B461" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.25">
@@ -6076,7 +6082,7 @@
         <v>460</v>
       </c>
       <c r="B462" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.25">
@@ -6084,7 +6090,7 @@
         <v>461</v>
       </c>
       <c r="B463" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.25">
@@ -6092,7 +6098,7 @@
         <v>462</v>
       </c>
       <c r="B464" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.25">
@@ -6100,7 +6106,7 @@
         <v>463</v>
       </c>
       <c r="B465" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.25">
@@ -6108,7 +6114,7 @@
         <v>464</v>
       </c>
       <c r="B466" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.25">
@@ -6116,7 +6122,7 @@
         <v>465</v>
       </c>
       <c r="B467" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.25">
@@ -6124,7 +6130,7 @@
         <v>466</v>
       </c>
       <c r="B468" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.25">
@@ -6132,7 +6138,7 @@
         <v>467</v>
       </c>
       <c r="B469" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.25">
@@ -6140,7 +6146,7 @@
         <v>468</v>
       </c>
       <c r="B470" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.25">
@@ -6148,7 +6154,7 @@
         <v>469</v>
       </c>
       <c r="B471" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.25">
@@ -6156,7 +6162,7 @@
         <v>470</v>
       </c>
       <c r="B472" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.25">
@@ -6164,7 +6170,7 @@
         <v>471</v>
       </c>
       <c r="B473" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.25">
@@ -6172,7 +6178,7 @@
         <v>472</v>
       </c>
       <c r="B474" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.25">
@@ -6180,7 +6186,7 @@
         <v>473</v>
       </c>
       <c r="B475" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.25">
@@ -6188,7 +6194,7 @@
         <v>474</v>
       </c>
       <c r="B476" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.25">
@@ -6196,7 +6202,7 @@
         <v>475</v>
       </c>
       <c r="B477" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.25">
@@ -6204,7 +6210,7 @@
         <v>476</v>
       </c>
       <c r="B478" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.25">
@@ -6212,7 +6218,7 @@
         <v>477</v>
       </c>
       <c r="B479" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.25">
@@ -6220,7 +6226,7 @@
         <v>478</v>
       </c>
       <c r="B480" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.25">
@@ -6228,7 +6234,7 @@
         <v>479</v>
       </c>
       <c r="B481" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.25">
@@ -6236,7 +6242,7 @@
         <v>480</v>
       </c>
       <c r="B482" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.25">
@@ -6244,7 +6250,7 @@
         <v>481</v>
       </c>
       <c r="B483" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.25">
@@ -6252,7 +6258,7 @@
         <v>482</v>
       </c>
       <c r="B484" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.25">
@@ -6260,7 +6266,7 @@
         <v>483</v>
       </c>
       <c r="B485" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.25">
@@ -6268,7 +6274,7 @@
         <v>484</v>
       </c>
       <c r="B486" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.25">
@@ -6276,7 +6282,7 @@
         <v>485</v>
       </c>
       <c r="B487" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.25">
@@ -6284,7 +6290,7 @@
         <v>486</v>
       </c>
       <c r="B488" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.25">
@@ -6292,7 +6298,7 @@
         <v>487</v>
       </c>
       <c r="B489" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.25">
@@ -6300,7 +6306,7 @@
         <v>488</v>
       </c>
       <c r="B490" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.25">
@@ -6308,7 +6314,7 @@
         <v>489</v>
       </c>
       <c r="B491" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.25">
@@ -6316,7 +6322,7 @@
         <v>490</v>
       </c>
       <c r="B492" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.25">
@@ -6324,7 +6330,7 @@
         <v>491</v>
       </c>
       <c r="B493" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.25">
@@ -6332,7 +6338,7 @@
         <v>492</v>
       </c>
       <c r="B494" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.25">
@@ -6340,7 +6346,7 @@
         <v>493</v>
       </c>
       <c r="B495" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.25">
@@ -6348,7 +6354,7 @@
         <v>494</v>
       </c>
       <c r="B496" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.25">
@@ -6356,7 +6362,7 @@
         <v>495</v>
       </c>
       <c r="B497" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.25">
@@ -6364,7 +6370,7 @@
         <v>496</v>
       </c>
       <c r="B498" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.25">
@@ -6372,7 +6378,7 @@
         <v>497</v>
       </c>
       <c r="B499" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.25">
@@ -6380,7 +6386,7 @@
         <v>498</v>
       </c>
       <c r="B500" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.25">
@@ -6388,7 +6394,7 @@
         <v>499</v>
       </c>
       <c r="B501" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="502" spans="1:2" x14ac:dyDescent="0.25">
@@ -6396,7 +6402,7 @@
         <v>500</v>
       </c>
       <c r="B502" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="503" spans="1:2" x14ac:dyDescent="0.25">
@@ -6404,7 +6410,7 @@
         <v>501</v>
       </c>
       <c r="B503" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.25">
@@ -6412,7 +6418,7 @@
         <v>502</v>
       </c>
       <c r="B504" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="505" spans="1:2" x14ac:dyDescent="0.25">
@@ -6420,7 +6426,7 @@
         <v>503</v>
       </c>
       <c r="B505" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.25">
@@ -6428,7 +6434,7 @@
         <v>504</v>
       </c>
       <c r="B506" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="507" spans="1:2" x14ac:dyDescent="0.25">
@@ -6436,7 +6442,7 @@
         <v>505</v>
       </c>
       <c r="B507" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="508" spans="1:2" x14ac:dyDescent="0.25">
@@ -6444,7 +6450,7 @@
         <v>506</v>
       </c>
       <c r="B508" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="509" spans="1:2" x14ac:dyDescent="0.25">
@@ -6452,7 +6458,7 @@
         <v>507</v>
       </c>
       <c r="B509" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="510" spans="1:2" x14ac:dyDescent="0.25">
@@ -6460,7 +6466,7 @@
         <v>508</v>
       </c>
       <c r="B510" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="511" spans="1:2" x14ac:dyDescent="0.25">
@@ -6468,7 +6474,7 @@
         <v>509</v>
       </c>
       <c r="B511" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="512" spans="1:2" x14ac:dyDescent="0.25">
@@ -6476,7 +6482,7 @@
         <v>510</v>
       </c>
       <c r="B512" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="513" spans="1:2" x14ac:dyDescent="0.25">
@@ -6484,7 +6490,7 @@
         <v>511</v>
       </c>
       <c r="B513" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="514" spans="1:2" x14ac:dyDescent="0.25">
@@ -6492,7 +6498,7 @@
         <v>512</v>
       </c>
       <c r="B514" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="515" spans="1:2" x14ac:dyDescent="0.25">
@@ -6500,7 +6506,7 @@
         <v>513</v>
       </c>
       <c r="B515" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="516" spans="1:2" x14ac:dyDescent="0.25">
@@ -6508,7 +6514,7 @@
         <v>514</v>
       </c>
       <c r="B516" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="517" spans="1:2" x14ac:dyDescent="0.25">
@@ -6516,7 +6522,7 @@
         <v>515</v>
       </c>
       <c r="B517" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="518" spans="1:2" x14ac:dyDescent="0.25">
@@ -6524,7 +6530,7 @@
         <v>516</v>
       </c>
       <c r="B518" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="519" spans="1:2" x14ac:dyDescent="0.25">
@@ -6532,7 +6538,7 @@
         <v>517</v>
       </c>
       <c r="B519" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="520" spans="1:2" x14ac:dyDescent="0.25">
@@ -6540,7 +6546,7 @@
         <v>518</v>
       </c>
       <c r="B520" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="521" spans="1:2" x14ac:dyDescent="0.25">
@@ -6548,7 +6554,7 @@
         <v>519</v>
       </c>
       <c r="B521" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="522" spans="1:2" x14ac:dyDescent="0.25">
@@ -6556,7 +6562,7 @@
         <v>520</v>
       </c>
       <c r="B522" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="523" spans="1:2" x14ac:dyDescent="0.25">
@@ -6564,7 +6570,7 @@
         <v>521</v>
       </c>
       <c r="B523" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="524" spans="1:2" x14ac:dyDescent="0.25">
@@ -6572,7 +6578,7 @@
         <v>522</v>
       </c>
       <c r="B524" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="525" spans="1:2" x14ac:dyDescent="0.25">
@@ -6580,7 +6586,7 @@
         <v>523</v>
       </c>
       <c r="B525" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="526" spans="1:2" x14ac:dyDescent="0.25">
@@ -6588,7 +6594,7 @@
         <v>524</v>
       </c>
       <c r="B526" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="527" spans="1:2" x14ac:dyDescent="0.25">
@@ -6596,7 +6602,7 @@
         <v>525</v>
       </c>
       <c r="B527" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="528" spans="1:2" x14ac:dyDescent="0.25">
@@ -6604,7 +6610,7 @@
         <v>526</v>
       </c>
       <c r="B528" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="529" spans="1:2" x14ac:dyDescent="0.25">
@@ -6612,7 +6618,7 @@
         <v>527</v>
       </c>
       <c r="B529" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="530" spans="1:2" x14ac:dyDescent="0.25">
@@ -6620,7 +6626,7 @@
         <v>528</v>
       </c>
       <c r="B530" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="531" spans="1:2" x14ac:dyDescent="0.25">
@@ -6628,7 +6634,7 @@
         <v>529</v>
       </c>
       <c r="B531" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="532" spans="1:2" x14ac:dyDescent="0.25">
@@ -6636,7 +6642,7 @@
         <v>530</v>
       </c>
       <c r="B532" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="533" spans="1:2" x14ac:dyDescent="0.25">
@@ -6644,7 +6650,7 @@
         <v>531</v>
       </c>
       <c r="B533" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="534" spans="1:2" x14ac:dyDescent="0.25">
@@ -6652,7 +6658,7 @@
         <v>532</v>
       </c>
       <c r="B534" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="535" spans="1:2" x14ac:dyDescent="0.25">
@@ -6660,7 +6666,7 @@
         <v>533</v>
       </c>
       <c r="B535" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="536" spans="1:2" x14ac:dyDescent="0.25">
@@ -6668,7 +6674,7 @@
         <v>534</v>
       </c>
       <c r="B536" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="537" spans="1:2" x14ac:dyDescent="0.25">
@@ -6676,7 +6682,7 @@
         <v>535</v>
       </c>
       <c r="B537" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="538" spans="1:2" x14ac:dyDescent="0.25">
@@ -6684,7 +6690,7 @@
         <v>536</v>
       </c>
       <c r="B538" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="539" spans="1:2" x14ac:dyDescent="0.25">
@@ -6692,7 +6698,7 @@
         <v>537</v>
       </c>
       <c r="B539" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="540" spans="1:2" x14ac:dyDescent="0.25">
@@ -6700,7 +6706,7 @@
         <v>538</v>
       </c>
       <c r="B540" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="541" spans="1:2" x14ac:dyDescent="0.25">
@@ -6708,7 +6714,7 @@
         <v>539</v>
       </c>
       <c r="B541" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="542" spans="1:2" x14ac:dyDescent="0.25">
@@ -6716,7 +6722,7 @@
         <v>540</v>
       </c>
       <c r="B542" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="543" spans="1:2" x14ac:dyDescent="0.25">
@@ -6724,7 +6730,7 @@
         <v>541</v>
       </c>
       <c r="B543" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="544" spans="1:2" x14ac:dyDescent="0.25">
@@ -6732,7 +6738,7 @@
         <v>542</v>
       </c>
       <c r="B544" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="545" spans="1:2" x14ac:dyDescent="0.25">
@@ -6740,7 +6746,7 @@
         <v>543</v>
       </c>
       <c r="B545" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="546" spans="1:2" x14ac:dyDescent="0.25">
@@ -6748,7 +6754,7 @@
         <v>544</v>
       </c>
       <c r="B546" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="547" spans="1:2" x14ac:dyDescent="0.25">
@@ -6756,7 +6762,7 @@
         <v>545</v>
       </c>
       <c r="B547" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="548" spans="1:2" x14ac:dyDescent="0.25">
@@ -6764,7 +6770,7 @@
         <v>546</v>
       </c>
       <c r="B548" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="549" spans="1:2" x14ac:dyDescent="0.25">
@@ -6772,7 +6778,7 @@
         <v>547</v>
       </c>
       <c r="B549" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="550" spans="1:2" x14ac:dyDescent="0.25">
@@ -6780,7 +6786,7 @@
         <v>548</v>
       </c>
       <c r="B550" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="551" spans="1:2" x14ac:dyDescent="0.25">
@@ -6788,7 +6794,7 @@
         <v>549</v>
       </c>
       <c r="B551" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="552" spans="1:2" x14ac:dyDescent="0.25">
@@ -6796,7 +6802,7 @@
         <v>550</v>
       </c>
       <c r="B552" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="553" spans="1:2" x14ac:dyDescent="0.25">
@@ -6804,7 +6810,7 @@
         <v>551</v>
       </c>
       <c r="B553" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="554" spans="1:2" x14ac:dyDescent="0.25">
@@ -6812,7 +6818,7 @@
         <v>552</v>
       </c>
       <c r="B554" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="555" spans="1:2" x14ac:dyDescent="0.25">
@@ -6820,7 +6826,7 @@
         <v>553</v>
       </c>
       <c r="B555" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="556" spans="1:2" x14ac:dyDescent="0.25">
@@ -6828,7 +6834,7 @@
         <v>554</v>
       </c>
       <c r="B556" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="557" spans="1:2" x14ac:dyDescent="0.25">
@@ -6836,7 +6842,7 @@
         <v>555</v>
       </c>
       <c r="B557" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="558" spans="1:2" x14ac:dyDescent="0.25">
@@ -6844,7 +6850,7 @@
         <v>556</v>
       </c>
       <c r="B558" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="559" spans="1:2" x14ac:dyDescent="0.25">
@@ -6852,7 +6858,7 @@
         <v>557</v>
       </c>
       <c r="B559" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="560" spans="1:2" x14ac:dyDescent="0.25">
@@ -6860,7 +6866,7 @@
         <v>558</v>
       </c>
       <c r="B560" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="561" spans="1:2" x14ac:dyDescent="0.25">
@@ -6868,7 +6874,7 @@
         <v>559</v>
       </c>
       <c r="B561" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="562" spans="1:2" x14ac:dyDescent="0.25">
@@ -6876,7 +6882,7 @@
         <v>560</v>
       </c>
       <c r="B562" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="563" spans="1:2" x14ac:dyDescent="0.25">
@@ -6884,7 +6890,7 @@
         <v>561</v>
       </c>
       <c r="B563" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="564" spans="1:2" x14ac:dyDescent="0.25">
@@ -6892,7 +6898,7 @@
         <v>562</v>
       </c>
       <c r="B564" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="565" spans="1:2" x14ac:dyDescent="0.25">
@@ -6900,7 +6906,7 @@
         <v>563</v>
       </c>
       <c r="B565" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="566" spans="1:2" x14ac:dyDescent="0.25">
@@ -6908,7 +6914,7 @@
         <v>564</v>
       </c>
       <c r="B566" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="567" spans="1:2" x14ac:dyDescent="0.25">
@@ -6916,7 +6922,7 @@
         <v>565</v>
       </c>
       <c r="B567" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="568" spans="1:2" x14ac:dyDescent="0.25">
@@ -6924,7 +6930,7 @@
         <v>566</v>
       </c>
       <c r="B568" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="569" spans="1:2" x14ac:dyDescent="0.25">
@@ -6932,7 +6938,7 @@
         <v>567</v>
       </c>
       <c r="B569" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="570" spans="1:2" x14ac:dyDescent="0.25">
@@ -6940,7 +6946,7 @@
         <v>568</v>
       </c>
       <c r="B570" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="571" spans="1:2" x14ac:dyDescent="0.25">
@@ -6948,7 +6954,7 @@
         <v>569</v>
       </c>
       <c r="B571" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="572" spans="1:2" x14ac:dyDescent="0.25">
@@ -6956,7 +6962,7 @@
         <v>570</v>
       </c>
       <c r="B572" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="573" spans="1:2" x14ac:dyDescent="0.25">
@@ -6964,7 +6970,7 @@
         <v>571</v>
       </c>
       <c r="B573" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="574" spans="1:2" x14ac:dyDescent="0.25">
@@ -6972,7 +6978,7 @@
         <v>572</v>
       </c>
       <c r="B574" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="575" spans="1:2" x14ac:dyDescent="0.25">
@@ -6980,7 +6986,7 @@
         <v>573</v>
       </c>
       <c r="B575" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="576" spans="1:2" x14ac:dyDescent="0.25">
@@ -6988,7 +6994,7 @@
         <v>574</v>
       </c>
       <c r="B576" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="577" spans="1:2" x14ac:dyDescent="0.25">
@@ -6996,7 +7002,7 @@
         <v>575</v>
       </c>
       <c r="B577" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="578" spans="1:2" x14ac:dyDescent="0.25">
@@ -7004,7 +7010,7 @@
         <v>576</v>
       </c>
       <c r="B578" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="579" spans="1:2" x14ac:dyDescent="0.25">
@@ -7012,7 +7018,7 @@
         <v>577</v>
       </c>
       <c r="B579" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="580" spans="1:2" x14ac:dyDescent="0.25">
@@ -7020,7 +7026,7 @@
         <v>578</v>
       </c>
       <c r="B580" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="581" spans="1:2" x14ac:dyDescent="0.25">
@@ -7028,7 +7034,7 @@
         <v>579</v>
       </c>
       <c r="B581" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="582" spans="1:2" x14ac:dyDescent="0.25">
@@ -7036,7 +7042,7 @@
         <v>580</v>
       </c>
       <c r="B582" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="583" spans="1:2" x14ac:dyDescent="0.25">
@@ -7044,7 +7050,7 @@
         <v>581</v>
       </c>
       <c r="B583" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="584" spans="1:2" x14ac:dyDescent="0.25">
@@ -7052,7 +7058,7 @@
         <v>582</v>
       </c>
       <c r="B584" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="585" spans="1:2" x14ac:dyDescent="0.25">
@@ -7060,7 +7066,7 @@
         <v>583</v>
       </c>
       <c r="B585" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="586" spans="1:2" x14ac:dyDescent="0.25">
@@ -7068,7 +7074,7 @@
         <v>584</v>
       </c>
       <c r="B586" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="587" spans="1:2" x14ac:dyDescent="0.25">
@@ -7076,7 +7082,7 @@
         <v>585</v>
       </c>
       <c r="B587" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="588" spans="1:2" x14ac:dyDescent="0.25">
@@ -7084,7 +7090,7 @@
         <v>586</v>
       </c>
       <c r="B588" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="589" spans="1:2" x14ac:dyDescent="0.25">
@@ -7092,7 +7098,7 @@
         <v>587</v>
       </c>
       <c r="B589" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="590" spans="1:2" x14ac:dyDescent="0.25">
@@ -7100,7 +7106,7 @@
         <v>588</v>
       </c>
       <c r="B590" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="591" spans="1:2" x14ac:dyDescent="0.25">
@@ -7108,7 +7114,7 @@
         <v>589</v>
       </c>
       <c r="B591" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="592" spans="1:2" x14ac:dyDescent="0.25">
@@ -7116,7 +7122,7 @@
         <v>590</v>
       </c>
       <c r="B592" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="593" spans="1:2" x14ac:dyDescent="0.25">
@@ -7124,7 +7130,7 @@
         <v>591</v>
       </c>
       <c r="B593" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="594" spans="1:2" x14ac:dyDescent="0.25">
@@ -7132,7 +7138,7 @@
         <v>592</v>
       </c>
       <c r="B594" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="595" spans="1:2" x14ac:dyDescent="0.25">
@@ -7140,7 +7146,7 @@
         <v>593</v>
       </c>
       <c r="B595" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="596" spans="1:2" x14ac:dyDescent="0.25">
@@ -7148,7 +7154,7 @@
         <v>594</v>
       </c>
       <c r="B596" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="597" spans="1:2" x14ac:dyDescent="0.25">
@@ -7156,7 +7162,7 @@
         <v>595</v>
       </c>
       <c r="B597" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="598" spans="1:2" x14ac:dyDescent="0.25">
@@ -7164,7 +7170,7 @@
         <v>596</v>
       </c>
       <c r="B598" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="599" spans="1:2" x14ac:dyDescent="0.25">
@@ -7172,7 +7178,7 @@
         <v>597</v>
       </c>
       <c r="B599" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="600" spans="1:2" x14ac:dyDescent="0.25">
@@ -7180,7 +7186,7 @@
         <v>598</v>
       </c>
       <c r="B600" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="601" spans="1:2" x14ac:dyDescent="0.25">
@@ -7188,7 +7194,7 @@
         <v>599</v>
       </c>
       <c r="B601" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="602" spans="1:2" x14ac:dyDescent="0.25">
@@ -7196,7 +7202,7 @@
         <v>600</v>
       </c>
       <c r="B602" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="603" spans="1:2" x14ac:dyDescent="0.25">
@@ -7204,7 +7210,7 @@
         <v>601</v>
       </c>
       <c r="B603" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="604" spans="1:2" x14ac:dyDescent="0.25">
@@ -7212,7 +7218,7 @@
         <v>602</v>
       </c>
       <c r="B604" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="605" spans="1:2" x14ac:dyDescent="0.25">
@@ -7220,7 +7226,7 @@
         <v>603</v>
       </c>
       <c r="B605" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="606" spans="1:2" x14ac:dyDescent="0.25">
@@ -7228,7 +7234,7 @@
         <v>604</v>
       </c>
       <c r="B606" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="607" spans="1:2" x14ac:dyDescent="0.25">
@@ -7236,7 +7242,7 @@
         <v>605</v>
       </c>
       <c r="B607" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="608" spans="1:2" x14ac:dyDescent="0.25">
@@ -7244,7 +7250,7 @@
         <v>606</v>
       </c>
       <c r="B608" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="609" spans="1:2" x14ac:dyDescent="0.25">
@@ -7252,7 +7258,7 @@
         <v>607</v>
       </c>
       <c r="B609" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="610" spans="1:2" x14ac:dyDescent="0.25">
@@ -7260,7 +7266,7 @@
         <v>608</v>
       </c>
       <c r="B610" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="611" spans="1:2" x14ac:dyDescent="0.25">
@@ -7268,7 +7274,7 @@
         <v>609</v>
       </c>
       <c r="B611" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="612" spans="1:2" x14ac:dyDescent="0.25">
@@ -7276,7 +7282,7 @@
         <v>610</v>
       </c>
       <c r="B612" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="613" spans="1:2" x14ac:dyDescent="0.25">
@@ -7284,7 +7290,7 @@
         <v>611</v>
       </c>
       <c r="B613" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="614" spans="1:2" x14ac:dyDescent="0.25">
@@ -7292,7 +7298,7 @@
         <v>612</v>
       </c>
       <c r="B614" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="615" spans="1:2" x14ac:dyDescent="0.25">
@@ -7300,7 +7306,7 @@
         <v>613</v>
       </c>
       <c r="B615" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="616" spans="1:2" x14ac:dyDescent="0.25">
@@ -7308,7 +7314,7 @@
         <v>614</v>
       </c>
       <c r="B616" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="617" spans="1:2" x14ac:dyDescent="0.25">
@@ -7316,7 +7322,7 @@
         <v>615</v>
       </c>
       <c r="B617" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="618" spans="1:2" x14ac:dyDescent="0.25">
@@ -7324,7 +7330,7 @@
         <v>616</v>
       </c>
       <c r="B618" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="619" spans="1:2" x14ac:dyDescent="0.25">
@@ -7332,7 +7338,7 @@
         <v>617</v>
       </c>
       <c r="B619" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="620" spans="1:2" x14ac:dyDescent="0.25">
@@ -7340,7 +7346,7 @@
         <v>618</v>
       </c>
       <c r="B620" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="621" spans="1:2" x14ac:dyDescent="0.25">
@@ -7348,7 +7354,7 @@
         <v>619</v>
       </c>
       <c r="B621" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="622" spans="1:2" x14ac:dyDescent="0.25">
@@ -7356,7 +7362,7 @@
         <v>620</v>
       </c>
       <c r="B622" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="623" spans="1:2" x14ac:dyDescent="0.25">
@@ -7364,7 +7370,7 @@
         <v>621</v>
       </c>
       <c r="B623" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="624" spans="1:2" x14ac:dyDescent="0.25">
@@ -7372,7 +7378,7 @@
         <v>622</v>
       </c>
       <c r="B624" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="625" spans="1:2" x14ac:dyDescent="0.25">
@@ -7380,7 +7386,7 @@
         <v>623</v>
       </c>
       <c r="B625" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="626" spans="1:2" x14ac:dyDescent="0.25">
@@ -7388,7 +7394,7 @@
         <v>624</v>
       </c>
       <c r="B626" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="627" spans="1:2" x14ac:dyDescent="0.25">
@@ -7396,7 +7402,7 @@
         <v>625</v>
       </c>
       <c r="B627" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="628" spans="1:2" x14ac:dyDescent="0.25">
@@ -7404,7 +7410,7 @@
         <v>626</v>
       </c>
       <c r="B628" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="629" spans="1:2" x14ac:dyDescent="0.25">
@@ -7412,7 +7418,7 @@
         <v>627</v>
       </c>
       <c r="B629" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="630" spans="1:2" x14ac:dyDescent="0.25">
@@ -7420,7 +7426,7 @@
         <v>628</v>
       </c>
       <c r="B630" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="631" spans="1:2" x14ac:dyDescent="0.25">
@@ -7428,7 +7434,7 @@
         <v>629</v>
       </c>
       <c r="B631" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="632" spans="1:2" x14ac:dyDescent="0.25">
@@ -7436,7 +7442,7 @@
         <v>630</v>
       </c>
       <c r="B632" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
     </row>
     <row r="633" spans="1:2" x14ac:dyDescent="0.25">
@@ -7444,7 +7450,7 @@
         <v>631</v>
       </c>
       <c r="B633" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="634" spans="1:2" x14ac:dyDescent="0.25">
@@ -7452,7 +7458,7 @@
         <v>632</v>
       </c>
       <c r="B634" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="635" spans="1:2" x14ac:dyDescent="0.25">
@@ -7460,7 +7466,7 @@
         <v>633</v>
       </c>
       <c r="B635" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
     </row>
     <row r="636" spans="1:2" x14ac:dyDescent="0.25">
@@ -7468,7 +7474,7 @@
         <v>634</v>
       </c>
       <c r="B636" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
     </row>
     <row r="637" spans="1:2" x14ac:dyDescent="0.25">
@@ -7476,7 +7482,7 @@
         <v>635</v>
       </c>
       <c r="B637" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="638" spans="1:2" x14ac:dyDescent="0.25">
@@ -7484,7 +7490,7 @@
         <v>636</v>
       </c>
       <c r="B638" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="639" spans="1:2" x14ac:dyDescent="0.25">
@@ -7492,7 +7498,7 @@
         <v>637</v>
       </c>
       <c r="B639" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="640" spans="1:2" x14ac:dyDescent="0.25">
@@ -7500,7 +7506,7 @@
         <v>638</v>
       </c>
       <c r="B640" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="641" spans="1:2" x14ac:dyDescent="0.25">
@@ -7508,7 +7514,7 @@
         <v>639</v>
       </c>
       <c r="B641" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="642" spans="1:2" x14ac:dyDescent="0.25">
@@ -7516,7 +7522,7 @@
         <v>640</v>
       </c>
       <c r="B642" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="643" spans="1:2" x14ac:dyDescent="0.25">
@@ -7524,7 +7530,7 @@
         <v>641</v>
       </c>
       <c r="B643" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="644" spans="1:2" x14ac:dyDescent="0.25">
@@ -7532,7 +7538,7 @@
         <v>642</v>
       </c>
       <c r="B644" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="645" spans="1:2" x14ac:dyDescent="0.25">
@@ -7540,7 +7546,7 @@
         <v>643</v>
       </c>
       <c r="B645" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="646" spans="1:2" x14ac:dyDescent="0.25">
@@ -7548,7 +7554,7 @@
         <v>644</v>
       </c>
       <c r="B646" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="647" spans="1:2" x14ac:dyDescent="0.25">
@@ -7556,7 +7562,7 @@
         <v>645</v>
       </c>
       <c r="B647" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="648" spans="1:2" x14ac:dyDescent="0.25">
@@ -7564,7 +7570,7 @@
         <v>646</v>
       </c>
       <c r="B648" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="649" spans="1:2" x14ac:dyDescent="0.25">
@@ -7572,7 +7578,7 @@
         <v>647</v>
       </c>
       <c r="B649" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="650" spans="1:2" x14ac:dyDescent="0.25">
@@ -7580,7 +7586,7 @@
         <v>648</v>
       </c>
       <c r="B650" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="651" spans="1:2" x14ac:dyDescent="0.25">
@@ -7588,7 +7594,7 @@
         <v>649</v>
       </c>
       <c r="B651" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
     </row>
     <row r="652" spans="1:2" x14ac:dyDescent="0.25">
@@ -7596,7 +7602,7 @@
         <v>650</v>
       </c>
       <c r="B652" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="653" spans="1:2" x14ac:dyDescent="0.25">
@@ -7604,7 +7610,7 @@
         <v>651</v>
       </c>
       <c r="B653" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
     </row>
     <row r="654" spans="1:2" x14ac:dyDescent="0.25">
@@ -7612,7 +7618,7 @@
         <v>652</v>
       </c>
       <c r="B654" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
     </row>
     <row r="655" spans="1:2" x14ac:dyDescent="0.25">
@@ -7620,7 +7626,7 @@
         <v>653</v>
       </c>
       <c r="B655" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
     </row>
     <row r="656" spans="1:2" x14ac:dyDescent="0.25">
@@ -7628,7 +7634,7 @@
         <v>654</v>
       </c>
       <c r="B656" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
     </row>
     <row r="657" spans="1:2" x14ac:dyDescent="0.25">
@@ -7636,7 +7642,7 @@
         <v>655</v>
       </c>
       <c r="B657" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
     </row>
     <row r="658" spans="1:2" x14ac:dyDescent="0.25">
@@ -7644,7 +7650,7 @@
         <v>656</v>
       </c>
       <c r="B658" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="659" spans="1:2" x14ac:dyDescent="0.25">
@@ -7652,7 +7658,7 @@
         <v>657</v>
       </c>
       <c r="B659" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="660" spans="1:2" x14ac:dyDescent="0.25">
@@ -7660,7 +7666,7 @@
         <v>658</v>
       </c>
       <c r="B660" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="661" spans="1:2" x14ac:dyDescent="0.25">
@@ -7668,7 +7674,7 @@
         <v>659</v>
       </c>
       <c r="B661" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
     </row>
     <row r="662" spans="1:2" x14ac:dyDescent="0.25">
@@ -7676,7 +7682,7 @@
         <v>660</v>
       </c>
       <c r="B662" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="663" spans="1:2" x14ac:dyDescent="0.25">
@@ -7684,7 +7690,7 @@
         <v>661</v>
       </c>
       <c r="B663" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
     <row r="664" spans="1:2" x14ac:dyDescent="0.25">
@@ -7692,7 +7698,7 @@
         <v>662</v>
       </c>
       <c r="B664" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Pokname.xlsx
+++ b/Data/Pokname.xlsx
@@ -1,30 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="665">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="664">
   <si>
     <t>Name</t>
-  </si>
-  <si>
-    <t>Pokemon</t>
   </si>
   <si>
     <t>Bulbasaur</t>
@@ -2019,8 +2011,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2079,25 +2071,17 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2135,9 +2119,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2169,10 +2153,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2204,10 +2187,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2380,5325 +2362,5320 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C664"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B664"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A642" workbookViewId="0">
-      <selection activeCell="N656" sqref="N656"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
       <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
       <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
       <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
       <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
       <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
       <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
       <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
       <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
       <c r="A50" s="1">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
       <c r="A51" s="1">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
       <c r="A52" s="1">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
       <c r="A53" s="1">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
       <c r="A54" s="1">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
       <c r="A55" s="1">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
       <c r="A56" s="1">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
       <c r="A57" s="1">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
       <c r="A58" s="1">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
       <c r="A59" s="1">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
       <c r="A60" s="1">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
       <c r="A61" s="1">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
       <c r="A62" s="1">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
       <c r="A63" s="1">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
       <c r="A64" s="1">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
       <c r="A65" s="1">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
       <c r="A66" s="1">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
       <c r="A67" s="1">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
       <c r="A68" s="1">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
       <c r="A69" s="1">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
       <c r="A70" s="1">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
       <c r="A71" s="1">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
       <c r="A72" s="1">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
       <c r="A73" s="1">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
       <c r="A74" s="1">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
       <c r="A75" s="1">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
       <c r="A76" s="1">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
       <c r="A77" s="1">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
       <c r="A78" s="1">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
       <c r="A79" s="1">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
       <c r="A80" s="1">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
       <c r="A81" s="1">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
       <c r="A82" s="1">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
       <c r="A83" s="1">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
       <c r="A84" s="1">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
       <c r="A85" s="1">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
       <c r="A86" s="1">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
       <c r="A87" s="1">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
       <c r="A88" s="1">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
       <c r="A89" s="1">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
       <c r="A90" s="1">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
       <c r="A91" s="1">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
       <c r="A92" s="1">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
       <c r="A93" s="1">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
       <c r="A94" s="1">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
       <c r="A95" s="1">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
       <c r="A96" s="1">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
       <c r="A97" s="1">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
       <c r="A98" s="1">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
       <c r="A99" s="1">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
       <c r="A100" s="1">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
       <c r="A101" s="1">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
       <c r="A102" s="1">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
       <c r="A103" s="1">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
       <c r="A104" s="1">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
       <c r="A105" s="1">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
       <c r="A106" s="1">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
       <c r="A107" s="1">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
       <c r="A108" s="1">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
       <c r="A109" s="1">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
       <c r="A110" s="1">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
       <c r="A111" s="1">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
       <c r="A112" s="1">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
       <c r="A113" s="1">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
       <c r="A114" s="1">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
       <c r="A115" s="1">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
       <c r="A116" s="1">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
       <c r="A117" s="1">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
       <c r="A118" s="1">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
       <c r="A119" s="1">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
       <c r="A120" s="1">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
       <c r="A121" s="1">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
       <c r="A122" s="1">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
       <c r="A123" s="1">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
       <c r="A124" s="1">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
       <c r="A125" s="1">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
       <c r="A126" s="1">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
       <c r="A127" s="1">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
       <c r="A128" s="1">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
       <c r="A129" s="1">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
       <c r="A130" s="1">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
       <c r="A131" s="1">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
       <c r="A132" s="1">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
       <c r="A133" s="1">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
       <c r="A134" s="1">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
       <c r="A135" s="1">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
       <c r="A136" s="1">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
       <c r="A137" s="1">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
       <c r="A138" s="1">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
       <c r="A139" s="1">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
       <c r="A140" s="1">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
       <c r="A141" s="1">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
       <c r="A142" s="1">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
       <c r="A143" s="1">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
       <c r="A144" s="1">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
       <c r="A145" s="1">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
       <c r="A146" s="1">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
       <c r="A147" s="1">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
       <c r="A148" s="1">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
       <c r="A149" s="1">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
       <c r="A150" s="1">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
       <c r="A151" s="1">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2">
       <c r="A152" s="1">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
       <c r="A153" s="1">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2">
       <c r="A154" s="1">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2">
       <c r="A155" s="1">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2">
       <c r="A156" s="1">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2">
       <c r="A157" s="1">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2">
       <c r="A158" s="1">
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2">
       <c r="A159" s="1">
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2">
       <c r="A160" s="1">
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2">
       <c r="A161" s="1">
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2">
       <c r="A162" s="1">
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2">
       <c r="A163" s="1">
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2">
       <c r="A164" s="1">
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2">
       <c r="A165" s="1">
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2">
       <c r="A166" s="1">
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2">
       <c r="A167" s="1">
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2">
       <c r="A168" s="1">
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2">
       <c r="A169" s="1">
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2">
       <c r="A170" s="1">
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2">
       <c r="A171" s="1">
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2">
       <c r="A172" s="1">
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2">
       <c r="A173" s="1">
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2">
       <c r="A174" s="1">
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2">
       <c r="A175" s="1">
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2">
       <c r="A176" s="1">
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2">
       <c r="A177" s="1">
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2">
       <c r="A178" s="1">
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2">
       <c r="A179" s="1">
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2">
       <c r="A180" s="1">
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2">
       <c r="A181" s="1">
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2">
       <c r="A182" s="1">
         <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2">
       <c r="A183" s="1">
         <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2">
       <c r="A184" s="1">
         <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2">
       <c r="A185" s="1">
         <v>183</v>
       </c>
       <c r="B185" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2">
       <c r="A186" s="1">
         <v>184</v>
       </c>
       <c r="B186" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2">
       <c r="A187" s="1">
         <v>185</v>
       </c>
       <c r="B187" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2">
       <c r="A188" s="1">
         <v>186</v>
       </c>
       <c r="B188" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2">
       <c r="A189" s="1">
         <v>187</v>
       </c>
       <c r="B189" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2">
       <c r="A190" s="1">
         <v>188</v>
       </c>
       <c r="B190" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2">
       <c r="A191" s="1">
         <v>189</v>
       </c>
       <c r="B191" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2">
       <c r="A192" s="1">
         <v>190</v>
       </c>
       <c r="B192" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2">
       <c r="A193" s="1">
         <v>191</v>
       </c>
       <c r="B193" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2">
       <c r="A194" s="1">
         <v>192</v>
       </c>
       <c r="B194" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2">
       <c r="A195" s="1">
         <v>193</v>
       </c>
       <c r="B195" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2">
       <c r="A196" s="1">
         <v>194</v>
       </c>
       <c r="B196" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2">
       <c r="A197" s="1">
         <v>195</v>
       </c>
       <c r="B197" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2">
       <c r="A198" s="1">
         <v>196</v>
       </c>
       <c r="B198" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2">
       <c r="A199" s="1">
         <v>197</v>
       </c>
       <c r="B199" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2">
       <c r="A200" s="1">
         <v>198</v>
       </c>
       <c r="B200" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2">
       <c r="A201" s="1">
         <v>199</v>
       </c>
       <c r="B201" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2">
       <c r="A202" s="1">
         <v>200</v>
       </c>
       <c r="B202" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2">
       <c r="A203" s="1">
         <v>201</v>
       </c>
       <c r="B203" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2">
       <c r="A204" s="1">
         <v>202</v>
       </c>
       <c r="B204" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2">
       <c r="A205" s="1">
         <v>203</v>
       </c>
       <c r="B205" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2">
       <c r="A206" s="1">
         <v>204</v>
       </c>
       <c r="B206" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2">
       <c r="A207" s="1">
         <v>205</v>
       </c>
       <c r="B207" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2">
       <c r="A208" s="1">
         <v>206</v>
       </c>
       <c r="B208" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2">
       <c r="A209" s="1">
         <v>207</v>
       </c>
       <c r="B209" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2">
       <c r="A210" s="1">
         <v>208</v>
       </c>
       <c r="B210" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2">
       <c r="A211" s="1">
         <v>209</v>
       </c>
       <c r="B211" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2">
       <c r="A212" s="1">
         <v>210</v>
       </c>
       <c r="B212" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2">
       <c r="A213" s="1">
         <v>211</v>
       </c>
       <c r="B213" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2">
       <c r="A214" s="1">
         <v>212</v>
       </c>
       <c r="B214" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2">
       <c r="A215" s="1">
         <v>213</v>
       </c>
       <c r="B215" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2">
       <c r="A216" s="1">
         <v>214</v>
       </c>
       <c r="B216" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2">
       <c r="A217" s="1">
         <v>215</v>
       </c>
       <c r="B217" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2">
       <c r="A218" s="1">
         <v>216</v>
       </c>
       <c r="B218" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2">
       <c r="A219" s="1">
         <v>217</v>
       </c>
       <c r="B219" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2">
       <c r="A220" s="1">
         <v>218</v>
       </c>
       <c r="B220" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2">
       <c r="A221" s="1">
         <v>219</v>
       </c>
       <c r="B221" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2">
       <c r="A222" s="1">
         <v>220</v>
       </c>
       <c r="B222" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2">
       <c r="A223" s="1">
         <v>221</v>
       </c>
       <c r="B223" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2">
       <c r="A224" s="1">
         <v>222</v>
       </c>
       <c r="B224" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2">
       <c r="A225" s="1">
         <v>223</v>
       </c>
       <c r="B225" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2">
       <c r="A226" s="1">
         <v>224</v>
       </c>
       <c r="B226" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2">
       <c r="A227" s="1">
         <v>225</v>
       </c>
       <c r="B227" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2">
       <c r="A228" s="1">
         <v>226</v>
       </c>
       <c r="B228" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2">
       <c r="A229" s="1">
         <v>227</v>
       </c>
       <c r="B229" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2">
       <c r="A230" s="1">
         <v>228</v>
       </c>
       <c r="B230" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2">
       <c r="A231" s="1">
         <v>229</v>
       </c>
       <c r="B231" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2">
       <c r="A232" s="1">
         <v>230</v>
       </c>
       <c r="B232" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2">
       <c r="A233" s="1">
         <v>231</v>
       </c>
       <c r="B233" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2">
       <c r="A234" s="1">
         <v>232</v>
       </c>
       <c r="B234" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2">
       <c r="A235" s="1">
         <v>233</v>
       </c>
       <c r="B235" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2">
       <c r="A236" s="1">
         <v>234</v>
       </c>
       <c r="B236" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2">
       <c r="A237" s="1">
         <v>235</v>
       </c>
       <c r="B237" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2">
       <c r="A238" s="1">
         <v>236</v>
       </c>
       <c r="B238" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2">
       <c r="A239" s="1">
         <v>237</v>
       </c>
       <c r="B239" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2">
       <c r="A240" s="1">
         <v>238</v>
       </c>
       <c r="B240" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2">
       <c r="A241" s="1">
         <v>239</v>
       </c>
       <c r="B241" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2">
       <c r="A242" s="1">
         <v>240</v>
       </c>
       <c r="B242" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2">
       <c r="A243" s="1">
         <v>241</v>
       </c>
       <c r="B243" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2">
       <c r="A244" s="1">
         <v>242</v>
       </c>
       <c r="B244" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2">
       <c r="A245" s="1">
         <v>243</v>
       </c>
       <c r="B245" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2">
       <c r="A246" s="1">
         <v>244</v>
       </c>
       <c r="B246" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2">
       <c r="A247" s="1">
         <v>245</v>
       </c>
       <c r="B247" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2">
       <c r="A248" s="1">
         <v>246</v>
       </c>
       <c r="B248" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2">
       <c r="A249" s="1">
         <v>247</v>
       </c>
       <c r="B249" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2">
       <c r="A250" s="1">
         <v>248</v>
       </c>
       <c r="B250" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2">
       <c r="A251" s="1">
         <v>249</v>
       </c>
       <c r="B251" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2">
       <c r="A252" s="1">
         <v>250</v>
       </c>
       <c r="B252" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2">
       <c r="A253" s="1">
         <v>251</v>
       </c>
       <c r="B253" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2">
       <c r="A254" s="1">
         <v>252</v>
       </c>
       <c r="B254" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2">
       <c r="A255" s="1">
         <v>253</v>
       </c>
       <c r="B255" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2">
       <c r="A256" s="1">
         <v>254</v>
       </c>
       <c r="B256" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2">
       <c r="A257" s="1">
         <v>255</v>
       </c>
       <c r="B257" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2">
       <c r="A258" s="1">
         <v>256</v>
       </c>
       <c r="B258" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2">
       <c r="A259" s="1">
         <v>257</v>
       </c>
       <c r="B259" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2">
       <c r="A260" s="1">
         <v>258</v>
       </c>
       <c r="B260" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2">
       <c r="A261" s="1">
         <v>259</v>
       </c>
       <c r="B261" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2">
       <c r="A262" s="1">
         <v>260</v>
       </c>
       <c r="B262" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2">
       <c r="A263" s="1">
         <v>261</v>
       </c>
       <c r="B263" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2">
       <c r="A264" s="1">
         <v>262</v>
       </c>
       <c r="B264" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2">
       <c r="A265" s="1">
         <v>263</v>
       </c>
       <c r="B265" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2">
       <c r="A266" s="1">
         <v>264</v>
       </c>
       <c r="B266" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2">
       <c r="A267" s="1">
         <v>265</v>
       </c>
       <c r="B267" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2">
       <c r="A268" s="1">
         <v>266</v>
       </c>
       <c r="B268" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2">
       <c r="A269" s="1">
         <v>267</v>
       </c>
       <c r="B269" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2">
       <c r="A270" s="1">
         <v>268</v>
       </c>
       <c r="B270" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2">
       <c r="A271" s="1">
         <v>269</v>
       </c>
       <c r="B271" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2">
       <c r="A272" s="1">
         <v>270</v>
       </c>
       <c r="B272" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2">
       <c r="A273" s="1">
         <v>271</v>
       </c>
       <c r="B273" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2">
       <c r="A274" s="1">
         <v>272</v>
       </c>
       <c r="B274" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2">
       <c r="A275" s="1">
         <v>273</v>
       </c>
       <c r="B275" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2">
       <c r="A276" s="1">
         <v>274</v>
       </c>
       <c r="B276" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2">
       <c r="A277" s="1">
         <v>275</v>
       </c>
       <c r="B277" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2">
       <c r="A278" s="1">
         <v>276</v>
       </c>
       <c r="B278" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2">
       <c r="A279" s="1">
         <v>277</v>
       </c>
       <c r="B279" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2">
       <c r="A280" s="1">
         <v>278</v>
       </c>
       <c r="B280" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2">
       <c r="A281" s="1">
         <v>279</v>
       </c>
       <c r="B281" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2">
       <c r="A282" s="1">
         <v>280</v>
       </c>
       <c r="B282" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2">
       <c r="A283" s="1">
         <v>281</v>
       </c>
       <c r="B283" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2">
       <c r="A284" s="1">
         <v>282</v>
       </c>
       <c r="B284" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2">
       <c r="A285" s="1">
         <v>283</v>
       </c>
       <c r="B285" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2">
       <c r="A286" s="1">
         <v>284</v>
       </c>
       <c r="B286" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2">
       <c r="A287" s="1">
         <v>285</v>
       </c>
       <c r="B287" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2">
       <c r="A288" s="1">
         <v>286</v>
       </c>
       <c r="B288" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2">
       <c r="A289" s="1">
         <v>287</v>
       </c>
       <c r="B289" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2">
       <c r="A290" s="1">
         <v>288</v>
       </c>
       <c r="B290" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2">
       <c r="A291" s="1">
         <v>289</v>
       </c>
       <c r="B291" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2">
       <c r="A292" s="1">
         <v>290</v>
       </c>
       <c r="B292" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2">
       <c r="A293" s="1">
         <v>291</v>
       </c>
       <c r="B293" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2">
       <c r="A294" s="1">
         <v>292</v>
       </c>
       <c r="B294" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2">
       <c r="A295" s="1">
         <v>293</v>
       </c>
       <c r="B295" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2">
       <c r="A296" s="1">
         <v>294</v>
       </c>
       <c r="B296" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2">
       <c r="A297" s="1">
         <v>295</v>
       </c>
       <c r="B297" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2">
       <c r="A298" s="1">
         <v>296</v>
       </c>
       <c r="B298" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2">
       <c r="A299" s="1">
         <v>297</v>
       </c>
       <c r="B299" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2">
       <c r="A300" s="1">
         <v>298</v>
       </c>
       <c r="B300" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2">
       <c r="A301" s="1">
         <v>299</v>
       </c>
       <c r="B301" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2">
       <c r="A302" s="1">
         <v>300</v>
       </c>
       <c r="B302" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2">
       <c r="A303" s="1">
         <v>301</v>
       </c>
       <c r="B303" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2">
       <c r="A304" s="1">
         <v>302</v>
       </c>
       <c r="B304" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2">
       <c r="A305" s="1">
         <v>303</v>
       </c>
       <c r="B305" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2">
       <c r="A306" s="1">
         <v>304</v>
       </c>
       <c r="B306" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2">
       <c r="A307" s="1">
         <v>305</v>
       </c>
       <c r="B307" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2">
       <c r="A308" s="1">
         <v>306</v>
       </c>
       <c r="B308" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2">
       <c r="A309" s="1">
         <v>307</v>
       </c>
       <c r="B309" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2">
       <c r="A310" s="1">
         <v>308</v>
       </c>
       <c r="B310" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2">
       <c r="A311" s="1">
         <v>309</v>
       </c>
       <c r="B311" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2">
       <c r="A312" s="1">
         <v>310</v>
       </c>
       <c r="B312" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2">
       <c r="A313" s="1">
         <v>311</v>
       </c>
       <c r="B313" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2">
       <c r="A314" s="1">
         <v>312</v>
       </c>
       <c r="B314" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2">
       <c r="A315" s="1">
         <v>313</v>
       </c>
       <c r="B315" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2">
       <c r="A316" s="1">
         <v>314</v>
       </c>
       <c r="B316" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2">
       <c r="A317" s="1">
         <v>315</v>
       </c>
       <c r="B317" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2">
       <c r="A318" s="1">
         <v>316</v>
       </c>
       <c r="B318" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2">
       <c r="A319" s="1">
         <v>317</v>
       </c>
       <c r="B319" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2">
       <c r="A320" s="1">
         <v>318</v>
       </c>
       <c r="B320" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2">
       <c r="A321" s="1">
         <v>319</v>
       </c>
       <c r="B321" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2">
       <c r="A322" s="1">
         <v>320</v>
       </c>
       <c r="B322" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2">
       <c r="A323" s="1">
         <v>321</v>
       </c>
       <c r="B323" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2">
       <c r="A324" s="1">
         <v>322</v>
       </c>
       <c r="B324" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2">
       <c r="A325" s="1">
         <v>323</v>
       </c>
       <c r="B325" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2">
       <c r="A326" s="1">
         <v>324</v>
       </c>
       <c r="B326" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2">
       <c r="A327" s="1">
         <v>325</v>
       </c>
       <c r="B327" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2">
       <c r="A328" s="1">
         <v>326</v>
       </c>
       <c r="B328" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2">
       <c r="A329" s="1">
         <v>327</v>
       </c>
       <c r="B329" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2">
       <c r="A330" s="1">
         <v>328</v>
       </c>
       <c r="B330" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2">
       <c r="A331" s="1">
         <v>329</v>
       </c>
       <c r="B331" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2">
       <c r="A332" s="1">
         <v>330</v>
       </c>
       <c r="B332" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2">
       <c r="A333" s="1">
         <v>331</v>
       </c>
       <c r="B333" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2">
       <c r="A334" s="1">
         <v>332</v>
       </c>
       <c r="B334" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2">
       <c r="A335" s="1">
         <v>333</v>
       </c>
       <c r="B335" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2">
       <c r="A336" s="1">
         <v>334</v>
       </c>
       <c r="B336" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2">
       <c r="A337" s="1">
         <v>335</v>
       </c>
       <c r="B337" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2">
       <c r="A338" s="1">
         <v>336</v>
       </c>
       <c r="B338" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2">
       <c r="A339" s="1">
         <v>337</v>
       </c>
       <c r="B339" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2">
       <c r="A340" s="1">
         <v>338</v>
       </c>
       <c r="B340" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2">
       <c r="A341" s="1">
         <v>339</v>
       </c>
       <c r="B341" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2">
       <c r="A342" s="1">
         <v>340</v>
       </c>
       <c r="B342" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2">
       <c r="A343" s="1">
         <v>341</v>
       </c>
       <c r="B343" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2">
       <c r="A344" s="1">
         <v>342</v>
       </c>
       <c r="B344" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2">
       <c r="A345" s="1">
         <v>343</v>
       </c>
       <c r="B345" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2">
       <c r="A346" s="1">
         <v>344</v>
       </c>
       <c r="B346" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2">
       <c r="A347" s="1">
         <v>345</v>
       </c>
       <c r="B347" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2">
       <c r="A348" s="1">
         <v>346</v>
       </c>
       <c r="B348" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2">
       <c r="A349" s="1">
         <v>347</v>
       </c>
       <c r="B349" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2">
       <c r="A350" s="1">
         <v>348</v>
       </c>
       <c r="B350" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2">
       <c r="A351" s="1">
         <v>349</v>
       </c>
       <c r="B351" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2">
       <c r="A352" s="1">
         <v>350</v>
       </c>
       <c r="B352" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2">
       <c r="A353" s="1">
         <v>351</v>
       </c>
       <c r="B353" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2">
       <c r="A354" s="1">
         <v>352</v>
       </c>
       <c r="B354" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2">
       <c r="A355" s="1">
         <v>353</v>
       </c>
       <c r="B355" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2">
       <c r="A356" s="1">
         <v>354</v>
       </c>
       <c r="B356" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2">
       <c r="A357" s="1">
         <v>355</v>
       </c>
       <c r="B357" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2">
       <c r="A358" s="1">
         <v>356</v>
       </c>
       <c r="B358" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2">
       <c r="A359" s="1">
         <v>357</v>
       </c>
       <c r="B359" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2">
       <c r="A360" s="1">
         <v>358</v>
       </c>
       <c r="B360" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2">
       <c r="A361" s="1">
         <v>359</v>
       </c>
       <c r="B361" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2">
       <c r="A362" s="1">
         <v>360</v>
       </c>
       <c r="B362" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2">
       <c r="A363" s="1">
         <v>361</v>
       </c>
       <c r="B363" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2">
       <c r="A364" s="1">
         <v>362</v>
       </c>
       <c r="B364" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2">
       <c r="A365" s="1">
         <v>363</v>
       </c>
       <c r="B365" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2">
       <c r="A366" s="1">
         <v>364</v>
       </c>
       <c r="B366" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2">
       <c r="A367" s="1">
         <v>365</v>
       </c>
       <c r="B367" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2">
       <c r="A368" s="1">
         <v>366</v>
       </c>
       <c r="B368" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2">
       <c r="A369" s="1">
         <v>367</v>
       </c>
       <c r="B369" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2">
       <c r="A370" s="1">
         <v>368</v>
       </c>
       <c r="B370" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2">
       <c r="A371" s="1">
         <v>369</v>
       </c>
       <c r="B371" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2">
       <c r="A372" s="1">
         <v>370</v>
       </c>
       <c r="B372" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2">
       <c r="A373" s="1">
         <v>371</v>
       </c>
       <c r="B373" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2">
       <c r="A374" s="1">
         <v>372</v>
       </c>
       <c r="B374" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2">
       <c r="A375" s="1">
         <v>373</v>
       </c>
       <c r="B375" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2">
       <c r="A376" s="1">
         <v>374</v>
       </c>
       <c r="B376" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2">
       <c r="A377" s="1">
         <v>375</v>
       </c>
       <c r="B377" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2">
       <c r="A378" s="1">
         <v>376</v>
       </c>
       <c r="B378" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2">
       <c r="A379" s="1">
         <v>377</v>
       </c>
       <c r="B379" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2">
       <c r="A380" s="1">
         <v>378</v>
       </c>
       <c r="B380" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2">
       <c r="A381" s="1">
         <v>379</v>
       </c>
       <c r="B381" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2">
       <c r="A382" s="1">
         <v>380</v>
       </c>
       <c r="B382" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2">
       <c r="A383" s="1">
         <v>381</v>
       </c>
       <c r="B383" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2">
       <c r="A384" s="1">
         <v>382</v>
       </c>
       <c r="B384" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2">
       <c r="A385" s="1">
         <v>383</v>
       </c>
       <c r="B385" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2">
       <c r="A386" s="1">
         <v>384</v>
       </c>
       <c r="B386" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2">
       <c r="A387" s="1">
         <v>385</v>
       </c>
       <c r="B387" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2">
       <c r="A388" s="1">
         <v>386</v>
       </c>
       <c r="B388" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2">
       <c r="A389" s="1">
         <v>387</v>
       </c>
       <c r="B389" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2">
       <c r="A390" s="1">
         <v>388</v>
       </c>
       <c r="B390" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2">
       <c r="A391" s="1">
         <v>389</v>
       </c>
       <c r="B391" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2">
       <c r="A392" s="1">
         <v>390</v>
       </c>
       <c r="B392" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2">
       <c r="A393" s="1">
         <v>391</v>
       </c>
       <c r="B393" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2">
       <c r="A394" s="1">
         <v>392</v>
       </c>
       <c r="B394" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2">
       <c r="A395" s="1">
         <v>393</v>
       </c>
       <c r="B395" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2">
       <c r="A396" s="1">
         <v>394</v>
       </c>
       <c r="B396" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2">
       <c r="A397" s="1">
         <v>395</v>
       </c>
       <c r="B397" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2">
       <c r="A398" s="1">
         <v>396</v>
       </c>
       <c r="B398" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2">
       <c r="A399" s="1">
         <v>397</v>
       </c>
       <c r="B399" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2">
       <c r="A400" s="1">
         <v>398</v>
       </c>
       <c r="B400" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2">
       <c r="A401" s="1">
         <v>399</v>
       </c>
       <c r="B401" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2">
       <c r="A402" s="1">
         <v>400</v>
       </c>
       <c r="B402" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2">
       <c r="A403" s="1">
         <v>401</v>
       </c>
       <c r="B403" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2">
       <c r="A404" s="1">
         <v>402</v>
       </c>
       <c r="B404" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2">
       <c r="A405" s="1">
         <v>403</v>
       </c>
       <c r="B405" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.25">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2">
       <c r="A406" s="1">
         <v>404</v>
       </c>
       <c r="B406" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2">
       <c r="A407" s="1">
         <v>405</v>
       </c>
       <c r="B407" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2">
       <c r="A408" s="1">
         <v>406</v>
       </c>
       <c r="B408" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2">
       <c r="A409" s="1">
         <v>407</v>
       </c>
       <c r="B409" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.25">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2">
       <c r="A410" s="1">
         <v>408</v>
       </c>
       <c r="B410" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.25">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2">
       <c r="A411" s="1">
         <v>409</v>
       </c>
       <c r="B411" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2">
       <c r="A412" s="1">
         <v>410</v>
       </c>
       <c r="B412" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.25">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2">
       <c r="A413" s="1">
         <v>411</v>
       </c>
       <c r="B413" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.25">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2">
       <c r="A414" s="1">
         <v>412</v>
       </c>
       <c r="B414" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.25">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2">
       <c r="A415" s="1">
         <v>413</v>
       </c>
       <c r="B415" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.25">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2">
       <c r="A416" s="1">
         <v>414</v>
       </c>
       <c r="B416" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.25">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2">
       <c r="A417" s="1">
         <v>415</v>
       </c>
       <c r="B417" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.25">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2">
       <c r="A418" s="1">
         <v>416</v>
       </c>
       <c r="B418" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2">
       <c r="A419" s="1">
         <v>417</v>
       </c>
       <c r="B419" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.25">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2">
       <c r="A420" s="1">
         <v>418</v>
       </c>
       <c r="B420" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2">
       <c r="A421" s="1">
         <v>419</v>
       </c>
       <c r="B421" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.25">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2">
       <c r="A422" s="1">
         <v>420</v>
       </c>
       <c r="B422" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.25">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2">
       <c r="A423" s="1">
         <v>421</v>
       </c>
       <c r="B423" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.25">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2">
       <c r="A424" s="1">
         <v>422</v>
       </c>
       <c r="B424" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.25">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2">
       <c r="A425" s="1">
         <v>423</v>
       </c>
       <c r="B425" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="426" spans="1:2" x14ac:dyDescent="0.25">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2">
       <c r="A426" s="1">
         <v>424</v>
       </c>
       <c r="B426" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2">
       <c r="A427" s="1">
         <v>425</v>
       </c>
       <c r="B427" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="428" spans="1:2" x14ac:dyDescent="0.25">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2">
       <c r="A428" s="1">
         <v>426</v>
       </c>
       <c r="B428" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="429" spans="1:2" x14ac:dyDescent="0.25">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2">
       <c r="A429" s="1">
         <v>427</v>
       </c>
       <c r="B429" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="430" spans="1:2" x14ac:dyDescent="0.25">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2">
       <c r="A430" s="1">
         <v>428</v>
       </c>
       <c r="B430" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2">
       <c r="A431" s="1">
         <v>429</v>
       </c>
       <c r="B431" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2">
       <c r="A432" s="1">
         <v>430</v>
       </c>
       <c r="B432" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2">
       <c r="A433" s="1">
         <v>431</v>
       </c>
       <c r="B433" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2">
       <c r="A434" s="1">
         <v>432</v>
       </c>
       <c r="B434" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="435" spans="1:2" x14ac:dyDescent="0.25">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2">
       <c r="A435" s="1">
         <v>433</v>
       </c>
       <c r="B435" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="436" spans="1:2" x14ac:dyDescent="0.25">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2">
       <c r="A436" s="1">
         <v>434</v>
       </c>
       <c r="B436" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2">
       <c r="A437" s="1">
         <v>435</v>
       </c>
       <c r="B437" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2">
       <c r="A438" s="1">
         <v>436</v>
       </c>
       <c r="B438" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.25">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2">
       <c r="A439" s="1">
         <v>437</v>
       </c>
       <c r="B439" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="440" spans="1:2" x14ac:dyDescent="0.25">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2">
       <c r="A440" s="1">
         <v>438</v>
       </c>
       <c r="B440" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="441" spans="1:2" x14ac:dyDescent="0.25">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2">
       <c r="A441" s="1">
         <v>439</v>
       </c>
       <c r="B441" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="442" spans="1:2" x14ac:dyDescent="0.25">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2">
       <c r="A442" s="1">
         <v>440</v>
       </c>
       <c r="B442" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="443" spans="1:2" x14ac:dyDescent="0.25">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2">
       <c r="A443" s="1">
         <v>441</v>
       </c>
       <c r="B443" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="444" spans="1:2" x14ac:dyDescent="0.25">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2">
       <c r="A444" s="1">
         <v>442</v>
       </c>
       <c r="B444" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="445" spans="1:2" x14ac:dyDescent="0.25">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2">
       <c r="A445" s="1">
         <v>443</v>
       </c>
       <c r="B445" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="446" spans="1:2" x14ac:dyDescent="0.25">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2">
       <c r="A446" s="1">
         <v>444</v>
       </c>
       <c r="B446" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="447" spans="1:2" x14ac:dyDescent="0.25">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2">
       <c r="A447" s="1">
         <v>445</v>
       </c>
       <c r="B447" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="448" spans="1:2" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2">
       <c r="A448" s="1">
         <v>446</v>
       </c>
       <c r="B448" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="449" spans="1:2" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2">
       <c r="A449" s="1">
         <v>447</v>
       </c>
       <c r="B449" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="450" spans="1:2" x14ac:dyDescent="0.25">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2">
       <c r="A450" s="1">
         <v>448</v>
       </c>
       <c r="B450" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="451" spans="1:2" x14ac:dyDescent="0.25">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2">
       <c r="A451" s="1">
         <v>449</v>
       </c>
       <c r="B451" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="452" spans="1:2" x14ac:dyDescent="0.25">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2">
       <c r="A452" s="1">
         <v>450</v>
       </c>
       <c r="B452" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="453" spans="1:2" x14ac:dyDescent="0.25">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2">
       <c r="A453" s="1">
         <v>451</v>
       </c>
       <c r="B453" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="454" spans="1:2" x14ac:dyDescent="0.25">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2">
       <c r="A454" s="1">
         <v>452</v>
       </c>
       <c r="B454" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="455" spans="1:2" x14ac:dyDescent="0.25">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2">
       <c r="A455" s="1">
         <v>453</v>
       </c>
       <c r="B455" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="456" spans="1:2" x14ac:dyDescent="0.25">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2">
       <c r="A456" s="1">
         <v>454</v>
       </c>
       <c r="B456" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="457" spans="1:2" x14ac:dyDescent="0.25">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2">
       <c r="A457" s="1">
         <v>455</v>
       </c>
       <c r="B457" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="458" spans="1:2" x14ac:dyDescent="0.25">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2">
       <c r="A458" s="1">
         <v>456</v>
       </c>
       <c r="B458" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="459" spans="1:2" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2">
       <c r="A459" s="1">
         <v>457</v>
       </c>
       <c r="B459" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="460" spans="1:2" x14ac:dyDescent="0.25">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2">
       <c r="A460" s="1">
         <v>458</v>
       </c>
       <c r="B460" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="461" spans="1:2" x14ac:dyDescent="0.25">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2">
       <c r="A461" s="1">
         <v>459</v>
       </c>
       <c r="B461" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="462" spans="1:2" x14ac:dyDescent="0.25">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2">
       <c r="A462" s="1">
         <v>460</v>
       </c>
       <c r="B462" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="463" spans="1:2" x14ac:dyDescent="0.25">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2">
       <c r="A463" s="1">
         <v>461</v>
       </c>
       <c r="B463" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="464" spans="1:2" x14ac:dyDescent="0.25">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2">
       <c r="A464" s="1">
         <v>462</v>
       </c>
       <c r="B464" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="465" spans="1:2" x14ac:dyDescent="0.25">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2">
       <c r="A465" s="1">
         <v>463</v>
       </c>
       <c r="B465" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="466" spans="1:2" x14ac:dyDescent="0.25">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2">
       <c r="A466" s="1">
         <v>464</v>
       </c>
       <c r="B466" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="467" spans="1:2" x14ac:dyDescent="0.25">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2">
       <c r="A467" s="1">
         <v>465</v>
       </c>
       <c r="B467" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="468" spans="1:2" x14ac:dyDescent="0.25">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2">
       <c r="A468" s="1">
         <v>466</v>
       </c>
       <c r="B468" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="469" spans="1:2" x14ac:dyDescent="0.25">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2">
       <c r="A469" s="1">
         <v>467</v>
       </c>
       <c r="B469" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="470" spans="1:2" x14ac:dyDescent="0.25">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2">
       <c r="A470" s="1">
         <v>468</v>
       </c>
       <c r="B470" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="471" spans="1:2" x14ac:dyDescent="0.25">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2">
       <c r="A471" s="1">
         <v>469</v>
       </c>
       <c r="B471" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="472" spans="1:2" x14ac:dyDescent="0.25">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2">
       <c r="A472" s="1">
         <v>470</v>
       </c>
       <c r="B472" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="473" spans="1:2" x14ac:dyDescent="0.25">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2">
       <c r="A473" s="1">
         <v>471</v>
       </c>
       <c r="B473" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="474" spans="1:2" x14ac:dyDescent="0.25">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2">
       <c r="A474" s="1">
         <v>472</v>
       </c>
       <c r="B474" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="475" spans="1:2" x14ac:dyDescent="0.25">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2">
       <c r="A475" s="1">
         <v>473</v>
       </c>
       <c r="B475" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="476" spans="1:2" x14ac:dyDescent="0.25">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2">
       <c r="A476" s="1">
         <v>474</v>
       </c>
       <c r="B476" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="477" spans="1:2" x14ac:dyDescent="0.25">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2">
       <c r="A477" s="1">
         <v>475</v>
       </c>
       <c r="B477" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="478" spans="1:2" x14ac:dyDescent="0.25">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2">
       <c r="A478" s="1">
         <v>476</v>
       </c>
       <c r="B478" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="479" spans="1:2" x14ac:dyDescent="0.25">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2">
       <c r="A479" s="1">
         <v>477</v>
       </c>
       <c r="B479" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="480" spans="1:2" x14ac:dyDescent="0.25">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2">
       <c r="A480" s="1">
         <v>478</v>
       </c>
       <c r="B480" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="481" spans="1:2" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2">
       <c r="A481" s="1">
         <v>479</v>
       </c>
       <c r="B481" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="482" spans="1:2" x14ac:dyDescent="0.25">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2">
       <c r="A482" s="1">
         <v>480</v>
       </c>
       <c r="B482" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="483" spans="1:2" x14ac:dyDescent="0.25">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="483" spans="1:2">
       <c r="A483" s="1">
         <v>481</v>
       </c>
       <c r="B483" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="484" spans="1:2" x14ac:dyDescent="0.25">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2">
       <c r="A484" s="1">
         <v>482</v>
       </c>
       <c r="B484" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="485" spans="1:2" x14ac:dyDescent="0.25">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2">
       <c r="A485" s="1">
         <v>483</v>
       </c>
       <c r="B485" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="486" spans="1:2" x14ac:dyDescent="0.25">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2">
       <c r="A486" s="1">
         <v>484</v>
       </c>
       <c r="B486" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="487" spans="1:2" x14ac:dyDescent="0.25">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2">
       <c r="A487" s="1">
         <v>485</v>
       </c>
       <c r="B487" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="488" spans="1:2" x14ac:dyDescent="0.25">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2">
       <c r="A488" s="1">
         <v>486</v>
       </c>
       <c r="B488" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="489" spans="1:2" x14ac:dyDescent="0.25">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2">
       <c r="A489" s="1">
         <v>487</v>
       </c>
       <c r="B489" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="490" spans="1:2" x14ac:dyDescent="0.25">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2">
       <c r="A490" s="1">
         <v>488</v>
       </c>
       <c r="B490" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="491" spans="1:2" x14ac:dyDescent="0.25">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2">
       <c r="A491" s="1">
         <v>489</v>
       </c>
       <c r="B491" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="492" spans="1:2" x14ac:dyDescent="0.25">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2">
       <c r="A492" s="1">
         <v>490</v>
       </c>
       <c r="B492" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="493" spans="1:2" x14ac:dyDescent="0.25">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2">
       <c r="A493" s="1">
         <v>491</v>
       </c>
       <c r="B493" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="494" spans="1:2" x14ac:dyDescent="0.25">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="494" spans="1:2">
       <c r="A494" s="1">
         <v>492</v>
       </c>
       <c r="B494" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="495" spans="1:2" x14ac:dyDescent="0.25">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2">
       <c r="A495" s="1">
         <v>493</v>
       </c>
       <c r="B495" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="496" spans="1:2" x14ac:dyDescent="0.25">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2">
       <c r="A496" s="1">
         <v>494</v>
       </c>
       <c r="B496" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="497" spans="1:2" x14ac:dyDescent="0.25">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="497" spans="1:2">
       <c r="A497" s="1">
         <v>495</v>
       </c>
       <c r="B497" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="498" spans="1:2" x14ac:dyDescent="0.25">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="498" spans="1:2">
       <c r="A498" s="1">
         <v>496</v>
       </c>
       <c r="B498" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="499" spans="1:2" x14ac:dyDescent="0.25">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="499" spans="1:2">
       <c r="A499" s="1">
         <v>497</v>
       </c>
       <c r="B499" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="500" spans="1:2" x14ac:dyDescent="0.25">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="500" spans="1:2">
       <c r="A500" s="1">
         <v>498</v>
       </c>
       <c r="B500" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="501" spans="1:2" x14ac:dyDescent="0.25">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="501" spans="1:2">
       <c r="A501" s="1">
         <v>499</v>
       </c>
       <c r="B501" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="502" spans="1:2" x14ac:dyDescent="0.25">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="502" spans="1:2">
       <c r="A502" s="1">
         <v>500</v>
       </c>
       <c r="B502" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="503" spans="1:2" x14ac:dyDescent="0.25">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="503" spans="1:2">
       <c r="A503" s="1">
         <v>501</v>
       </c>
       <c r="B503" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="504" spans="1:2" x14ac:dyDescent="0.25">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="504" spans="1:2">
       <c r="A504" s="1">
         <v>502</v>
       </c>
       <c r="B504" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="505" spans="1:2" x14ac:dyDescent="0.25">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="505" spans="1:2">
       <c r="A505" s="1">
         <v>503</v>
       </c>
       <c r="B505" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="506" spans="1:2" x14ac:dyDescent="0.25">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="506" spans="1:2">
       <c r="A506" s="1">
         <v>504</v>
       </c>
       <c r="B506" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="507" spans="1:2" x14ac:dyDescent="0.25">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="507" spans="1:2">
       <c r="A507" s="1">
         <v>505</v>
       </c>
       <c r="B507" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="508" spans="1:2" x14ac:dyDescent="0.25">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="508" spans="1:2">
       <c r="A508" s="1">
         <v>506</v>
       </c>
       <c r="B508" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="509" spans="1:2" x14ac:dyDescent="0.25">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="509" spans="1:2">
       <c r="A509" s="1">
         <v>507</v>
       </c>
       <c r="B509" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="510" spans="1:2" x14ac:dyDescent="0.25">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="510" spans="1:2">
       <c r="A510" s="1">
         <v>508</v>
       </c>
       <c r="B510" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="511" spans="1:2" x14ac:dyDescent="0.25">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="511" spans="1:2">
       <c r="A511" s="1">
         <v>509</v>
       </c>
       <c r="B511" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="512" spans="1:2" x14ac:dyDescent="0.25">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="512" spans="1:2">
       <c r="A512" s="1">
         <v>510</v>
       </c>
       <c r="B512" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="513" spans="1:2" x14ac:dyDescent="0.25">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="513" spans="1:2">
       <c r="A513" s="1">
         <v>511</v>
       </c>
       <c r="B513" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="514" spans="1:2" x14ac:dyDescent="0.25">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="514" spans="1:2">
       <c r="A514" s="1">
         <v>512</v>
       </c>
       <c r="B514" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="515" spans="1:2" x14ac:dyDescent="0.25">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="515" spans="1:2">
       <c r="A515" s="1">
         <v>513</v>
       </c>
       <c r="B515" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="516" spans="1:2" x14ac:dyDescent="0.25">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="516" spans="1:2">
       <c r="A516" s="1">
         <v>514</v>
       </c>
       <c r="B516" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="517" spans="1:2" x14ac:dyDescent="0.25">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="517" spans="1:2">
       <c r="A517" s="1">
         <v>515</v>
       </c>
       <c r="B517" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="518" spans="1:2" x14ac:dyDescent="0.25">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="518" spans="1:2">
       <c r="A518" s="1">
         <v>516</v>
       </c>
       <c r="B518" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="519" spans="1:2" x14ac:dyDescent="0.25">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="519" spans="1:2">
       <c r="A519" s="1">
         <v>517</v>
       </c>
       <c r="B519" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="520" spans="1:2" x14ac:dyDescent="0.25">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="520" spans="1:2">
       <c r="A520" s="1">
         <v>518</v>
       </c>
       <c r="B520" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="521" spans="1:2" x14ac:dyDescent="0.25">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="521" spans="1:2">
       <c r="A521" s="1">
         <v>519</v>
       </c>
       <c r="B521" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="522" spans="1:2" x14ac:dyDescent="0.25">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="522" spans="1:2">
       <c r="A522" s="1">
         <v>520</v>
       </c>
       <c r="B522" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="523" spans="1:2" x14ac:dyDescent="0.25">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="523" spans="1:2">
       <c r="A523" s="1">
         <v>521</v>
       </c>
       <c r="B523" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="524" spans="1:2" x14ac:dyDescent="0.25">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="524" spans="1:2">
       <c r="A524" s="1">
         <v>522</v>
       </c>
       <c r="B524" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="525" spans="1:2" x14ac:dyDescent="0.25">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="525" spans="1:2">
       <c r="A525" s="1">
         <v>523</v>
       </c>
       <c r="B525" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="526" spans="1:2" x14ac:dyDescent="0.25">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="526" spans="1:2">
       <c r="A526" s="1">
         <v>524</v>
       </c>
       <c r="B526" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="527" spans="1:2" x14ac:dyDescent="0.25">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="527" spans="1:2">
       <c r="A527" s="1">
         <v>525</v>
       </c>
       <c r="B527" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="528" spans="1:2" x14ac:dyDescent="0.25">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="528" spans="1:2">
       <c r="A528" s="1">
         <v>526</v>
       </c>
       <c r="B528" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="529" spans="1:2" x14ac:dyDescent="0.25">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="529" spans="1:2">
       <c r="A529" s="1">
         <v>527</v>
       </c>
       <c r="B529" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="530" spans="1:2" x14ac:dyDescent="0.25">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="530" spans="1:2">
       <c r="A530" s="1">
         <v>528</v>
       </c>
       <c r="B530" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="531" spans="1:2" x14ac:dyDescent="0.25">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="531" spans="1:2">
       <c r="A531" s="1">
         <v>529</v>
       </c>
       <c r="B531" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="532" spans="1:2" x14ac:dyDescent="0.25">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="532" spans="1:2">
       <c r="A532" s="1">
         <v>530</v>
       </c>
       <c r="B532" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="533" spans="1:2" x14ac:dyDescent="0.25">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="533" spans="1:2">
       <c r="A533" s="1">
         <v>531</v>
       </c>
       <c r="B533" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="534" spans="1:2" x14ac:dyDescent="0.25">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="534" spans="1:2">
       <c r="A534" s="1">
         <v>532</v>
       </c>
       <c r="B534" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="535" spans="1:2" x14ac:dyDescent="0.25">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="535" spans="1:2">
       <c r="A535" s="1">
         <v>533</v>
       </c>
       <c r="B535" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="536" spans="1:2" x14ac:dyDescent="0.25">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="536" spans="1:2">
       <c r="A536" s="1">
         <v>534</v>
       </c>
       <c r="B536" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="537" spans="1:2" x14ac:dyDescent="0.25">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="537" spans="1:2">
       <c r="A537" s="1">
         <v>535</v>
       </c>
       <c r="B537" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="538" spans="1:2" x14ac:dyDescent="0.25">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="538" spans="1:2">
       <c r="A538" s="1">
         <v>536</v>
       </c>
       <c r="B538" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="539" spans="1:2" x14ac:dyDescent="0.25">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="539" spans="1:2">
       <c r="A539" s="1">
         <v>537</v>
       </c>
       <c r="B539" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="540" spans="1:2" x14ac:dyDescent="0.25">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="540" spans="1:2">
       <c r="A540" s="1">
         <v>538</v>
       </c>
       <c r="B540" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="541" spans="1:2" x14ac:dyDescent="0.25">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="541" spans="1:2">
       <c r="A541" s="1">
         <v>539</v>
       </c>
       <c r="B541" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="542" spans="1:2" x14ac:dyDescent="0.25">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="542" spans="1:2">
       <c r="A542" s="1">
         <v>540</v>
       </c>
       <c r="B542" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="543" spans="1:2" x14ac:dyDescent="0.25">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="543" spans="1:2">
       <c r="A543" s="1">
         <v>541</v>
       </c>
       <c r="B543" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="544" spans="1:2" x14ac:dyDescent="0.25">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="544" spans="1:2">
       <c r="A544" s="1">
         <v>542</v>
       </c>
       <c r="B544" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="545" spans="1:2" x14ac:dyDescent="0.25">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="545" spans="1:2">
       <c r="A545" s="1">
         <v>543</v>
       </c>
       <c r="B545" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="546" spans="1:2" x14ac:dyDescent="0.25">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="546" spans="1:2">
       <c r="A546" s="1">
         <v>544</v>
       </c>
       <c r="B546" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="547" spans="1:2" x14ac:dyDescent="0.25">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="547" spans="1:2">
       <c r="A547" s="1">
         <v>545</v>
       </c>
       <c r="B547" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="548" spans="1:2" x14ac:dyDescent="0.25">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="548" spans="1:2">
       <c r="A548" s="1">
         <v>546</v>
       </c>
       <c r="B548" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="549" spans="1:2" x14ac:dyDescent="0.25">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="549" spans="1:2">
       <c r="A549" s="1">
         <v>547</v>
       </c>
       <c r="B549" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="550" spans="1:2" x14ac:dyDescent="0.25">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="550" spans="1:2">
       <c r="A550" s="1">
         <v>548</v>
       </c>
       <c r="B550" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="551" spans="1:2" x14ac:dyDescent="0.25">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="551" spans="1:2">
       <c r="A551" s="1">
         <v>549</v>
       </c>
       <c r="B551" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="552" spans="1:2" x14ac:dyDescent="0.25">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="552" spans="1:2">
       <c r="A552" s="1">
         <v>550</v>
       </c>
       <c r="B552" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="553" spans="1:2" x14ac:dyDescent="0.25">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="553" spans="1:2">
       <c r="A553" s="1">
         <v>551</v>
       </c>
       <c r="B553" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="554" spans="1:2" x14ac:dyDescent="0.25">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="554" spans="1:2">
       <c r="A554" s="1">
         <v>552</v>
       </c>
       <c r="B554" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="555" spans="1:2" x14ac:dyDescent="0.25">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="555" spans="1:2">
       <c r="A555" s="1">
         <v>553</v>
       </c>
       <c r="B555" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="556" spans="1:2" x14ac:dyDescent="0.25">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="556" spans="1:2">
       <c r="A556" s="1">
         <v>554</v>
       </c>
       <c r="B556" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="557" spans="1:2" x14ac:dyDescent="0.25">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="557" spans="1:2">
       <c r="A557" s="1">
         <v>555</v>
       </c>
       <c r="B557" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="558" spans="1:2" x14ac:dyDescent="0.25">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="558" spans="1:2">
       <c r="A558" s="1">
         <v>556</v>
       </c>
       <c r="B558" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="559" spans="1:2" x14ac:dyDescent="0.25">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="559" spans="1:2">
       <c r="A559" s="1">
         <v>557</v>
       </c>
       <c r="B559" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="560" spans="1:2" x14ac:dyDescent="0.25">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="560" spans="1:2">
       <c r="A560" s="1">
         <v>558</v>
       </c>
       <c r="B560" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="561" spans="1:2" x14ac:dyDescent="0.25">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="561" spans="1:2">
       <c r="A561" s="1">
         <v>559</v>
       </c>
       <c r="B561" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="562" spans="1:2" x14ac:dyDescent="0.25">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="562" spans="1:2">
       <c r="A562" s="1">
         <v>560</v>
       </c>
       <c r="B562" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="563" spans="1:2" x14ac:dyDescent="0.25">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="563" spans="1:2">
       <c r="A563" s="1">
         <v>561</v>
       </c>
       <c r="B563" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="564" spans="1:2" x14ac:dyDescent="0.25">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="564" spans="1:2">
       <c r="A564" s="1">
         <v>562</v>
       </c>
       <c r="B564" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="565" spans="1:2" x14ac:dyDescent="0.25">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="565" spans="1:2">
       <c r="A565" s="1">
         <v>563</v>
       </c>
       <c r="B565" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="566" spans="1:2" x14ac:dyDescent="0.25">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="566" spans="1:2">
       <c r="A566" s="1">
         <v>564</v>
       </c>
       <c r="B566" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="567" spans="1:2" x14ac:dyDescent="0.25">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="567" spans="1:2">
       <c r="A567" s="1">
         <v>565</v>
       </c>
       <c r="B567" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="568" spans="1:2" x14ac:dyDescent="0.25">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="568" spans="1:2">
       <c r="A568" s="1">
         <v>566</v>
       </c>
       <c r="B568" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="569" spans="1:2" x14ac:dyDescent="0.25">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="569" spans="1:2">
       <c r="A569" s="1">
         <v>567</v>
       </c>
       <c r="B569" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="570" spans="1:2" x14ac:dyDescent="0.25">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="570" spans="1:2">
       <c r="A570" s="1">
         <v>568</v>
       </c>
       <c r="B570" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="571" spans="1:2" x14ac:dyDescent="0.25">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="571" spans="1:2">
       <c r="A571" s="1">
         <v>569</v>
       </c>
       <c r="B571" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="572" spans="1:2" x14ac:dyDescent="0.25">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="572" spans="1:2">
       <c r="A572" s="1">
         <v>570</v>
       </c>
       <c r="B572" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="573" spans="1:2" x14ac:dyDescent="0.25">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="573" spans="1:2">
       <c r="A573" s="1">
         <v>571</v>
       </c>
       <c r="B573" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="574" spans="1:2" x14ac:dyDescent="0.25">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="574" spans="1:2">
       <c r="A574" s="1">
         <v>572</v>
       </c>
       <c r="B574" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="575" spans="1:2" x14ac:dyDescent="0.25">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="575" spans="1:2">
       <c r="A575" s="1">
         <v>573</v>
       </c>
       <c r="B575" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="576" spans="1:2" x14ac:dyDescent="0.25">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="576" spans="1:2">
       <c r="A576" s="1">
         <v>574</v>
       </c>
       <c r="B576" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="577" spans="1:2" x14ac:dyDescent="0.25">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="577" spans="1:2">
       <c r="A577" s="1">
         <v>575</v>
       </c>
       <c r="B577" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="578" spans="1:2" x14ac:dyDescent="0.25">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="578" spans="1:2">
       <c r="A578" s="1">
         <v>576</v>
       </c>
       <c r="B578" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="579" spans="1:2" x14ac:dyDescent="0.25">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="579" spans="1:2">
       <c r="A579" s="1">
         <v>577</v>
       </c>
       <c r="B579" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="580" spans="1:2" x14ac:dyDescent="0.25">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="580" spans="1:2">
       <c r="A580" s="1">
         <v>578</v>
       </c>
       <c r="B580" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="581" spans="1:2" x14ac:dyDescent="0.25">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="581" spans="1:2">
       <c r="A581" s="1">
         <v>579</v>
       </c>
       <c r="B581" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="582" spans="1:2" x14ac:dyDescent="0.25">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="582" spans="1:2">
       <c r="A582" s="1">
         <v>580</v>
       </c>
       <c r="B582" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="583" spans="1:2" x14ac:dyDescent="0.25">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="583" spans="1:2">
       <c r="A583" s="1">
         <v>581</v>
       </c>
       <c r="B583" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="584" spans="1:2" x14ac:dyDescent="0.25">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="584" spans="1:2">
       <c r="A584" s="1">
         <v>582</v>
       </c>
       <c r="B584" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="585" spans="1:2" x14ac:dyDescent="0.25">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="585" spans="1:2">
       <c r="A585" s="1">
         <v>583</v>
       </c>
       <c r="B585" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="586" spans="1:2" x14ac:dyDescent="0.25">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="586" spans="1:2">
       <c r="A586" s="1">
         <v>584</v>
       </c>
       <c r="B586" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="587" spans="1:2" x14ac:dyDescent="0.25">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="587" spans="1:2">
       <c r="A587" s="1">
         <v>585</v>
       </c>
       <c r="B587" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="588" spans="1:2" x14ac:dyDescent="0.25">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="588" spans="1:2">
       <c r="A588" s="1">
         <v>586</v>
       </c>
       <c r="B588" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="589" spans="1:2" x14ac:dyDescent="0.25">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="589" spans="1:2">
       <c r="A589" s="1">
         <v>587</v>
       </c>
       <c r="B589" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="590" spans="1:2" x14ac:dyDescent="0.25">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="590" spans="1:2">
       <c r="A590" s="1">
         <v>588</v>
       </c>
       <c r="B590" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="591" spans="1:2" x14ac:dyDescent="0.25">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="591" spans="1:2">
       <c r="A591" s="1">
         <v>589</v>
       </c>
       <c r="B591" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="592" spans="1:2" x14ac:dyDescent="0.25">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="592" spans="1:2">
       <c r="A592" s="1">
         <v>590</v>
       </c>
       <c r="B592" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="593" spans="1:2" x14ac:dyDescent="0.25">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="593" spans="1:2">
       <c r="A593" s="1">
         <v>591</v>
       </c>
       <c r="B593" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="594" spans="1:2" x14ac:dyDescent="0.25">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="594" spans="1:2">
       <c r="A594" s="1">
         <v>592</v>
       </c>
       <c r="B594" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="595" spans="1:2" x14ac:dyDescent="0.25">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="595" spans="1:2">
       <c r="A595" s="1">
         <v>593</v>
       </c>
       <c r="B595" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="596" spans="1:2" x14ac:dyDescent="0.25">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="596" spans="1:2">
       <c r="A596" s="1">
         <v>594</v>
       </c>
       <c r="B596" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="597" spans="1:2" x14ac:dyDescent="0.25">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="597" spans="1:2">
       <c r="A597" s="1">
         <v>595</v>
       </c>
       <c r="B597" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="598" spans="1:2" x14ac:dyDescent="0.25">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="598" spans="1:2">
       <c r="A598" s="1">
         <v>596</v>
       </c>
       <c r="B598" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="599" spans="1:2" x14ac:dyDescent="0.25">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="599" spans="1:2">
       <c r="A599" s="1">
         <v>597</v>
       </c>
       <c r="B599" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="600" spans="1:2" x14ac:dyDescent="0.25">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="600" spans="1:2">
       <c r="A600" s="1">
         <v>598</v>
       </c>
       <c r="B600" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="601" spans="1:2" x14ac:dyDescent="0.25">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="601" spans="1:2">
       <c r="A601" s="1">
         <v>599</v>
       </c>
       <c r="B601" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="602" spans="1:2" x14ac:dyDescent="0.25">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="602" spans="1:2">
       <c r="A602" s="1">
         <v>600</v>
       </c>
       <c r="B602" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="603" spans="1:2" x14ac:dyDescent="0.25">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="603" spans="1:2">
       <c r="A603" s="1">
         <v>601</v>
       </c>
       <c r="B603" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="604" spans="1:2" x14ac:dyDescent="0.25">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="604" spans="1:2">
       <c r="A604" s="1">
         <v>602</v>
       </c>
       <c r="B604" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="605" spans="1:2" x14ac:dyDescent="0.25">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="605" spans="1:2">
       <c r="A605" s="1">
         <v>603</v>
       </c>
       <c r="B605" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="606" spans="1:2" x14ac:dyDescent="0.25">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="606" spans="1:2">
       <c r="A606" s="1">
         <v>604</v>
       </c>
       <c r="B606" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="607" spans="1:2" x14ac:dyDescent="0.25">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="607" spans="1:2">
       <c r="A607" s="1">
         <v>605</v>
       </c>
       <c r="B607" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="608" spans="1:2" x14ac:dyDescent="0.25">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="608" spans="1:2">
       <c r="A608" s="1">
         <v>606</v>
       </c>
       <c r="B608" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="609" spans="1:2" x14ac:dyDescent="0.25">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="609" spans="1:2">
       <c r="A609" s="1">
         <v>607</v>
       </c>
       <c r="B609" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="610" spans="1:2" x14ac:dyDescent="0.25">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="610" spans="1:2">
       <c r="A610" s="1">
         <v>608</v>
       </c>
       <c r="B610" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="611" spans="1:2" x14ac:dyDescent="0.25">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="611" spans="1:2">
       <c r="A611" s="1">
         <v>609</v>
       </c>
       <c r="B611" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="612" spans="1:2" x14ac:dyDescent="0.25">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="612" spans="1:2">
       <c r="A612" s="1">
         <v>610</v>
       </c>
       <c r="B612" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="613" spans="1:2" x14ac:dyDescent="0.25">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="613" spans="1:2">
       <c r="A613" s="1">
         <v>611</v>
       </c>
       <c r="B613" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="614" spans="1:2" x14ac:dyDescent="0.25">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="614" spans="1:2">
       <c r="A614" s="1">
         <v>612</v>
       </c>
       <c r="B614" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="615" spans="1:2" x14ac:dyDescent="0.25">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="615" spans="1:2">
       <c r="A615" s="1">
         <v>613</v>
       </c>
       <c r="B615" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="616" spans="1:2" x14ac:dyDescent="0.25">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="616" spans="1:2">
       <c r="A616" s="1">
         <v>614</v>
       </c>
       <c r="B616" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="617" spans="1:2" x14ac:dyDescent="0.25">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="617" spans="1:2">
       <c r="A617" s="1">
         <v>615</v>
       </c>
       <c r="B617" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="618" spans="1:2" x14ac:dyDescent="0.25">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="618" spans="1:2">
       <c r="A618" s="1">
         <v>616</v>
       </c>
       <c r="B618" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="619" spans="1:2" x14ac:dyDescent="0.25">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="619" spans="1:2">
       <c r="A619" s="1">
         <v>617</v>
       </c>
       <c r="B619" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="620" spans="1:2" x14ac:dyDescent="0.25">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="620" spans="1:2">
       <c r="A620" s="1">
         <v>618</v>
       </c>
       <c r="B620" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="621" spans="1:2" x14ac:dyDescent="0.25">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="621" spans="1:2">
       <c r="A621" s="1">
         <v>619</v>
       </c>
       <c r="B621" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="622" spans="1:2" x14ac:dyDescent="0.25">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="622" spans="1:2">
       <c r="A622" s="1">
         <v>620</v>
       </c>
       <c r="B622" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="623" spans="1:2" x14ac:dyDescent="0.25">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="623" spans="1:2">
       <c r="A623" s="1">
         <v>621</v>
       </c>
       <c r="B623" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="624" spans="1:2" x14ac:dyDescent="0.25">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="624" spans="1:2">
       <c r="A624" s="1">
         <v>622</v>
       </c>
       <c r="B624" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="625" spans="1:2" x14ac:dyDescent="0.25">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="625" spans="1:2">
       <c r="A625" s="1">
         <v>623</v>
       </c>
       <c r="B625" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="626" spans="1:2" x14ac:dyDescent="0.25">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="626" spans="1:2">
       <c r="A626" s="1">
         <v>624</v>
       </c>
       <c r="B626" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="627" spans="1:2" x14ac:dyDescent="0.25">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="627" spans="1:2">
       <c r="A627" s="1">
         <v>625</v>
       </c>
       <c r="B627" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="628" spans="1:2" x14ac:dyDescent="0.25">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="628" spans="1:2">
       <c r="A628" s="1">
         <v>626</v>
       </c>
       <c r="B628" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="629" spans="1:2" x14ac:dyDescent="0.25">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="629" spans="1:2">
       <c r="A629" s="1">
         <v>627</v>
       </c>
       <c r="B629" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="630" spans="1:2" x14ac:dyDescent="0.25">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="630" spans="1:2">
       <c r="A630" s="1">
         <v>628</v>
       </c>
       <c r="B630" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="631" spans="1:2" x14ac:dyDescent="0.25">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="631" spans="1:2">
       <c r="A631" s="1">
         <v>629</v>
       </c>
       <c r="B631" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="632" spans="1:2" x14ac:dyDescent="0.25">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="632" spans="1:2">
       <c r="A632" s="1">
         <v>630</v>
       </c>
       <c r="B632" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="633" spans="1:2" x14ac:dyDescent="0.25">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="633" spans="1:2">
       <c r="A633" s="1">
         <v>631</v>
       </c>
       <c r="B633" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="634" spans="1:2" x14ac:dyDescent="0.25">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="634" spans="1:2">
       <c r="A634" s="1">
         <v>632</v>
       </c>
       <c r="B634" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="635" spans="1:2" x14ac:dyDescent="0.25">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="635" spans="1:2">
       <c r="A635" s="1">
         <v>633</v>
       </c>
       <c r="B635" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="636" spans="1:2" x14ac:dyDescent="0.25">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="636" spans="1:2">
       <c r="A636" s="1">
         <v>634</v>
       </c>
       <c r="B636" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="637" spans="1:2" x14ac:dyDescent="0.25">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="637" spans="1:2">
       <c r="A637" s="1">
         <v>635</v>
       </c>
       <c r="B637" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="638" spans="1:2" x14ac:dyDescent="0.25">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="638" spans="1:2">
       <c r="A638" s="1">
         <v>636</v>
       </c>
       <c r="B638" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="639" spans="1:2" x14ac:dyDescent="0.25">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="639" spans="1:2">
       <c r="A639" s="1">
         <v>637</v>
       </c>
       <c r="B639" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="640" spans="1:2" x14ac:dyDescent="0.25">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="640" spans="1:2">
       <c r="A640" s="1">
         <v>638</v>
       </c>
       <c r="B640" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="641" spans="1:2" x14ac:dyDescent="0.25">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="641" spans="1:2">
       <c r="A641" s="1">
         <v>639</v>
       </c>
       <c r="B641" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="642" spans="1:2" x14ac:dyDescent="0.25">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="642" spans="1:2">
       <c r="A642" s="1">
         <v>640</v>
       </c>
       <c r="B642" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="643" spans="1:2" x14ac:dyDescent="0.25">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="643" spans="1:2">
       <c r="A643" s="1">
         <v>641</v>
       </c>
       <c r="B643" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="644" spans="1:2" x14ac:dyDescent="0.25">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="644" spans="1:2">
       <c r="A644" s="1">
         <v>642</v>
       </c>
       <c r="B644" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="645" spans="1:2" x14ac:dyDescent="0.25">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="645" spans="1:2">
       <c r="A645" s="1">
         <v>643</v>
       </c>
       <c r="B645" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="646" spans="1:2" x14ac:dyDescent="0.25">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="646" spans="1:2">
       <c r="A646" s="1">
         <v>644</v>
       </c>
       <c r="B646" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="647" spans="1:2" x14ac:dyDescent="0.25">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="647" spans="1:2">
       <c r="A647" s="1">
         <v>645</v>
       </c>
       <c r="B647" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="648" spans="1:2" x14ac:dyDescent="0.25">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="648" spans="1:2">
       <c r="A648" s="1">
         <v>646</v>
       </c>
       <c r="B648" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="649" spans="1:2" x14ac:dyDescent="0.25">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="649" spans="1:2">
       <c r="A649" s="1">
         <v>647</v>
       </c>
       <c r="B649" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="650" spans="1:2" x14ac:dyDescent="0.25">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="650" spans="1:2">
       <c r="A650" s="1">
         <v>648</v>
       </c>
       <c r="B650" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="651" spans="1:2" x14ac:dyDescent="0.25">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="651" spans="1:2">
       <c r="A651" s="1">
         <v>649</v>
       </c>
       <c r="B651" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="652" spans="1:2" x14ac:dyDescent="0.25">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="652" spans="1:2">
       <c r="A652" s="1">
         <v>650</v>
       </c>
       <c r="B652" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="653" spans="1:2" x14ac:dyDescent="0.25">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="653" spans="1:2">
       <c r="A653" s="1">
         <v>651</v>
       </c>
       <c r="B653" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="654" spans="1:2" x14ac:dyDescent="0.25">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="654" spans="1:2">
       <c r="A654" s="1">
         <v>652</v>
       </c>
       <c r="B654" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="655" spans="1:2" x14ac:dyDescent="0.25">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="655" spans="1:2">
       <c r="A655" s="1">
         <v>653</v>
       </c>
       <c r="B655" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="656" spans="1:2" x14ac:dyDescent="0.25">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="656" spans="1:2">
       <c r="A656" s="1">
         <v>654</v>
       </c>
       <c r="B656" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="657" spans="1:2" x14ac:dyDescent="0.25">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="657" spans="1:2">
       <c r="A657" s="1">
         <v>655</v>
       </c>
       <c r="B657" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="658" spans="1:2" x14ac:dyDescent="0.25">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="658" spans="1:2">
       <c r="A658" s="1">
         <v>656</v>
       </c>
       <c r="B658" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="659" spans="1:2" x14ac:dyDescent="0.25">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="659" spans="1:2">
       <c r="A659" s="1">
         <v>657</v>
       </c>
       <c r="B659" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="660" spans="1:2" x14ac:dyDescent="0.25">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="660" spans="1:2">
       <c r="A660" s="1">
         <v>658</v>
       </c>
       <c r="B660" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="661" spans="1:2" x14ac:dyDescent="0.25">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="661" spans="1:2">
       <c r="A661" s="1">
         <v>659</v>
       </c>
       <c r="B661" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="662" spans="1:2" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="662" spans="1:2">
       <c r="A662" s="1">
         <v>660</v>
       </c>
       <c r="B662" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="663" spans="1:2" x14ac:dyDescent="0.25">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="663" spans="1:2">
       <c r="A663" s="1">
         <v>661</v>
       </c>
       <c r="B663" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="664" spans="1:2" x14ac:dyDescent="0.25">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="664" spans="1:2">
       <c r="A664" s="1">
         <v>662</v>
       </c>
       <c r="B664" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
   </sheetData>
